--- a/data/derived-data/search-string/search-string.xlsx
+++ b/data/derived-data/search-string/search-string.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deviv\R-working-folder\OBS_scoping_search\scoping-searches\iteration-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deviv\R-working-folder\OBS_systematic_map\data\derived-data\search-string\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="2750" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="2750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>READ ME</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>General climate threats</t>
-  </si>
-  <si>
-    <t>("climate hazard$" OR (climate NEAR/2 variability) OR "climate extreme$" OR "extreme weather" OR "extreme event$" OR "abrupt event$" OR "coast* erosion" OR heat$stress OR "thermal stress" OR "heat wave$")</t>
   </si>
   <si>
     <t>Ocean warming</t>
@@ -390,9 +387,6 @@
     <t>(ocean$ OR oceanic OR sea$ OR seawater OR "sea water" OR marine OR maritime OR pelagic OR offshore OR benthic OR "deep sea" OR deep-sea OR seafloor OR coast* OR shore* OR foreshore OR offshore OR "continental shelf" OR ocean-based OR "sea ice" OR sea-ice OR island* OR littor* OR "shallow water" OR benthic OR estuary OR estuaries OR tidal OR tide$)</t>
   </si>
   <si>
-    <t>(heatwave$ OR "heat wave$" OR warming OR (coral$ NEAR/1 bleaching) OR ((increas* OR ris*) NEAR/1 temperature$))</t>
-  </si>
-  <si>
     <t>("blue carbon" OR "ocean reforest*" OR ((seaweed* OR "sea weed*" OR macroalga$ OR kelp OR vegetation OR coast* OR plant OR wetland$ OR mangrove$) NEAR/5 (*culture OR cultivat* OR farm* OR increase OR expand OR replant* OR reforest* OR afforest* OR rehabilitat* OR restor*)))</t>
   </si>
   <si>
@@ -406,6 +400,18 @@
   </si>
   <si>
     <t>Mitigating eutrophication/plastic pollution</t>
+  </si>
+  <si>
+    <t>(OCEAN_RELATED)</t>
+  </si>
+  <si>
+    <t>(OCEAN_RELATED) NOT (NO_TERMS)</t>
+  </si>
+  <si>
+    <t>("climate hazard$" OR (climate NEAR/2 variability) OR "climate extreme$" OR "extreme weather" OR "extreme event$" OR "abrupt event$" OR "coast* erosion")</t>
+  </si>
+  <si>
+    <t>(heat$stress OR "thermal stress" OR "heat wave$" OR heatwave$ OR warming OR (coral$ NEAR/1 bleaching) OR ((increas* OR ris*) NEAR/1 temperature$))</t>
   </si>
 </sst>
 </file>
@@ -528,9 +534,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -549,6 +552,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -836,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1001"/>
+  <dimension ref="A1:A1003"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -849,46 +855,54 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>106</v>
+    <row r="2" spans="1:1" ht="15" customHeight="1">
+      <c r="A2" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="12" customHeight="1">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:1" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="12" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="12" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="12" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="12" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="12" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="12" customHeight="1">
-      <c r="A4" s="20" t="s">
+    <row r="9" spans="1:1" ht="12" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="12" customHeight="1">
+      <c r="A10" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="12" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="12" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="12" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="12" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="12" customHeight="1"/>
-    <row r="10" spans="1:1" ht="12" customHeight="1"/>
     <row r="11" spans="1:1" ht="12" customHeight="1"/>
     <row r="12" spans="1:1" ht="12" customHeight="1"/>
     <row r="13" spans="1:1" ht="12" customHeight="1"/>
@@ -1880,6 +1894,8 @@
     <row r="999" ht="12" customHeight="1"/>
     <row r="1000" ht="12" customHeight="1"/>
     <row r="1001" ht="12" customHeight="1"/>
+    <row r="1002" ht="12" customHeight="1"/>
+    <row r="1003" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -1890,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1903,10 +1919,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1926,14 +1942,14 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>55</v>
+      <c r="B2" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1955,8 +1971,8 @@
       <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>119</v>
+      <c r="C3" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1978,7 +1994,7 @@
       <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7"/>
@@ -2001,7 +2017,7 @@
       <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7"/>
@@ -2022,10 +2038,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2047,7 +2063,7 @@
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="7"/>
@@ -2070,7 +2086,7 @@
       <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="7"/>
@@ -2093,8 +2109,8 @@
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>28</v>
+      <c r="C9" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -2114,10 +2130,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>120</v>
+      <c r="C10" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2137,10 +2153,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2160,10 +2176,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>118</v>
+      <c r="C12" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2180,13 +2196,13 @@
     </row>
     <row r="13" spans="1:15" ht="12" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>107</v>
+      <c r="C13" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2203,13 +2219,13 @@
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1">
       <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2226,13 +2242,13 @@
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>113</v>
+      <c r="C15" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2249,13 +2265,13 @@
     </row>
     <row r="16" spans="1:15" ht="12" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>34</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2272,13 +2288,13 @@
     </row>
     <row r="17" spans="1:15" ht="12" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2295,13 +2311,13 @@
     </row>
     <row r="18" spans="1:15" ht="12" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>104</v>
+      <c r="C18" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2318,13 +2334,13 @@
     </row>
     <row r="19" spans="1:15" ht="12" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -2341,13 +2357,13 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>121</v>
+      <c r="C20" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2364,13 +2380,13 @@
     </row>
     <row r="21" spans="1:15" ht="12" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>117</v>
+      <c r="C21" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -2387,13 +2403,13 @@
     </row>
     <row r="22" spans="1:15" ht="12" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>110</v>
+      <c r="C22" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2410,13 +2426,13 @@
     </row>
     <row r="23" spans="1:15" ht="12" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2433,13 +2449,13 @@
     </row>
     <row r="24" spans="1:15" ht="12" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2456,13 +2472,13 @@
     </row>
     <row r="25" spans="1:15" ht="12" customHeight="1">
       <c r="A25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>122</v>
+      <c r="C25" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -2479,13 +2495,13 @@
     </row>
     <row r="26" spans="1:15" ht="16.5" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>105</v>
+      <c r="C26" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -2502,13 +2518,13 @@
     </row>
     <row r="27" spans="1:15" ht="16.5" customHeight="1">
       <c r="A27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>95</v>
+      <c r="C27" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -2525,13 +2541,13 @@
     </row>
     <row r="28" spans="1:15" ht="16.5" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>88</v>
+      <c r="C28" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2548,13 +2564,13 @@
     </row>
     <row r="29" spans="1:15" ht="16.5" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>90</v>
+      <c r="C29" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2571,13 +2587,13 @@
     </row>
     <row r="30" spans="1:15" ht="16.5" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>91</v>
+      <c r="C30" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -2594,13 +2610,13 @@
     </row>
     <row r="31" spans="1:15" ht="16.5" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2617,13 +2633,13 @@
     </row>
     <row r="32" spans="1:15" ht="16.5" customHeight="1">
       <c r="A32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>101</v>
+      <c r="C32" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2640,13 +2656,13 @@
     </row>
     <row r="33" spans="1:15" ht="16.5" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>100</v>
+      <c r="C33" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -2663,13 +2679,13 @@
     </row>
     <row r="34" spans="1:15" ht="16.5" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>94</v>
+      <c r="C34" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -2686,13 +2702,13 @@
     </row>
     <row r="35" spans="1:15" ht="16.5" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>92</v>
+      <c r="C35" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2709,13 +2725,13 @@
     </row>
     <row r="36" spans="1:15" ht="16.5" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>96</v>
+      <c r="C36" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -2732,13 +2748,13 @@
     </row>
     <row r="37" spans="1:15" ht="16.5" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>93</v>
+      <c r="C37" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2755,13 +2771,13 @@
     </row>
     <row r="38" spans="1:15" ht="16.5" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>98</v>
+      <c r="C38" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2778,13 +2794,13 @@
     </row>
     <row r="39" spans="1:15" ht="16.5" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>99</v>
+      <c r="C39" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2801,13 +2817,13 @@
     </row>
     <row r="40" spans="1:15" ht="16.5" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>97</v>
+      <c r="C40" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2824,13 +2840,13 @@
     </row>
     <row r="41" spans="1:15" ht="12" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2847,13 +2863,13 @@
     </row>
     <row r="42" spans="1:15" ht="12" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -2870,13 +2886,13 @@
     </row>
     <row r="43" spans="1:15" ht="12" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -18963,7 +18979,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -18975,7 +18991,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>14</v>
@@ -19001,7 +19017,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -19021,10 +19037,10 @@
     </row>
     <row r="3" spans="1:17" ht="12" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -19044,10 +19060,10 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -19067,10 +19083,10 @@
     </row>
     <row r="5" spans="1:17" ht="12" customHeight="1">
       <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -19090,7 +19106,7 @@
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -19109,7 +19125,7 @@
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -19128,7 +19144,7 @@
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -19147,7 +19163,7 @@
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="13"/>
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -19166,7 +19182,7 @@
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1">
       <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -19185,7 +19201,7 @@
     </row>
     <row r="11" spans="1:17" ht="12" customHeight="1">
       <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -19204,7 +19220,7 @@
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="13"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -19223,7 +19239,7 @@
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -19242,7 +19258,7 @@
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -19261,7 +19277,7 @@
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -19280,7 +19296,7 @@
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -19299,7 +19315,7 @@
     </row>
     <row r="17" spans="1:17" ht="12" customHeight="1">
       <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -19318,7 +19334,7 @@
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1">
       <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -19337,7 +19353,7 @@
     </row>
     <row r="19" spans="1:17" ht="12" customHeight="1">
       <c r="A19" s="13"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -19356,7 +19372,7 @@
     </row>
     <row r="20" spans="1:17" ht="12" customHeight="1">
       <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -19375,7 +19391,7 @@
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1">
       <c r="A21" s="13"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -19394,7 +19410,7 @@
     </row>
     <row r="22" spans="1:17" ht="12" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -19413,7 +19429,7 @@
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -19432,7 +19448,7 @@
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -19451,7 +19467,7 @@
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -19470,7 +19486,7 @@
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1">
       <c r="A26" s="13"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -19489,7 +19505,7 @@
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -19508,7 +19524,7 @@
     </row>
     <row r="28" spans="1:17" ht="12" customHeight="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -19527,7 +19543,7 @@
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -19546,7 +19562,7 @@
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -19565,7 +19581,7 @@
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1">
       <c r="A31" s="13"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -19584,7 +19600,7 @@
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1">
       <c r="A32" s="13"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -19603,7 +19619,7 @@
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -19622,7 +19638,7 @@
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -19641,7 +19657,7 @@
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="16"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -19660,7 +19676,7 @@
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1">
       <c r="A36" s="13"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -19679,7 +19695,7 @@
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1">
       <c r="A37" s="13"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -19698,7 +19714,7 @@
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -19717,7 +19733,7 @@
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="16"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -19736,7 +19752,7 @@
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="16"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -19755,7 +19771,7 @@
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1">
       <c r="A41" s="13"/>
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -19774,7 +19790,7 @@
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -19793,7 +19809,7 @@
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1">
       <c r="A43" s="13"/>
-      <c r="B43" s="16"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -19812,7 +19828,7 @@
     </row>
     <row r="44" spans="1:17" ht="12" customHeight="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -19831,7 +19847,7 @@
     </row>
     <row r="45" spans="1:17" ht="12" customHeight="1">
       <c r="A45" s="13"/>
-      <c r="B45" s="16"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -19850,7 +19866,7 @@
     </row>
     <row r="46" spans="1:17" ht="12" customHeight="1">
       <c r="A46" s="13"/>
-      <c r="B46" s="16"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -19869,7 +19885,7 @@
     </row>
     <row r="47" spans="1:17" ht="12" customHeight="1">
       <c r="A47" s="13"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -19888,7 +19904,7 @@
     </row>
     <row r="48" spans="1:17" ht="12" customHeight="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -19907,7 +19923,7 @@
     </row>
     <row r="49" spans="1:17" ht="12" customHeight="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -19926,7 +19942,7 @@
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1">
       <c r="A50" s="13"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -19945,7 +19961,7 @@
     </row>
     <row r="51" spans="1:17" ht="12" customHeight="1">
       <c r="A51" s="13"/>
-      <c r="B51" s="16"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -19964,7 +19980,7 @@
     </row>
     <row r="52" spans="1:17" ht="12" customHeight="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="16"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -19983,7 +19999,7 @@
     </row>
     <row r="53" spans="1:17" ht="12" customHeight="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="16"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -20002,7 +20018,7 @@
     </row>
     <row r="54" spans="1:17" ht="12" customHeight="1">
       <c r="A54" s="13"/>
-      <c r="B54" s="16"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -20021,7 +20037,7 @@
     </row>
     <row r="55" spans="1:17" ht="12" customHeight="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="16"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -20040,7 +20056,7 @@
     </row>
     <row r="56" spans="1:17" ht="12" customHeight="1">
       <c r="A56" s="13"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -20059,7 +20075,7 @@
     </row>
     <row r="57" spans="1:17" ht="12" customHeight="1">
       <c r="A57" s="13"/>
-      <c r="B57" s="16"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -20078,7 +20094,7 @@
     </row>
     <row r="58" spans="1:17" ht="12" customHeight="1">
       <c r="A58" s="13"/>
-      <c r="B58" s="16"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -20097,7 +20113,7 @@
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1">
       <c r="A59" s="13"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -20116,7 +20132,7 @@
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1">
       <c r="A60" s="13"/>
-      <c r="B60" s="16"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
@@ -20135,7 +20151,7 @@
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1">
       <c r="A61" s="13"/>
-      <c r="B61" s="16"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -20154,7 +20170,7 @@
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1">
       <c r="A62" s="13"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -20173,7 +20189,7 @@
     </row>
     <row r="63" spans="1:17" ht="12" customHeight="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="16"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -20192,7 +20208,7 @@
     </row>
     <row r="64" spans="1:17" ht="12" customHeight="1">
       <c r="A64" s="13"/>
-      <c r="B64" s="16"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -20211,7 +20227,7 @@
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="16"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -20230,7 +20246,7 @@
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1">
       <c r="A66" s="13"/>
-      <c r="B66" s="16"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -20249,7 +20265,7 @@
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1">
       <c r="A67" s="13"/>
-      <c r="B67" s="16"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -20268,7 +20284,7 @@
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1">
       <c r="A68" s="13"/>
-      <c r="B68" s="16"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -20287,7 +20303,7 @@
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1">
       <c r="A69" s="13"/>
-      <c r="B69" s="16"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
@@ -20306,7 +20322,7 @@
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1">
       <c r="A70" s="13"/>
-      <c r="B70" s="16"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -20325,7 +20341,7 @@
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1">
       <c r="A71" s="13"/>
-      <c r="B71" s="16"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
@@ -20344,7 +20360,7 @@
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1">
       <c r="A72" s="13"/>
-      <c r="B72" s="16"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -20363,7 +20379,7 @@
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1">
       <c r="A73" s="13"/>
-      <c r="B73" s="16"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -20382,7 +20398,7 @@
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="16"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
@@ -20401,7 +20417,7 @@
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="16"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -20420,7 +20436,7 @@
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1">
       <c r="A76" s="13"/>
-      <c r="B76" s="16"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -20439,7 +20455,7 @@
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1">
       <c r="A77" s="13"/>
-      <c r="B77" s="16"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -20458,7 +20474,7 @@
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1">
       <c r="A78" s="13"/>
-      <c r="B78" s="16"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -20477,7 +20493,7 @@
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1">
       <c r="A79" s="13"/>
-      <c r="B79" s="16"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -20496,7 +20512,7 @@
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1">
       <c r="A80" s="13"/>
-      <c r="B80" s="16"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -20515,7 +20531,7 @@
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1">
       <c r="A81" s="13"/>
-      <c r="B81" s="16"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -20534,7 +20550,7 @@
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1">
       <c r="A82" s="13"/>
-      <c r="B82" s="16"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -20553,7 +20569,7 @@
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1">
       <c r="A83" s="13"/>
-      <c r="B83" s="16"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -20572,7 +20588,7 @@
     </row>
     <row r="84" spans="1:17" ht="12" customHeight="1">
       <c r="A84" s="13"/>
-      <c r="B84" s="16"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
@@ -20591,7 +20607,7 @@
     </row>
     <row r="85" spans="1:17" ht="12" customHeight="1">
       <c r="A85" s="13"/>
-      <c r="B85" s="16"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
@@ -20610,7 +20626,7 @@
     </row>
     <row r="86" spans="1:17" ht="12" customHeight="1">
       <c r="A86" s="13"/>
-      <c r="B86" s="16"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -20629,7 +20645,7 @@
     </row>
     <row r="87" spans="1:17" ht="12" customHeight="1">
       <c r="A87" s="13"/>
-      <c r="B87" s="16"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -20648,7 +20664,7 @@
     </row>
     <row r="88" spans="1:17" ht="12" customHeight="1">
       <c r="A88" s="13"/>
-      <c r="B88" s="16"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -20667,7 +20683,7 @@
     </row>
     <row r="89" spans="1:17" ht="12" customHeight="1">
       <c r="A89" s="13"/>
-      <c r="B89" s="16"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
@@ -20686,7 +20702,7 @@
     </row>
     <row r="90" spans="1:17" ht="12" customHeight="1">
       <c r="A90" s="13"/>
-      <c r="B90" s="16"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -20705,7 +20721,7 @@
     </row>
     <row r="91" spans="1:17" ht="12" customHeight="1">
       <c r="A91" s="13"/>
-      <c r="B91" s="16"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
@@ -20724,7 +20740,7 @@
     </row>
     <row r="92" spans="1:17" ht="12" customHeight="1">
       <c r="A92" s="13"/>
-      <c r="B92" s="16"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
@@ -20743,7 +20759,7 @@
     </row>
     <row r="93" spans="1:17" ht="12" customHeight="1">
       <c r="A93" s="13"/>
-      <c r="B93" s="16"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -20762,7 +20778,7 @@
     </row>
     <row r="94" spans="1:17" ht="12" customHeight="1">
       <c r="A94" s="13"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
@@ -20781,7 +20797,7 @@
     </row>
     <row r="95" spans="1:17" ht="12" customHeight="1">
       <c r="A95" s="13"/>
-      <c r="B95" s="16"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -20800,7 +20816,7 @@
     </row>
     <row r="96" spans="1:17" ht="12" customHeight="1">
       <c r="A96" s="13"/>
-      <c r="B96" s="16"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
@@ -20819,7 +20835,7 @@
     </row>
     <row r="97" spans="1:17" ht="12" customHeight="1">
       <c r="A97" s="13"/>
-      <c r="B97" s="16"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -20838,7 +20854,7 @@
     </row>
     <row r="98" spans="1:17" ht="12" customHeight="1">
       <c r="A98" s="13"/>
-      <c r="B98" s="16"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -20857,7 +20873,7 @@
     </row>
     <row r="99" spans="1:17" ht="12" customHeight="1">
       <c r="A99" s="13"/>
-      <c r="B99" s="16"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
@@ -20876,7 +20892,7 @@
     </row>
     <row r="100" spans="1:17" ht="12" customHeight="1">
       <c r="A100" s="13"/>
-      <c r="B100" s="16"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
@@ -20895,7 +20911,7 @@
     </row>
     <row r="101" spans="1:17" ht="12" customHeight="1">
       <c r="A101" s="13"/>
-      <c r="B101" s="16"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -20914,7 +20930,7 @@
     </row>
     <row r="102" spans="1:17" ht="12" customHeight="1">
       <c r="A102" s="13"/>
-      <c r="B102" s="16"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -20933,7 +20949,7 @@
     </row>
     <row r="103" spans="1:17" ht="12" customHeight="1">
       <c r="A103" s="13"/>
-      <c r="B103" s="16"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -20952,7 +20968,7 @@
     </row>
     <row r="104" spans="1:17" ht="12" customHeight="1">
       <c r="A104" s="13"/>
-      <c r="B104" s="16"/>
+      <c r="B104" s="15"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
@@ -20971,7 +20987,7 @@
     </row>
     <row r="105" spans="1:17" ht="12" customHeight="1">
       <c r="A105" s="13"/>
-      <c r="B105" s="16"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
@@ -20990,7 +21006,7 @@
     </row>
     <row r="106" spans="1:17" ht="12" customHeight="1">
       <c r="A106" s="13"/>
-      <c r="B106" s="16"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
@@ -21009,7 +21025,7 @@
     </row>
     <row r="107" spans="1:17" ht="12" customHeight="1">
       <c r="A107" s="13"/>
-      <c r="B107" s="16"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
@@ -21028,7 +21044,7 @@
     </row>
     <row r="108" spans="1:17" ht="12" customHeight="1">
       <c r="A108" s="13"/>
-      <c r="B108" s="16"/>
+      <c r="B108" s="15"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -21047,7 +21063,7 @@
     </row>
     <row r="109" spans="1:17" ht="12" customHeight="1">
       <c r="A109" s="13"/>
-      <c r="B109" s="16"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
@@ -21066,7 +21082,7 @@
     </row>
     <row r="110" spans="1:17" ht="12" customHeight="1">
       <c r="A110" s="13"/>
-      <c r="B110" s="16"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -21085,7 +21101,7 @@
     </row>
     <row r="111" spans="1:17" ht="12" customHeight="1">
       <c r="A111" s="13"/>
-      <c r="B111" s="16"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
@@ -21104,7 +21120,7 @@
     </row>
     <row r="112" spans="1:17" ht="12" customHeight="1">
       <c r="A112" s="13"/>
-      <c r="B112" s="16"/>
+      <c r="B112" s="15"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
@@ -21123,7 +21139,7 @@
     </row>
     <row r="113" spans="1:17" ht="12" customHeight="1">
       <c r="A113" s="13"/>
-      <c r="B113" s="16"/>
+      <c r="B113" s="15"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
@@ -21142,7 +21158,7 @@
     </row>
     <row r="114" spans="1:17" ht="12" customHeight="1">
       <c r="A114" s="13"/>
-      <c r="B114" s="16"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
@@ -21161,7 +21177,7 @@
     </row>
     <row r="115" spans="1:17" ht="12" customHeight="1">
       <c r="A115" s="13"/>
-      <c r="B115" s="16"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
@@ -21180,7 +21196,7 @@
     </row>
     <row r="116" spans="1:17" ht="12" customHeight="1">
       <c r="A116" s="13"/>
-      <c r="B116" s="16"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
@@ -21199,7 +21215,7 @@
     </row>
     <row r="117" spans="1:17" ht="12" customHeight="1">
       <c r="A117" s="13"/>
-      <c r="B117" s="16"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
@@ -21218,7 +21234,7 @@
     </row>
     <row r="118" spans="1:17" ht="12" customHeight="1">
       <c r="A118" s="13"/>
-      <c r="B118" s="16"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
@@ -21237,7 +21253,7 @@
     </row>
     <row r="119" spans="1:17" ht="12" customHeight="1">
       <c r="A119" s="13"/>
-      <c r="B119" s="16"/>
+      <c r="B119" s="15"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
@@ -21256,7 +21272,7 @@
     </row>
     <row r="120" spans="1:17" ht="12" customHeight="1">
       <c r="A120" s="13"/>
-      <c r="B120" s="16"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
@@ -21275,7 +21291,7 @@
     </row>
     <row r="121" spans="1:17" ht="12" customHeight="1">
       <c r="A121" s="13"/>
-      <c r="B121" s="16"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
@@ -21294,7 +21310,7 @@
     </row>
     <row r="122" spans="1:17" ht="12" customHeight="1">
       <c r="A122" s="13"/>
-      <c r="B122" s="16"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
@@ -21313,7 +21329,7 @@
     </row>
     <row r="123" spans="1:17" ht="12" customHeight="1">
       <c r="A123" s="13"/>
-      <c r="B123" s="16"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
@@ -21332,7 +21348,7 @@
     </row>
     <row r="124" spans="1:17" ht="12" customHeight="1">
       <c r="A124" s="13"/>
-      <c r="B124" s="16"/>
+      <c r="B124" s="15"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
@@ -21351,7 +21367,7 @@
     </row>
     <row r="125" spans="1:17" ht="12" customHeight="1">
       <c r="A125" s="13"/>
-      <c r="B125" s="16"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
@@ -21370,7 +21386,7 @@
     </row>
     <row r="126" spans="1:17" ht="12" customHeight="1">
       <c r="A126" s="13"/>
-      <c r="B126" s="16"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
@@ -21389,7 +21405,7 @@
     </row>
     <row r="127" spans="1:17" ht="12" customHeight="1">
       <c r="A127" s="13"/>
-      <c r="B127" s="16"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
@@ -21408,7 +21424,7 @@
     </row>
     <row r="128" spans="1:17" ht="12" customHeight="1">
       <c r="A128" s="13"/>
-      <c r="B128" s="16"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
@@ -21427,7 +21443,7 @@
     </row>
     <row r="129" spans="1:17" ht="12" customHeight="1">
       <c r="A129" s="13"/>
-      <c r="B129" s="16"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
@@ -21446,7 +21462,7 @@
     </row>
     <row r="130" spans="1:17" ht="12" customHeight="1">
       <c r="A130" s="13"/>
-      <c r="B130" s="16"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
@@ -21465,7 +21481,7 @@
     </row>
     <row r="131" spans="1:17" ht="12" customHeight="1">
       <c r="A131" s="13"/>
-      <c r="B131" s="16"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
@@ -21484,7 +21500,7 @@
     </row>
     <row r="132" spans="1:17" ht="12" customHeight="1">
       <c r="A132" s="13"/>
-      <c r="B132" s="16"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
@@ -21503,7 +21519,7 @@
     </row>
     <row r="133" spans="1:17" ht="12" customHeight="1">
       <c r="A133" s="13"/>
-      <c r="B133" s="16"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
@@ -21522,7 +21538,7 @@
     </row>
     <row r="134" spans="1:17" ht="12" customHeight="1">
       <c r="A134" s="13"/>
-      <c r="B134" s="16"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
@@ -21541,7 +21557,7 @@
     </row>
     <row r="135" spans="1:17" ht="12" customHeight="1">
       <c r="A135" s="13"/>
-      <c r="B135" s="16"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
@@ -21560,7 +21576,7 @@
     </row>
     <row r="136" spans="1:17" ht="12" customHeight="1">
       <c r="A136" s="13"/>
-      <c r="B136" s="16"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
@@ -21579,7 +21595,7 @@
     </row>
     <row r="137" spans="1:17" ht="12" customHeight="1">
       <c r="A137" s="13"/>
-      <c r="B137" s="16"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
@@ -21598,7 +21614,7 @@
     </row>
     <row r="138" spans="1:17" ht="12" customHeight="1">
       <c r="A138" s="13"/>
-      <c r="B138" s="16"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
@@ -21617,7 +21633,7 @@
     </row>
     <row r="139" spans="1:17" ht="12" customHeight="1">
       <c r="A139" s="13"/>
-      <c r="B139" s="16"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
@@ -21636,7 +21652,7 @@
     </row>
     <row r="140" spans="1:17" ht="12" customHeight="1">
       <c r="A140" s="13"/>
-      <c r="B140" s="16"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
@@ -21655,7 +21671,7 @@
     </row>
     <row r="141" spans="1:17" ht="12" customHeight="1">
       <c r="A141" s="13"/>
-      <c r="B141" s="16"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
@@ -21674,7 +21690,7 @@
     </row>
     <row r="142" spans="1:17" ht="12" customHeight="1">
       <c r="A142" s="13"/>
-      <c r="B142" s="16"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
@@ -21693,7 +21709,7 @@
     </row>
     <row r="143" spans="1:17" ht="12" customHeight="1">
       <c r="A143" s="13"/>
-      <c r="B143" s="16"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
@@ -21712,7 +21728,7 @@
     </row>
     <row r="144" spans="1:17" ht="12" customHeight="1">
       <c r="A144" s="13"/>
-      <c r="B144" s="16"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
@@ -21731,7 +21747,7 @@
     </row>
     <row r="145" spans="1:17" ht="12" customHeight="1">
       <c r="A145" s="13"/>
-      <c r="B145" s="16"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
@@ -21750,7 +21766,7 @@
     </row>
     <row r="146" spans="1:17" ht="12" customHeight="1">
       <c r="A146" s="13"/>
-      <c r="B146" s="16"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
@@ -21769,7 +21785,7 @@
     </row>
     <row r="147" spans="1:17" ht="12" customHeight="1">
       <c r="A147" s="13"/>
-      <c r="B147" s="16"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
@@ -21788,7 +21804,7 @@
     </row>
     <row r="148" spans="1:17" ht="12" customHeight="1">
       <c r="A148" s="13"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
@@ -21807,7 +21823,7 @@
     </row>
     <row r="149" spans="1:17" ht="12" customHeight="1">
       <c r="A149" s="13"/>
-      <c r="B149" s="16"/>
+      <c r="B149" s="15"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
@@ -21826,7 +21842,7 @@
     </row>
     <row r="150" spans="1:17" ht="12" customHeight="1">
       <c r="A150" s="13"/>
-      <c r="B150" s="16"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
@@ -21845,7 +21861,7 @@
     </row>
     <row r="151" spans="1:17" ht="12" customHeight="1">
       <c r="A151" s="13"/>
-      <c r="B151" s="16"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
@@ -21864,7 +21880,7 @@
     </row>
     <row r="152" spans="1:17" ht="12" customHeight="1">
       <c r="A152" s="13"/>
-      <c r="B152" s="16"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
@@ -21883,7 +21899,7 @@
     </row>
     <row r="153" spans="1:17" ht="12" customHeight="1">
       <c r="A153" s="13"/>
-      <c r="B153" s="16"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
@@ -21902,7 +21918,7 @@
     </row>
     <row r="154" spans="1:17" ht="12" customHeight="1">
       <c r="A154" s="13"/>
-      <c r="B154" s="16"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
@@ -21921,7 +21937,7 @@
     </row>
     <row r="155" spans="1:17" ht="12" customHeight="1">
       <c r="A155" s="13"/>
-      <c r="B155" s="16"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
@@ -21940,7 +21956,7 @@
     </row>
     <row r="156" spans="1:17" ht="12" customHeight="1">
       <c r="A156" s="13"/>
-      <c r="B156" s="16"/>
+      <c r="B156" s="15"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
@@ -21959,7 +21975,7 @@
     </row>
     <row r="157" spans="1:17" ht="12" customHeight="1">
       <c r="A157" s="13"/>
-      <c r="B157" s="16"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
@@ -21978,7 +21994,7 @@
     </row>
     <row r="158" spans="1:17" ht="12" customHeight="1">
       <c r="A158" s="13"/>
-      <c r="B158" s="16"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
@@ -21997,7 +22013,7 @@
     </row>
     <row r="159" spans="1:17" ht="12" customHeight="1">
       <c r="A159" s="13"/>
-      <c r="B159" s="16"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
@@ -22016,7 +22032,7 @@
     </row>
     <row r="160" spans="1:17" ht="12" customHeight="1">
       <c r="A160" s="13"/>
-      <c r="B160" s="16"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
@@ -22035,7 +22051,7 @@
     </row>
     <row r="161" spans="1:17" ht="12" customHeight="1">
       <c r="A161" s="13"/>
-      <c r="B161" s="16"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
@@ -22054,7 +22070,7 @@
     </row>
     <row r="162" spans="1:17" ht="12" customHeight="1">
       <c r="A162" s="13"/>
-      <c r="B162" s="16"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
@@ -22073,7 +22089,7 @@
     </row>
     <row r="163" spans="1:17" ht="12" customHeight="1">
       <c r="A163" s="13"/>
-      <c r="B163" s="16"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
@@ -22092,7 +22108,7 @@
     </row>
     <row r="164" spans="1:17" ht="12" customHeight="1">
       <c r="A164" s="13"/>
-      <c r="B164" s="16"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
@@ -22111,7 +22127,7 @@
     </row>
     <row r="165" spans="1:17" ht="12" customHeight="1">
       <c r="A165" s="13"/>
-      <c r="B165" s="16"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
@@ -22130,7 +22146,7 @@
     </row>
     <row r="166" spans="1:17" ht="12" customHeight="1">
       <c r="A166" s="13"/>
-      <c r="B166" s="16"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
@@ -22149,7 +22165,7 @@
     </row>
     <row r="167" spans="1:17" ht="12" customHeight="1">
       <c r="A167" s="13"/>
-      <c r="B167" s="16"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
@@ -22168,7 +22184,7 @@
     </row>
     <row r="168" spans="1:17" ht="12" customHeight="1">
       <c r="A168" s="13"/>
-      <c r="B168" s="16"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
@@ -22187,7 +22203,7 @@
     </row>
     <row r="169" spans="1:17" ht="12" customHeight="1">
       <c r="A169" s="13"/>
-      <c r="B169" s="16"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
@@ -22206,7 +22222,7 @@
     </row>
     <row r="170" spans="1:17" ht="12" customHeight="1">
       <c r="A170" s="13"/>
-      <c r="B170" s="16"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
@@ -22225,7 +22241,7 @@
     </row>
     <row r="171" spans="1:17" ht="12" customHeight="1">
       <c r="A171" s="13"/>
-      <c r="B171" s="16"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
@@ -22244,7 +22260,7 @@
     </row>
     <row r="172" spans="1:17" ht="12" customHeight="1">
       <c r="A172" s="13"/>
-      <c r="B172" s="16"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
@@ -22263,7 +22279,7 @@
     </row>
     <row r="173" spans="1:17" ht="12" customHeight="1">
       <c r="A173" s="13"/>
-      <c r="B173" s="16"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
@@ -22282,7 +22298,7 @@
     </row>
     <row r="174" spans="1:17" ht="12" customHeight="1">
       <c r="A174" s="13"/>
-      <c r="B174" s="16"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
@@ -22301,7 +22317,7 @@
     </row>
     <row r="175" spans="1:17" ht="12" customHeight="1">
       <c r="A175" s="13"/>
-      <c r="B175" s="16"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
@@ -22320,7 +22336,7 @@
     </row>
     <row r="176" spans="1:17" ht="12" customHeight="1">
       <c r="A176" s="13"/>
-      <c r="B176" s="16"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
@@ -22339,7 +22355,7 @@
     </row>
     <row r="177" spans="1:17" ht="12" customHeight="1">
       <c r="A177" s="13"/>
-      <c r="B177" s="16"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
@@ -22358,7 +22374,7 @@
     </row>
     <row r="178" spans="1:17" ht="12" customHeight="1">
       <c r="A178" s="13"/>
-      <c r="B178" s="16"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
@@ -22377,7 +22393,7 @@
     </row>
     <row r="179" spans="1:17" ht="12" customHeight="1">
       <c r="A179" s="13"/>
-      <c r="B179" s="16"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
@@ -22396,7 +22412,7 @@
     </row>
     <row r="180" spans="1:17" ht="12" customHeight="1">
       <c r="A180" s="13"/>
-      <c r="B180" s="16"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
@@ -22415,7 +22431,7 @@
     </row>
     <row r="181" spans="1:17" ht="12" customHeight="1">
       <c r="A181" s="13"/>
-      <c r="B181" s="16"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
@@ -22434,7 +22450,7 @@
     </row>
     <row r="182" spans="1:17" ht="12" customHeight="1">
       <c r="A182" s="13"/>
-      <c r="B182" s="16"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
@@ -22453,7 +22469,7 @@
     </row>
     <row r="183" spans="1:17" ht="12" customHeight="1">
       <c r="A183" s="13"/>
-      <c r="B183" s="16"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
@@ -22472,7 +22488,7 @@
     </row>
     <row r="184" spans="1:17" ht="12" customHeight="1">
       <c r="A184" s="13"/>
-      <c r="B184" s="16"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
@@ -22491,7 +22507,7 @@
     </row>
     <row r="185" spans="1:17" ht="12" customHeight="1">
       <c r="A185" s="13"/>
-      <c r="B185" s="16"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
@@ -22510,7 +22526,7 @@
     </row>
     <row r="186" spans="1:17" ht="12" customHeight="1">
       <c r="A186" s="13"/>
-      <c r="B186" s="16"/>
+      <c r="B186" s="15"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
@@ -22529,7 +22545,7 @@
     </row>
     <row r="187" spans="1:17" ht="12" customHeight="1">
       <c r="A187" s="13"/>
-      <c r="B187" s="16"/>
+      <c r="B187" s="15"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
@@ -22548,7 +22564,7 @@
     </row>
     <row r="188" spans="1:17" ht="12" customHeight="1">
       <c r="A188" s="13"/>
-      <c r="B188" s="16"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
@@ -22567,7 +22583,7 @@
     </row>
     <row r="189" spans="1:17" ht="12" customHeight="1">
       <c r="A189" s="13"/>
-      <c r="B189" s="16"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
@@ -22586,7 +22602,7 @@
     </row>
     <row r="190" spans="1:17" ht="12" customHeight="1">
       <c r="A190" s="13"/>
-      <c r="B190" s="16"/>
+      <c r="B190" s="15"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
@@ -22605,7 +22621,7 @@
     </row>
     <row r="191" spans="1:17" ht="12" customHeight="1">
       <c r="A191" s="13"/>
-      <c r="B191" s="16"/>
+      <c r="B191" s="15"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
@@ -22624,7 +22640,7 @@
     </row>
     <row r="192" spans="1:17" ht="12" customHeight="1">
       <c r="A192" s="13"/>
-      <c r="B192" s="16"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
@@ -22643,7 +22659,7 @@
     </row>
     <row r="193" spans="1:17" ht="12" customHeight="1">
       <c r="A193" s="13"/>
-      <c r="B193" s="16"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
@@ -22662,7 +22678,7 @@
     </row>
     <row r="194" spans="1:17" ht="12" customHeight="1">
       <c r="A194" s="13"/>
-      <c r="B194" s="16"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
@@ -22681,7 +22697,7 @@
     </row>
     <row r="195" spans="1:17" ht="12" customHeight="1">
       <c r="A195" s="13"/>
-      <c r="B195" s="16"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
@@ -22700,7 +22716,7 @@
     </row>
     <row r="196" spans="1:17" ht="12" customHeight="1">
       <c r="A196" s="13"/>
-      <c r="B196" s="16"/>
+      <c r="B196" s="15"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
@@ -22719,7 +22735,7 @@
     </row>
     <row r="197" spans="1:17" ht="12" customHeight="1">
       <c r="A197" s="13"/>
-      <c r="B197" s="16"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
@@ -22738,7 +22754,7 @@
     </row>
     <row r="198" spans="1:17" ht="12" customHeight="1">
       <c r="A198" s="13"/>
-      <c r="B198" s="16"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
@@ -22757,7 +22773,7 @@
     </row>
     <row r="199" spans="1:17" ht="12" customHeight="1">
       <c r="A199" s="13"/>
-      <c r="B199" s="16"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
@@ -22776,7 +22792,7 @@
     </row>
     <row r="200" spans="1:17" ht="12" customHeight="1">
       <c r="A200" s="13"/>
-      <c r="B200" s="16"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
@@ -22795,7 +22811,7 @@
     </row>
     <row r="201" spans="1:17" ht="12" customHeight="1">
       <c r="A201" s="13"/>
-      <c r="B201" s="16"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
@@ -22814,7 +22830,7 @@
     </row>
     <row r="202" spans="1:17" ht="12" customHeight="1">
       <c r="A202" s="13"/>
-      <c r="B202" s="16"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
       <c r="E202" s="13"/>
@@ -22833,7 +22849,7 @@
     </row>
     <row r="203" spans="1:17" ht="12" customHeight="1">
       <c r="A203" s="13"/>
-      <c r="B203" s="16"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="E203" s="13"/>
@@ -22852,7 +22868,7 @@
     </row>
     <row r="204" spans="1:17" ht="12" customHeight="1">
       <c r="A204" s="13"/>
-      <c r="B204" s="16"/>
+      <c r="B204" s="15"/>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
       <c r="E204" s="13"/>
@@ -22871,7 +22887,7 @@
     </row>
     <row r="205" spans="1:17" ht="12" customHeight="1">
       <c r="A205" s="13"/>
-      <c r="B205" s="16"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
       <c r="E205" s="13"/>
@@ -22890,7 +22906,7 @@
     </row>
     <row r="206" spans="1:17" ht="12" customHeight="1">
       <c r="A206" s="13"/>
-      <c r="B206" s="16"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
       <c r="E206" s="13"/>
@@ -22909,7 +22925,7 @@
     </row>
     <row r="207" spans="1:17" ht="12" customHeight="1">
       <c r="A207" s="13"/>
-      <c r="B207" s="16"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
       <c r="E207" s="13"/>
@@ -22928,7 +22944,7 @@
     </row>
     <row r="208" spans="1:17" ht="12" customHeight="1">
       <c r="A208" s="13"/>
-      <c r="B208" s="16"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
       <c r="E208" s="13"/>
@@ -22947,7 +22963,7 @@
     </row>
     <row r="209" spans="1:17" ht="12" customHeight="1">
       <c r="A209" s="13"/>
-      <c r="B209" s="16"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
@@ -22966,7 +22982,7 @@
     </row>
     <row r="210" spans="1:17" ht="12" customHeight="1">
       <c r="A210" s="13"/>
-      <c r="B210" s="16"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
       <c r="E210" s="13"/>
@@ -22985,7 +23001,7 @@
     </row>
     <row r="211" spans="1:17" ht="12" customHeight="1">
       <c r="A211" s="13"/>
-      <c r="B211" s="16"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
       <c r="E211" s="13"/>
@@ -23004,7 +23020,7 @@
     </row>
     <row r="212" spans="1:17" ht="12" customHeight="1">
       <c r="A212" s="13"/>
-      <c r="B212" s="16"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
       <c r="E212" s="13"/>
@@ -23023,7 +23039,7 @@
     </row>
     <row r="213" spans="1:17" ht="12" customHeight="1">
       <c r="A213" s="13"/>
-      <c r="B213" s="16"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
       <c r="E213" s="13"/>
@@ -23042,7 +23058,7 @@
     </row>
     <row r="214" spans="1:17" ht="12" customHeight="1">
       <c r="A214" s="13"/>
-      <c r="B214" s="16"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
       <c r="E214" s="13"/>
@@ -23061,7 +23077,7 @@
     </row>
     <row r="215" spans="1:17" ht="12" customHeight="1">
       <c r="A215" s="13"/>
-      <c r="B215" s="16"/>
+      <c r="B215" s="15"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
@@ -23080,7 +23096,7 @@
     </row>
     <row r="216" spans="1:17" ht="12" customHeight="1">
       <c r="A216" s="13"/>
-      <c r="B216" s="16"/>
+      <c r="B216" s="15"/>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
@@ -23099,7 +23115,7 @@
     </row>
     <row r="217" spans="1:17" ht="12" customHeight="1">
       <c r="A217" s="13"/>
-      <c r="B217" s="16"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
@@ -23118,7 +23134,7 @@
     </row>
     <row r="218" spans="1:17" ht="12" customHeight="1">
       <c r="A218" s="13"/>
-      <c r="B218" s="16"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
@@ -23137,7 +23153,7 @@
     </row>
     <row r="219" spans="1:17" ht="12" customHeight="1">
       <c r="A219" s="13"/>
-      <c r="B219" s="16"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
@@ -23156,7 +23172,7 @@
     </row>
     <row r="220" spans="1:17" ht="12" customHeight="1">
       <c r="A220" s="13"/>
-      <c r="B220" s="16"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
@@ -23175,7 +23191,7 @@
     </row>
     <row r="221" spans="1:17" ht="12" customHeight="1">
       <c r="A221" s="13"/>
-      <c r="B221" s="16"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
@@ -23194,7 +23210,7 @@
     </row>
     <row r="222" spans="1:17" ht="12" customHeight="1">
       <c r="A222" s="13"/>
-      <c r="B222" s="16"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
@@ -23213,7 +23229,7 @@
     </row>
     <row r="223" spans="1:17" ht="12" customHeight="1">
       <c r="A223" s="13"/>
-      <c r="B223" s="16"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
@@ -23232,7 +23248,7 @@
     </row>
     <row r="224" spans="1:17" ht="12" customHeight="1">
       <c r="A224" s="13"/>
-      <c r="B224" s="16"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
@@ -23251,7 +23267,7 @@
     </row>
     <row r="225" spans="1:17" ht="12" customHeight="1">
       <c r="A225" s="13"/>
-      <c r="B225" s="16"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
@@ -23270,7 +23286,7 @@
     </row>
     <row r="226" spans="1:17" ht="12" customHeight="1">
       <c r="A226" s="13"/>
-      <c r="B226" s="16"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
@@ -23289,7 +23305,7 @@
     </row>
     <row r="227" spans="1:17" ht="12" customHeight="1">
       <c r="A227" s="13"/>
-      <c r="B227" s="16"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
@@ -23308,7 +23324,7 @@
     </row>
     <row r="228" spans="1:17" ht="12" customHeight="1">
       <c r="A228" s="13"/>
-      <c r="B228" s="16"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
@@ -23327,7 +23343,7 @@
     </row>
     <row r="229" spans="1:17" ht="12" customHeight="1">
       <c r="A229" s="13"/>
-      <c r="B229" s="16"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
@@ -23346,7 +23362,7 @@
     </row>
     <row r="230" spans="1:17" ht="12" customHeight="1">
       <c r="A230" s="13"/>
-      <c r="B230" s="16"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
@@ -23365,7 +23381,7 @@
     </row>
     <row r="231" spans="1:17" ht="12" customHeight="1">
       <c r="A231" s="13"/>
-      <c r="B231" s="16"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
@@ -23384,7 +23400,7 @@
     </row>
     <row r="232" spans="1:17" ht="12" customHeight="1">
       <c r="A232" s="13"/>
-      <c r="B232" s="16"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
@@ -23403,7 +23419,7 @@
     </row>
     <row r="233" spans="1:17" ht="12" customHeight="1">
       <c r="A233" s="13"/>
-      <c r="B233" s="16"/>
+      <c r="B233" s="15"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
@@ -23422,7 +23438,7 @@
     </row>
     <row r="234" spans="1:17" ht="12" customHeight="1">
       <c r="A234" s="13"/>
-      <c r="B234" s="16"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
@@ -23441,7 +23457,7 @@
     </row>
     <row r="235" spans="1:17" ht="12" customHeight="1">
       <c r="A235" s="13"/>
-      <c r="B235" s="16"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
@@ -23460,7 +23476,7 @@
     </row>
     <row r="236" spans="1:17" ht="12" customHeight="1">
       <c r="A236" s="13"/>
-      <c r="B236" s="16"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
@@ -23479,7 +23495,7 @@
     </row>
     <row r="237" spans="1:17" ht="12" customHeight="1">
       <c r="A237" s="13"/>
-      <c r="B237" s="16"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
@@ -23498,7 +23514,7 @@
     </row>
     <row r="238" spans="1:17" ht="12" customHeight="1">
       <c r="A238" s="13"/>
-      <c r="B238" s="16"/>
+      <c r="B238" s="15"/>
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
@@ -23517,7 +23533,7 @@
     </row>
     <row r="239" spans="1:17" ht="12" customHeight="1">
       <c r="A239" s="13"/>
-      <c r="B239" s="16"/>
+      <c r="B239" s="15"/>
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
@@ -23536,7 +23552,7 @@
     </row>
     <row r="240" spans="1:17" ht="12" customHeight="1">
       <c r="A240" s="13"/>
-      <c r="B240" s="16"/>
+      <c r="B240" s="15"/>
       <c r="C240" s="13"/>
       <c r="D240" s="13"/>
       <c r="E240" s="13"/>
@@ -23555,7 +23571,7 @@
     </row>
     <row r="241" spans="1:17" ht="12" customHeight="1">
       <c r="A241" s="13"/>
-      <c r="B241" s="16"/>
+      <c r="B241" s="15"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
@@ -23574,7 +23590,7 @@
     </row>
     <row r="242" spans="1:17" ht="12" customHeight="1">
       <c r="A242" s="13"/>
-      <c r="B242" s="16"/>
+      <c r="B242" s="15"/>
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
@@ -23593,7 +23609,7 @@
     </row>
     <row r="243" spans="1:17" ht="12" customHeight="1">
       <c r="A243" s="13"/>
-      <c r="B243" s="16"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
       <c r="E243" s="13"/>
@@ -23612,7 +23628,7 @@
     </row>
     <row r="244" spans="1:17" ht="12" customHeight="1">
       <c r="A244" s="13"/>
-      <c r="B244" s="16"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
       <c r="E244" s="13"/>
@@ -23631,7 +23647,7 @@
     </row>
     <row r="245" spans="1:17" ht="12" customHeight="1">
       <c r="A245" s="13"/>
-      <c r="B245" s="16"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
       <c r="E245" s="13"/>
@@ -23650,7 +23666,7 @@
     </row>
     <row r="246" spans="1:17" ht="12" customHeight="1">
       <c r="A246" s="13"/>
-      <c r="B246" s="16"/>
+      <c r="B246" s="15"/>
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
       <c r="E246" s="13"/>
@@ -23669,7 +23685,7 @@
     </row>
     <row r="247" spans="1:17" ht="12" customHeight="1">
       <c r="A247" s="13"/>
-      <c r="B247" s="16"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
       <c r="E247" s="13"/>
@@ -23688,7 +23704,7 @@
     </row>
     <row r="248" spans="1:17" ht="12" customHeight="1">
       <c r="A248" s="13"/>
-      <c r="B248" s="16"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
       <c r="E248" s="13"/>
@@ -23707,7 +23723,7 @@
     </row>
     <row r="249" spans="1:17" ht="12" customHeight="1">
       <c r="A249" s="13"/>
-      <c r="B249" s="16"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
       <c r="E249" s="13"/>
@@ -23726,7 +23742,7 @@
     </row>
     <row r="250" spans="1:17" ht="12" customHeight="1">
       <c r="A250" s="13"/>
-      <c r="B250" s="16"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
       <c r="E250" s="13"/>
@@ -23745,7 +23761,7 @@
     </row>
     <row r="251" spans="1:17" ht="12" customHeight="1">
       <c r="A251" s="13"/>
-      <c r="B251" s="16"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
       <c r="E251" s="13"/>
@@ -23764,7 +23780,7 @@
     </row>
     <row r="252" spans="1:17" ht="12" customHeight="1">
       <c r="A252" s="13"/>
-      <c r="B252" s="16"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
       <c r="E252" s="13"/>
@@ -23783,7 +23799,7 @@
     </row>
     <row r="253" spans="1:17" ht="12" customHeight="1">
       <c r="A253" s="13"/>
-      <c r="B253" s="16"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
@@ -23802,7 +23818,7 @@
     </row>
     <row r="254" spans="1:17" ht="12" customHeight="1">
       <c r="A254" s="13"/>
-      <c r="B254" s="16"/>
+      <c r="B254" s="15"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
       <c r="E254" s="13"/>
@@ -23821,7 +23837,7 @@
     </row>
     <row r="255" spans="1:17" ht="12" customHeight="1">
       <c r="A255" s="13"/>
-      <c r="B255" s="16"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
@@ -23840,7 +23856,7 @@
     </row>
     <row r="256" spans="1:17" ht="12" customHeight="1">
       <c r="A256" s="13"/>
-      <c r="B256" s="16"/>
+      <c r="B256" s="15"/>
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
       <c r="E256" s="13"/>
@@ -23859,7 +23875,7 @@
     </row>
     <row r="257" spans="1:17" ht="12" customHeight="1">
       <c r="A257" s="13"/>
-      <c r="B257" s="16"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
       <c r="E257" s="13"/>
@@ -23878,7 +23894,7 @@
     </row>
     <row r="258" spans="1:17" ht="12" customHeight="1">
       <c r="A258" s="13"/>
-      <c r="B258" s="16"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
       <c r="E258" s="13"/>
@@ -23897,7 +23913,7 @@
     </row>
     <row r="259" spans="1:17" ht="12" customHeight="1">
       <c r="A259" s="13"/>
-      <c r="B259" s="16"/>
+      <c r="B259" s="15"/>
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
       <c r="E259" s="13"/>
@@ -23916,7 +23932,7 @@
     </row>
     <row r="260" spans="1:17" ht="12" customHeight="1">
       <c r="A260" s="13"/>
-      <c r="B260" s="16"/>
+      <c r="B260" s="15"/>
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
@@ -23935,7 +23951,7 @@
     </row>
     <row r="261" spans="1:17" ht="12" customHeight="1">
       <c r="A261" s="13"/>
-      <c r="B261" s="16"/>
+      <c r="B261" s="15"/>
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
@@ -23954,7 +23970,7 @@
     </row>
     <row r="262" spans="1:17" ht="12" customHeight="1">
       <c r="A262" s="13"/>
-      <c r="B262" s="16"/>
+      <c r="B262" s="15"/>
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
       <c r="E262" s="13"/>
@@ -23973,7 +23989,7 @@
     </row>
     <row r="263" spans="1:17" ht="12" customHeight="1">
       <c r="A263" s="13"/>
-      <c r="B263" s="16"/>
+      <c r="B263" s="15"/>
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
@@ -23992,7 +24008,7 @@
     </row>
     <row r="264" spans="1:17" ht="12" customHeight="1">
       <c r="A264" s="13"/>
-      <c r="B264" s="16"/>
+      <c r="B264" s="15"/>
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
       <c r="E264" s="13"/>
@@ -24011,7 +24027,7 @@
     </row>
     <row r="265" spans="1:17" ht="12" customHeight="1">
       <c r="A265" s="13"/>
-      <c r="B265" s="16"/>
+      <c r="B265" s="15"/>
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
       <c r="E265" s="13"/>
@@ -24030,7 +24046,7 @@
     </row>
     <row r="266" spans="1:17" ht="12" customHeight="1">
       <c r="A266" s="13"/>
-      <c r="B266" s="16"/>
+      <c r="B266" s="15"/>
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
@@ -24049,7 +24065,7 @@
     </row>
     <row r="267" spans="1:17" ht="12" customHeight="1">
       <c r="A267" s="13"/>
-      <c r="B267" s="16"/>
+      <c r="B267" s="15"/>
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
@@ -24068,7 +24084,7 @@
     </row>
     <row r="268" spans="1:17" ht="12" customHeight="1">
       <c r="A268" s="13"/>
-      <c r="B268" s="16"/>
+      <c r="B268" s="15"/>
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
       <c r="E268" s="13"/>
@@ -24087,7 +24103,7 @@
     </row>
     <row r="269" spans="1:17" ht="12" customHeight="1">
       <c r="A269" s="13"/>
-      <c r="B269" s="16"/>
+      <c r="B269" s="15"/>
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
       <c r="E269" s="13"/>
@@ -24106,7 +24122,7 @@
     </row>
     <row r="270" spans="1:17" ht="12" customHeight="1">
       <c r="A270" s="13"/>
-      <c r="B270" s="16"/>
+      <c r="B270" s="15"/>
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
       <c r="E270" s="13"/>
@@ -24125,7 +24141,7 @@
     </row>
     <row r="271" spans="1:17" ht="12" customHeight="1">
       <c r="A271" s="13"/>
-      <c r="B271" s="16"/>
+      <c r="B271" s="15"/>
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
       <c r="E271" s="13"/>
@@ -24144,7 +24160,7 @@
     </row>
     <row r="272" spans="1:17" ht="12" customHeight="1">
       <c r="A272" s="13"/>
-      <c r="B272" s="16"/>
+      <c r="B272" s="15"/>
       <c r="C272" s="13"/>
       <c r="D272" s="13"/>
       <c r="E272" s="13"/>
@@ -24163,7 +24179,7 @@
     </row>
     <row r="273" spans="1:17" ht="12" customHeight="1">
       <c r="A273" s="13"/>
-      <c r="B273" s="16"/>
+      <c r="B273" s="15"/>
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
       <c r="E273" s="13"/>
@@ -24182,7 +24198,7 @@
     </row>
     <row r="274" spans="1:17" ht="12" customHeight="1">
       <c r="A274" s="13"/>
-      <c r="B274" s="16"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="13"/>
       <c r="D274" s="13"/>
       <c r="E274" s="13"/>
@@ -24201,7 +24217,7 @@
     </row>
     <row r="275" spans="1:17" ht="12" customHeight="1">
       <c r="A275" s="13"/>
-      <c r="B275" s="16"/>
+      <c r="B275" s="15"/>
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
       <c r="E275" s="13"/>
@@ -24220,7 +24236,7 @@
     </row>
     <row r="276" spans="1:17" ht="12" customHeight="1">
       <c r="A276" s="13"/>
-      <c r="B276" s="16"/>
+      <c r="B276" s="15"/>
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
       <c r="E276" s="13"/>
@@ -24239,7 +24255,7 @@
     </row>
     <row r="277" spans="1:17" ht="12" customHeight="1">
       <c r="A277" s="13"/>
-      <c r="B277" s="16"/>
+      <c r="B277" s="15"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
       <c r="E277" s="13"/>
@@ -24258,7 +24274,7 @@
     </row>
     <row r="278" spans="1:17" ht="12" customHeight="1">
       <c r="A278" s="13"/>
-      <c r="B278" s="16"/>
+      <c r="B278" s="15"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
       <c r="E278" s="13"/>
@@ -24277,7 +24293,7 @@
     </row>
     <row r="279" spans="1:17" ht="12" customHeight="1">
       <c r="A279" s="13"/>
-      <c r="B279" s="16"/>
+      <c r="B279" s="15"/>
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
       <c r="E279" s="13"/>
@@ -24296,7 +24312,7 @@
     </row>
     <row r="280" spans="1:17" ht="12" customHeight="1">
       <c r="A280" s="13"/>
-      <c r="B280" s="16"/>
+      <c r="B280" s="15"/>
       <c r="C280" s="13"/>
       <c r="D280" s="13"/>
       <c r="E280" s="13"/>
@@ -24315,7 +24331,7 @@
     </row>
     <row r="281" spans="1:17" ht="12" customHeight="1">
       <c r="A281" s="13"/>
-      <c r="B281" s="16"/>
+      <c r="B281" s="15"/>
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
       <c r="E281" s="13"/>
@@ -24334,7 +24350,7 @@
     </row>
     <row r="282" spans="1:17" ht="12" customHeight="1">
       <c r="A282" s="13"/>
-      <c r="B282" s="16"/>
+      <c r="B282" s="15"/>
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
@@ -24353,7 +24369,7 @@
     </row>
     <row r="283" spans="1:17" ht="12" customHeight="1">
       <c r="A283" s="13"/>
-      <c r="B283" s="16"/>
+      <c r="B283" s="15"/>
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
       <c r="E283" s="13"/>
@@ -24372,7 +24388,7 @@
     </row>
     <row r="284" spans="1:17" ht="12" customHeight="1">
       <c r="A284" s="13"/>
-      <c r="B284" s="16"/>
+      <c r="B284" s="15"/>
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
       <c r="E284" s="13"/>
@@ -24391,7 +24407,7 @@
     </row>
     <row r="285" spans="1:17" ht="12" customHeight="1">
       <c r="A285" s="13"/>
-      <c r="B285" s="16"/>
+      <c r="B285" s="15"/>
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
@@ -24410,7 +24426,7 @@
     </row>
     <row r="286" spans="1:17" ht="12" customHeight="1">
       <c r="A286" s="13"/>
-      <c r="B286" s="16"/>
+      <c r="B286" s="15"/>
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
       <c r="E286" s="13"/>
@@ -24429,7 +24445,7 @@
     </row>
     <row r="287" spans="1:17" ht="12" customHeight="1">
       <c r="A287" s="13"/>
-      <c r="B287" s="16"/>
+      <c r="B287" s="15"/>
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="E287" s="13"/>
@@ -24448,7 +24464,7 @@
     </row>
     <row r="288" spans="1:17" ht="12" customHeight="1">
       <c r="A288" s="13"/>
-      <c r="B288" s="16"/>
+      <c r="B288" s="15"/>
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
       <c r="E288" s="13"/>
@@ -24467,7 +24483,7 @@
     </row>
     <row r="289" spans="1:17" ht="12" customHeight="1">
       <c r="A289" s="13"/>
-      <c r="B289" s="16"/>
+      <c r="B289" s="15"/>
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="E289" s="13"/>
@@ -24486,7 +24502,7 @@
     </row>
     <row r="290" spans="1:17" ht="12" customHeight="1">
       <c r="A290" s="13"/>
-      <c r="B290" s="16"/>
+      <c r="B290" s="15"/>
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
       <c r="E290" s="13"/>
@@ -24505,7 +24521,7 @@
     </row>
     <row r="291" spans="1:17" ht="12" customHeight="1">
       <c r="A291" s="13"/>
-      <c r="B291" s="16"/>
+      <c r="B291" s="15"/>
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="E291" s="13"/>
@@ -24524,7 +24540,7 @@
     </row>
     <row r="292" spans="1:17" ht="12" customHeight="1">
       <c r="A292" s="13"/>
-      <c r="B292" s="16"/>
+      <c r="B292" s="15"/>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
       <c r="E292" s="13"/>
@@ -24543,7 +24559,7 @@
     </row>
     <row r="293" spans="1:17" ht="12" customHeight="1">
       <c r="A293" s="13"/>
-      <c r="B293" s="16"/>
+      <c r="B293" s="15"/>
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
       <c r="E293" s="13"/>
@@ -24562,7 +24578,7 @@
     </row>
     <row r="294" spans="1:17" ht="12" customHeight="1">
       <c r="A294" s="13"/>
-      <c r="B294" s="16"/>
+      <c r="B294" s="15"/>
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
       <c r="E294" s="13"/>
@@ -24581,7 +24597,7 @@
     </row>
     <row r="295" spans="1:17" ht="12" customHeight="1">
       <c r="A295" s="13"/>
-      <c r="B295" s="16"/>
+      <c r="B295" s="15"/>
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
       <c r="E295" s="13"/>
@@ -24600,7 +24616,7 @@
     </row>
     <row r="296" spans="1:17" ht="12" customHeight="1">
       <c r="A296" s="13"/>
-      <c r="B296" s="16"/>
+      <c r="B296" s="15"/>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
       <c r="E296" s="13"/>
@@ -24619,7 +24635,7 @@
     </row>
     <row r="297" spans="1:17" ht="12" customHeight="1">
       <c r="A297" s="13"/>
-      <c r="B297" s="16"/>
+      <c r="B297" s="15"/>
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
       <c r="E297" s="13"/>
@@ -24638,7 +24654,7 @@
     </row>
     <row r="298" spans="1:17" ht="12" customHeight="1">
       <c r="A298" s="13"/>
-      <c r="B298" s="16"/>
+      <c r="B298" s="15"/>
       <c r="C298" s="13"/>
       <c r="D298" s="13"/>
       <c r="E298" s="13"/>
@@ -24657,7 +24673,7 @@
     </row>
     <row r="299" spans="1:17" ht="12" customHeight="1">
       <c r="A299" s="13"/>
-      <c r="B299" s="16"/>
+      <c r="B299" s="15"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
       <c r="E299" s="13"/>
@@ -24676,7 +24692,7 @@
     </row>
     <row r="300" spans="1:17" ht="12" customHeight="1">
       <c r="A300" s="13"/>
-      <c r="B300" s="16"/>
+      <c r="B300" s="15"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
       <c r="E300" s="13"/>
@@ -24695,7 +24711,7 @@
     </row>
     <row r="301" spans="1:17" ht="12" customHeight="1">
       <c r="A301" s="13"/>
-      <c r="B301" s="16"/>
+      <c r="B301" s="15"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
       <c r="E301" s="13"/>
@@ -24714,7 +24730,7 @@
     </row>
     <row r="302" spans="1:17" ht="12" customHeight="1">
       <c r="A302" s="13"/>
-      <c r="B302" s="16"/>
+      <c r="B302" s="15"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
       <c r="E302" s="13"/>
@@ -24733,7 +24749,7 @@
     </row>
     <row r="303" spans="1:17" ht="12" customHeight="1">
       <c r="A303" s="13"/>
-      <c r="B303" s="16"/>
+      <c r="B303" s="15"/>
       <c r="C303" s="13"/>
       <c r="D303" s="13"/>
       <c r="E303" s="13"/>
@@ -24752,7 +24768,7 @@
     </row>
     <row r="304" spans="1:17" ht="12" customHeight="1">
       <c r="A304" s="13"/>
-      <c r="B304" s="16"/>
+      <c r="B304" s="15"/>
       <c r="C304" s="13"/>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
@@ -24771,7 +24787,7 @@
     </row>
     <row r="305" spans="1:17" ht="12" customHeight="1">
       <c r="A305" s="13"/>
-      <c r="B305" s="16"/>
+      <c r="B305" s="15"/>
       <c r="C305" s="13"/>
       <c r="D305" s="13"/>
       <c r="E305" s="13"/>
@@ -24790,7 +24806,7 @@
     </row>
     <row r="306" spans="1:17" ht="12" customHeight="1">
       <c r="A306" s="13"/>
-      <c r="B306" s="16"/>
+      <c r="B306" s="15"/>
       <c r="C306" s="13"/>
       <c r="D306" s="13"/>
       <c r="E306" s="13"/>
@@ -24809,7 +24825,7 @@
     </row>
     <row r="307" spans="1:17" ht="12" customHeight="1">
       <c r="A307" s="13"/>
-      <c r="B307" s="16"/>
+      <c r="B307" s="15"/>
       <c r="C307" s="13"/>
       <c r="D307" s="13"/>
       <c r="E307" s="13"/>
@@ -24828,7 +24844,7 @@
     </row>
     <row r="308" spans="1:17" ht="12" customHeight="1">
       <c r="A308" s="13"/>
-      <c r="B308" s="16"/>
+      <c r="B308" s="15"/>
       <c r="C308" s="13"/>
       <c r="D308" s="13"/>
       <c r="E308" s="13"/>
@@ -24847,7 +24863,7 @@
     </row>
     <row r="309" spans="1:17" ht="12" customHeight="1">
       <c r="A309" s="13"/>
-      <c r="B309" s="16"/>
+      <c r="B309" s="15"/>
       <c r="C309" s="13"/>
       <c r="D309" s="13"/>
       <c r="E309" s="13"/>
@@ -24866,7 +24882,7 @@
     </row>
     <row r="310" spans="1:17" ht="12" customHeight="1">
       <c r="A310" s="13"/>
-      <c r="B310" s="16"/>
+      <c r="B310" s="15"/>
       <c r="C310" s="13"/>
       <c r="D310" s="13"/>
       <c r="E310" s="13"/>
@@ -24885,7 +24901,7 @@
     </row>
     <row r="311" spans="1:17" ht="12" customHeight="1">
       <c r="A311" s="13"/>
-      <c r="B311" s="16"/>
+      <c r="B311" s="15"/>
       <c r="C311" s="13"/>
       <c r="D311" s="13"/>
       <c r="E311" s="13"/>
@@ -24904,7 +24920,7 @@
     </row>
     <row r="312" spans="1:17" ht="12" customHeight="1">
       <c r="A312" s="13"/>
-      <c r="B312" s="16"/>
+      <c r="B312" s="15"/>
       <c r="C312" s="13"/>
       <c r="D312" s="13"/>
       <c r="E312" s="13"/>
@@ -24923,7 +24939,7 @@
     </row>
     <row r="313" spans="1:17" ht="12" customHeight="1">
       <c r="A313" s="13"/>
-      <c r="B313" s="16"/>
+      <c r="B313" s="15"/>
       <c r="C313" s="13"/>
       <c r="D313" s="13"/>
       <c r="E313" s="13"/>
@@ -24942,7 +24958,7 @@
     </row>
     <row r="314" spans="1:17" ht="12" customHeight="1">
       <c r="A314" s="13"/>
-      <c r="B314" s="16"/>
+      <c r="B314" s="15"/>
       <c r="C314" s="13"/>
       <c r="D314" s="13"/>
       <c r="E314" s="13"/>
@@ -24961,7 +24977,7 @@
     </row>
     <row r="315" spans="1:17" ht="12" customHeight="1">
       <c r="A315" s="13"/>
-      <c r="B315" s="16"/>
+      <c r="B315" s="15"/>
       <c r="C315" s="13"/>
       <c r="D315" s="13"/>
       <c r="E315" s="13"/>
@@ -24980,7 +24996,7 @@
     </row>
     <row r="316" spans="1:17" ht="12" customHeight="1">
       <c r="A316" s="13"/>
-      <c r="B316" s="16"/>
+      <c r="B316" s="15"/>
       <c r="C316" s="13"/>
       <c r="D316" s="13"/>
       <c r="E316" s="13"/>
@@ -24999,7 +25015,7 @@
     </row>
     <row r="317" spans="1:17" ht="12" customHeight="1">
       <c r="A317" s="13"/>
-      <c r="B317" s="16"/>
+      <c r="B317" s="15"/>
       <c r="C317" s="13"/>
       <c r="D317" s="13"/>
       <c r="E317" s="13"/>
@@ -25018,7 +25034,7 @@
     </row>
     <row r="318" spans="1:17" ht="12" customHeight="1">
       <c r="A318" s="13"/>
-      <c r="B318" s="16"/>
+      <c r="B318" s="15"/>
       <c r="C318" s="13"/>
       <c r="D318" s="13"/>
       <c r="E318" s="13"/>
@@ -25037,7 +25053,7 @@
     </row>
     <row r="319" spans="1:17" ht="12" customHeight="1">
       <c r="A319" s="13"/>
-      <c r="B319" s="16"/>
+      <c r="B319" s="15"/>
       <c r="C319" s="13"/>
       <c r="D319" s="13"/>
       <c r="E319" s="13"/>
@@ -25056,7 +25072,7 @@
     </row>
     <row r="320" spans="1:17" ht="12" customHeight="1">
       <c r="A320" s="13"/>
-      <c r="B320" s="16"/>
+      <c r="B320" s="15"/>
       <c r="C320" s="13"/>
       <c r="D320" s="13"/>
       <c r="E320" s="13"/>
@@ -25075,7 +25091,7 @@
     </row>
     <row r="321" spans="1:17" ht="12" customHeight="1">
       <c r="A321" s="13"/>
-      <c r="B321" s="16"/>
+      <c r="B321" s="15"/>
       <c r="C321" s="13"/>
       <c r="D321" s="13"/>
       <c r="E321" s="13"/>
@@ -25094,7 +25110,7 @@
     </row>
     <row r="322" spans="1:17" ht="12" customHeight="1">
       <c r="A322" s="13"/>
-      <c r="B322" s="16"/>
+      <c r="B322" s="15"/>
       <c r="C322" s="13"/>
       <c r="D322" s="13"/>
       <c r="E322" s="13"/>
@@ -25113,7 +25129,7 @@
     </row>
     <row r="323" spans="1:17" ht="12" customHeight="1">
       <c r="A323" s="13"/>
-      <c r="B323" s="16"/>
+      <c r="B323" s="15"/>
       <c r="C323" s="13"/>
       <c r="D323" s="13"/>
       <c r="E323" s="13"/>
@@ -25132,7 +25148,7 @@
     </row>
     <row r="324" spans="1:17" ht="12" customHeight="1">
       <c r="A324" s="13"/>
-      <c r="B324" s="16"/>
+      <c r="B324" s="15"/>
       <c r="C324" s="13"/>
       <c r="D324" s="13"/>
       <c r="E324" s="13"/>
@@ -25151,7 +25167,7 @@
     </row>
     <row r="325" spans="1:17" ht="12" customHeight="1">
       <c r="A325" s="13"/>
-      <c r="B325" s="16"/>
+      <c r="B325" s="15"/>
       <c r="C325" s="13"/>
       <c r="D325" s="13"/>
       <c r="E325" s="13"/>
@@ -25170,7 +25186,7 @@
     </row>
     <row r="326" spans="1:17" ht="12" customHeight="1">
       <c r="A326" s="13"/>
-      <c r="B326" s="16"/>
+      <c r="B326" s="15"/>
       <c r="C326" s="13"/>
       <c r="D326" s="13"/>
       <c r="E326" s="13"/>
@@ -25189,7 +25205,7 @@
     </row>
     <row r="327" spans="1:17" ht="12" customHeight="1">
       <c r="A327" s="13"/>
-      <c r="B327" s="16"/>
+      <c r="B327" s="15"/>
       <c r="C327" s="13"/>
       <c r="D327" s="13"/>
       <c r="E327" s="13"/>
@@ -25208,7 +25224,7 @@
     </row>
     <row r="328" spans="1:17" ht="12" customHeight="1">
       <c r="A328" s="13"/>
-      <c r="B328" s="16"/>
+      <c r="B328" s="15"/>
       <c r="C328" s="13"/>
       <c r="D328" s="13"/>
       <c r="E328" s="13"/>
@@ -25227,7 +25243,7 @@
     </row>
     <row r="329" spans="1:17" ht="12" customHeight="1">
       <c r="A329" s="13"/>
-      <c r="B329" s="16"/>
+      <c r="B329" s="15"/>
       <c r="C329" s="13"/>
       <c r="D329" s="13"/>
       <c r="E329" s="13"/>
@@ -25246,7 +25262,7 @@
     </row>
     <row r="330" spans="1:17" ht="12" customHeight="1">
       <c r="A330" s="13"/>
-      <c r="B330" s="16"/>
+      <c r="B330" s="15"/>
       <c r="C330" s="13"/>
       <c r="D330" s="13"/>
       <c r="E330" s="13"/>
@@ -25265,7 +25281,7 @@
     </row>
     <row r="331" spans="1:17" ht="12" customHeight="1">
       <c r="A331" s="13"/>
-      <c r="B331" s="16"/>
+      <c r="B331" s="15"/>
       <c r="C331" s="13"/>
       <c r="D331" s="13"/>
       <c r="E331" s="13"/>
@@ -25284,7 +25300,7 @@
     </row>
     <row r="332" spans="1:17" ht="12" customHeight="1">
       <c r="A332" s="13"/>
-      <c r="B332" s="16"/>
+      <c r="B332" s="15"/>
       <c r="C332" s="13"/>
       <c r="D332" s="13"/>
       <c r="E332" s="13"/>
@@ -25303,7 +25319,7 @@
     </row>
     <row r="333" spans="1:17" ht="12" customHeight="1">
       <c r="A333" s="13"/>
-      <c r="B333" s="16"/>
+      <c r="B333" s="15"/>
       <c r="C333" s="13"/>
       <c r="D333" s="13"/>
       <c r="E333" s="13"/>
@@ -25322,7 +25338,7 @@
     </row>
     <row r="334" spans="1:17" ht="12" customHeight="1">
       <c r="A334" s="13"/>
-      <c r="B334" s="16"/>
+      <c r="B334" s="15"/>
       <c r="C334" s="13"/>
       <c r="D334" s="13"/>
       <c r="E334" s="13"/>
@@ -25341,7 +25357,7 @@
     </row>
     <row r="335" spans="1:17" ht="12" customHeight="1">
       <c r="A335" s="13"/>
-      <c r="B335" s="16"/>
+      <c r="B335" s="15"/>
       <c r="C335" s="13"/>
       <c r="D335" s="13"/>
       <c r="E335" s="13"/>
@@ -25360,7 +25376,7 @@
     </row>
     <row r="336" spans="1:17" ht="12" customHeight="1">
       <c r="A336" s="13"/>
-      <c r="B336" s="16"/>
+      <c r="B336" s="15"/>
       <c r="C336" s="13"/>
       <c r="D336" s="13"/>
       <c r="E336" s="13"/>
@@ -25379,7 +25395,7 @@
     </row>
     <row r="337" spans="1:17" ht="12" customHeight="1">
       <c r="A337" s="13"/>
-      <c r="B337" s="16"/>
+      <c r="B337" s="15"/>
       <c r="C337" s="13"/>
       <c r="D337" s="13"/>
       <c r="E337" s="13"/>
@@ -25398,7 +25414,7 @@
     </row>
     <row r="338" spans="1:17" ht="12" customHeight="1">
       <c r="A338" s="13"/>
-      <c r="B338" s="16"/>
+      <c r="B338" s="15"/>
       <c r="C338" s="13"/>
       <c r="D338" s="13"/>
       <c r="E338" s="13"/>
@@ -25417,7 +25433,7 @@
     </row>
     <row r="339" spans="1:17" ht="12" customHeight="1">
       <c r="A339" s="13"/>
-      <c r="B339" s="16"/>
+      <c r="B339" s="15"/>
       <c r="C339" s="13"/>
       <c r="D339" s="13"/>
       <c r="E339" s="13"/>
@@ -25436,7 +25452,7 @@
     </row>
     <row r="340" spans="1:17" ht="12" customHeight="1">
       <c r="A340" s="13"/>
-      <c r="B340" s="16"/>
+      <c r="B340" s="15"/>
       <c r="C340" s="13"/>
       <c r="D340" s="13"/>
       <c r="E340" s="13"/>
@@ -25455,7 +25471,7 @@
     </row>
     <row r="341" spans="1:17" ht="12" customHeight="1">
       <c r="A341" s="13"/>
-      <c r="B341" s="16"/>
+      <c r="B341" s="15"/>
       <c r="C341" s="13"/>
       <c r="D341" s="13"/>
       <c r="E341" s="13"/>
@@ -25474,7 +25490,7 @@
     </row>
     <row r="342" spans="1:17" ht="12" customHeight="1">
       <c r="A342" s="13"/>
-      <c r="B342" s="16"/>
+      <c r="B342" s="15"/>
       <c r="C342" s="13"/>
       <c r="D342" s="13"/>
       <c r="E342" s="13"/>
@@ -25493,7 +25509,7 @@
     </row>
     <row r="343" spans="1:17" ht="12" customHeight="1">
       <c r="A343" s="13"/>
-      <c r="B343" s="16"/>
+      <c r="B343" s="15"/>
       <c r="C343" s="13"/>
       <c r="D343" s="13"/>
       <c r="E343" s="13"/>
@@ -25512,7 +25528,7 @@
     </row>
     <row r="344" spans="1:17" ht="12" customHeight="1">
       <c r="A344" s="13"/>
-      <c r="B344" s="16"/>
+      <c r="B344" s="15"/>
       <c r="C344" s="13"/>
       <c r="D344" s="13"/>
       <c r="E344" s="13"/>
@@ -25531,7 +25547,7 @@
     </row>
     <row r="345" spans="1:17" ht="12" customHeight="1">
       <c r="A345" s="13"/>
-      <c r="B345" s="16"/>
+      <c r="B345" s="15"/>
       <c r="C345" s="13"/>
       <c r="D345" s="13"/>
       <c r="E345" s="13"/>
@@ -25550,7 +25566,7 @@
     </row>
     <row r="346" spans="1:17" ht="12" customHeight="1">
       <c r="A346" s="13"/>
-      <c r="B346" s="16"/>
+      <c r="B346" s="15"/>
       <c r="C346" s="13"/>
       <c r="D346" s="13"/>
       <c r="E346" s="13"/>
@@ -25569,7 +25585,7 @@
     </row>
     <row r="347" spans="1:17" ht="12" customHeight="1">
       <c r="A347" s="13"/>
-      <c r="B347" s="16"/>
+      <c r="B347" s="15"/>
       <c r="C347" s="13"/>
       <c r="D347" s="13"/>
       <c r="E347" s="13"/>
@@ -25588,7 +25604,7 @@
     </row>
     <row r="348" spans="1:17" ht="12" customHeight="1">
       <c r="A348" s="13"/>
-      <c r="B348" s="16"/>
+      <c r="B348" s="15"/>
       <c r="C348" s="13"/>
       <c r="D348" s="13"/>
       <c r="E348" s="13"/>
@@ -25607,7 +25623,7 @@
     </row>
     <row r="349" spans="1:17" ht="12" customHeight="1">
       <c r="A349" s="13"/>
-      <c r="B349" s="16"/>
+      <c r="B349" s="15"/>
       <c r="C349" s="13"/>
       <c r="D349" s="13"/>
       <c r="E349" s="13"/>
@@ -25626,7 +25642,7 @@
     </row>
     <row r="350" spans="1:17" ht="12" customHeight="1">
       <c r="A350" s="13"/>
-      <c r="B350" s="16"/>
+      <c r="B350" s="15"/>
       <c r="C350" s="13"/>
       <c r="D350" s="13"/>
       <c r="E350" s="13"/>
@@ -25645,7 +25661,7 @@
     </row>
     <row r="351" spans="1:17" ht="12" customHeight="1">
       <c r="A351" s="13"/>
-      <c r="B351" s="16"/>
+      <c r="B351" s="15"/>
       <c r="C351" s="13"/>
       <c r="D351" s="13"/>
       <c r="E351" s="13"/>
@@ -25664,7 +25680,7 @@
     </row>
     <row r="352" spans="1:17" ht="12" customHeight="1">
       <c r="A352" s="13"/>
-      <c r="B352" s="16"/>
+      <c r="B352" s="15"/>
       <c r="C352" s="13"/>
       <c r="D352" s="13"/>
       <c r="E352" s="13"/>
@@ -25683,7 +25699,7 @@
     </row>
     <row r="353" spans="1:17" ht="12" customHeight="1">
       <c r="A353" s="13"/>
-      <c r="B353" s="16"/>
+      <c r="B353" s="15"/>
       <c r="C353" s="13"/>
       <c r="D353" s="13"/>
       <c r="E353" s="13"/>
@@ -25702,7 +25718,7 @@
     </row>
     <row r="354" spans="1:17" ht="12" customHeight="1">
       <c r="A354" s="13"/>
-      <c r="B354" s="16"/>
+      <c r="B354" s="15"/>
       <c r="C354" s="13"/>
       <c r="D354" s="13"/>
       <c r="E354" s="13"/>
@@ -25721,7 +25737,7 @@
     </row>
     <row r="355" spans="1:17" ht="12" customHeight="1">
       <c r="A355" s="13"/>
-      <c r="B355" s="16"/>
+      <c r="B355" s="15"/>
       <c r="C355" s="13"/>
       <c r="D355" s="13"/>
       <c r="E355" s="13"/>
@@ -25740,7 +25756,7 @@
     </row>
     <row r="356" spans="1:17" ht="12" customHeight="1">
       <c r="A356" s="13"/>
-      <c r="B356" s="16"/>
+      <c r="B356" s="15"/>
       <c r="C356" s="13"/>
       <c r="D356" s="13"/>
       <c r="E356" s="13"/>
@@ -25759,7 +25775,7 @@
     </row>
     <row r="357" spans="1:17" ht="12" customHeight="1">
       <c r="A357" s="13"/>
-      <c r="B357" s="16"/>
+      <c r="B357" s="15"/>
       <c r="C357" s="13"/>
       <c r="D357" s="13"/>
       <c r="E357" s="13"/>
@@ -25778,7 +25794,7 @@
     </row>
     <row r="358" spans="1:17" ht="12" customHeight="1">
       <c r="A358" s="13"/>
-      <c r="B358" s="16"/>
+      <c r="B358" s="15"/>
       <c r="C358" s="13"/>
       <c r="D358" s="13"/>
       <c r="E358" s="13"/>
@@ -25797,7 +25813,7 @@
     </row>
     <row r="359" spans="1:17" ht="12" customHeight="1">
       <c r="A359" s="13"/>
-      <c r="B359" s="16"/>
+      <c r="B359" s="15"/>
       <c r="C359" s="13"/>
       <c r="D359" s="13"/>
       <c r="E359" s="13"/>
@@ -25816,7 +25832,7 @@
     </row>
     <row r="360" spans="1:17" ht="12" customHeight="1">
       <c r="A360" s="13"/>
-      <c r="B360" s="16"/>
+      <c r="B360" s="15"/>
       <c r="C360" s="13"/>
       <c r="D360" s="13"/>
       <c r="E360" s="13"/>
@@ -25835,7 +25851,7 @@
     </row>
     <row r="361" spans="1:17" ht="12" customHeight="1">
       <c r="A361" s="13"/>
-      <c r="B361" s="16"/>
+      <c r="B361" s="15"/>
       <c r="C361" s="13"/>
       <c r="D361" s="13"/>
       <c r="E361" s="13"/>
@@ -25854,7 +25870,7 @@
     </row>
     <row r="362" spans="1:17" ht="12" customHeight="1">
       <c r="A362" s="13"/>
-      <c r="B362" s="16"/>
+      <c r="B362" s="15"/>
       <c r="C362" s="13"/>
       <c r="D362" s="13"/>
       <c r="E362" s="13"/>
@@ -25873,7 +25889,7 @@
     </row>
     <row r="363" spans="1:17" ht="12" customHeight="1">
       <c r="A363" s="13"/>
-      <c r="B363" s="16"/>
+      <c r="B363" s="15"/>
       <c r="C363" s="13"/>
       <c r="D363" s="13"/>
       <c r="E363" s="13"/>
@@ -25892,7 +25908,7 @@
     </row>
     <row r="364" spans="1:17" ht="12" customHeight="1">
       <c r="A364" s="13"/>
-      <c r="B364" s="16"/>
+      <c r="B364" s="15"/>
       <c r="C364" s="13"/>
       <c r="D364" s="13"/>
       <c r="E364" s="13"/>
@@ -25911,7 +25927,7 @@
     </row>
     <row r="365" spans="1:17" ht="12" customHeight="1">
       <c r="A365" s="13"/>
-      <c r="B365" s="16"/>
+      <c r="B365" s="15"/>
       <c r="C365" s="13"/>
       <c r="D365" s="13"/>
       <c r="E365" s="13"/>
@@ -25930,7 +25946,7 @@
     </row>
     <row r="366" spans="1:17" ht="12" customHeight="1">
       <c r="A366" s="13"/>
-      <c r="B366" s="16"/>
+      <c r="B366" s="15"/>
       <c r="C366" s="13"/>
       <c r="D366" s="13"/>
       <c r="E366" s="13"/>
@@ -25949,7 +25965,7 @@
     </row>
     <row r="367" spans="1:17" ht="12" customHeight="1">
       <c r="A367" s="13"/>
-      <c r="B367" s="16"/>
+      <c r="B367" s="15"/>
       <c r="C367" s="13"/>
       <c r="D367" s="13"/>
       <c r="E367" s="13"/>
@@ -25968,7 +25984,7 @@
     </row>
     <row r="368" spans="1:17" ht="12" customHeight="1">
       <c r="A368" s="13"/>
-      <c r="B368" s="16"/>
+      <c r="B368" s="15"/>
       <c r="C368" s="13"/>
       <c r="D368" s="13"/>
       <c r="E368" s="13"/>
@@ -25987,7 +26003,7 @@
     </row>
     <row r="369" spans="1:17" ht="12" customHeight="1">
       <c r="A369" s="13"/>
-      <c r="B369" s="16"/>
+      <c r="B369" s="15"/>
       <c r="C369" s="13"/>
       <c r="D369" s="13"/>
       <c r="E369" s="13"/>
@@ -26006,7 +26022,7 @@
     </row>
     <row r="370" spans="1:17" ht="12" customHeight="1">
       <c r="A370" s="13"/>
-      <c r="B370" s="16"/>
+      <c r="B370" s="15"/>
       <c r="C370" s="13"/>
       <c r="D370" s="13"/>
       <c r="E370" s="13"/>
@@ -26025,7 +26041,7 @@
     </row>
     <row r="371" spans="1:17" ht="12" customHeight="1">
       <c r="A371" s="13"/>
-      <c r="B371" s="16"/>
+      <c r="B371" s="15"/>
       <c r="C371" s="13"/>
       <c r="D371" s="13"/>
       <c r="E371" s="13"/>
@@ -26044,7 +26060,7 @@
     </row>
     <row r="372" spans="1:17" ht="12" customHeight="1">
       <c r="A372" s="13"/>
-      <c r="B372" s="16"/>
+      <c r="B372" s="15"/>
       <c r="C372" s="13"/>
       <c r="D372" s="13"/>
       <c r="E372" s="13"/>
@@ -26063,7 +26079,7 @@
     </row>
     <row r="373" spans="1:17" ht="12" customHeight="1">
       <c r="A373" s="13"/>
-      <c r="B373" s="16"/>
+      <c r="B373" s="15"/>
       <c r="C373" s="13"/>
       <c r="D373" s="13"/>
       <c r="E373" s="13"/>
@@ -26082,7 +26098,7 @@
     </row>
     <row r="374" spans="1:17" ht="12" customHeight="1">
       <c r="A374" s="13"/>
-      <c r="B374" s="16"/>
+      <c r="B374" s="15"/>
       <c r="C374" s="13"/>
       <c r="D374" s="13"/>
       <c r="E374" s="13"/>
@@ -26101,7 +26117,7 @@
     </row>
     <row r="375" spans="1:17" ht="12" customHeight="1">
       <c r="A375" s="13"/>
-      <c r="B375" s="16"/>
+      <c r="B375" s="15"/>
       <c r="C375" s="13"/>
       <c r="D375" s="13"/>
       <c r="E375" s="13"/>
@@ -26120,7 +26136,7 @@
     </row>
     <row r="376" spans="1:17" ht="12" customHeight="1">
       <c r="A376" s="13"/>
-      <c r="B376" s="16"/>
+      <c r="B376" s="15"/>
       <c r="C376" s="13"/>
       <c r="D376" s="13"/>
       <c r="E376" s="13"/>
@@ -26139,7 +26155,7 @@
     </row>
     <row r="377" spans="1:17" ht="12" customHeight="1">
       <c r="A377" s="13"/>
-      <c r="B377" s="16"/>
+      <c r="B377" s="15"/>
       <c r="C377" s="13"/>
       <c r="D377" s="13"/>
       <c r="E377" s="13"/>
@@ -26158,7 +26174,7 @@
     </row>
     <row r="378" spans="1:17" ht="12" customHeight="1">
       <c r="A378" s="13"/>
-      <c r="B378" s="16"/>
+      <c r="B378" s="15"/>
       <c r="C378" s="13"/>
       <c r="D378" s="13"/>
       <c r="E378" s="13"/>
@@ -26177,7 +26193,7 @@
     </row>
     <row r="379" spans="1:17" ht="12" customHeight="1">
       <c r="A379" s="13"/>
-      <c r="B379" s="16"/>
+      <c r="B379" s="15"/>
       <c r="C379" s="13"/>
       <c r="D379" s="13"/>
       <c r="E379" s="13"/>
@@ -26196,7 +26212,7 @@
     </row>
     <row r="380" spans="1:17" ht="12" customHeight="1">
       <c r="A380" s="13"/>
-      <c r="B380" s="16"/>
+      <c r="B380" s="15"/>
       <c r="C380" s="13"/>
       <c r="D380" s="13"/>
       <c r="E380" s="13"/>
@@ -26215,7 +26231,7 @@
     </row>
     <row r="381" spans="1:17" ht="12" customHeight="1">
       <c r="A381" s="13"/>
-      <c r="B381" s="16"/>
+      <c r="B381" s="15"/>
       <c r="C381" s="13"/>
       <c r="D381" s="13"/>
       <c r="E381" s="13"/>
@@ -26234,7 +26250,7 @@
     </row>
     <row r="382" spans="1:17" ht="12" customHeight="1">
       <c r="A382" s="13"/>
-      <c r="B382" s="16"/>
+      <c r="B382" s="15"/>
       <c r="C382" s="13"/>
       <c r="D382" s="13"/>
       <c r="E382" s="13"/>
@@ -26253,7 +26269,7 @@
     </row>
     <row r="383" spans="1:17" ht="12" customHeight="1">
       <c r="A383" s="13"/>
-      <c r="B383" s="16"/>
+      <c r="B383" s="15"/>
       <c r="C383" s="13"/>
       <c r="D383" s="13"/>
       <c r="E383" s="13"/>
@@ -26272,7 +26288,7 @@
     </row>
     <row r="384" spans="1:17" ht="12" customHeight="1">
       <c r="A384" s="13"/>
-      <c r="B384" s="16"/>
+      <c r="B384" s="15"/>
       <c r="C384" s="13"/>
       <c r="D384" s="13"/>
       <c r="E384" s="13"/>
@@ -26291,7 +26307,7 @@
     </row>
     <row r="385" spans="1:17" ht="12" customHeight="1">
       <c r="A385" s="13"/>
-      <c r="B385" s="16"/>
+      <c r="B385" s="15"/>
       <c r="C385" s="13"/>
       <c r="D385" s="13"/>
       <c r="E385" s="13"/>
@@ -26310,7 +26326,7 @@
     </row>
     <row r="386" spans="1:17" ht="12" customHeight="1">
       <c r="A386" s="13"/>
-      <c r="B386" s="16"/>
+      <c r="B386" s="15"/>
       <c r="C386" s="13"/>
       <c r="D386" s="13"/>
       <c r="E386" s="13"/>
@@ -26329,7 +26345,7 @@
     </row>
     <row r="387" spans="1:17" ht="12" customHeight="1">
       <c r="A387" s="13"/>
-      <c r="B387" s="16"/>
+      <c r="B387" s="15"/>
       <c r="C387" s="13"/>
       <c r="D387" s="13"/>
       <c r="E387" s="13"/>
@@ -26348,7 +26364,7 @@
     </row>
     <row r="388" spans="1:17" ht="12" customHeight="1">
       <c r="A388" s="13"/>
-      <c r="B388" s="16"/>
+      <c r="B388" s="15"/>
       <c r="C388" s="13"/>
       <c r="D388" s="13"/>
       <c r="E388" s="13"/>
@@ -26367,7 +26383,7 @@
     </row>
     <row r="389" spans="1:17" ht="12" customHeight="1">
       <c r="A389" s="13"/>
-      <c r="B389" s="16"/>
+      <c r="B389" s="15"/>
       <c r="C389" s="13"/>
       <c r="D389" s="13"/>
       <c r="E389" s="13"/>
@@ -26386,7 +26402,7 @@
     </row>
     <row r="390" spans="1:17" ht="12" customHeight="1">
       <c r="A390" s="13"/>
-      <c r="B390" s="16"/>
+      <c r="B390" s="15"/>
       <c r="C390" s="13"/>
       <c r="D390" s="13"/>
       <c r="E390" s="13"/>
@@ -26405,7 +26421,7 @@
     </row>
     <row r="391" spans="1:17" ht="12" customHeight="1">
       <c r="A391" s="13"/>
-      <c r="B391" s="16"/>
+      <c r="B391" s="15"/>
       <c r="C391" s="13"/>
       <c r="D391" s="13"/>
       <c r="E391" s="13"/>
@@ -26424,7 +26440,7 @@
     </row>
     <row r="392" spans="1:17" ht="12" customHeight="1">
       <c r="A392" s="13"/>
-      <c r="B392" s="16"/>
+      <c r="B392" s="15"/>
       <c r="C392" s="13"/>
       <c r="D392" s="13"/>
       <c r="E392" s="13"/>
@@ -26443,7 +26459,7 @@
     </row>
     <row r="393" spans="1:17" ht="12" customHeight="1">
       <c r="A393" s="13"/>
-      <c r="B393" s="16"/>
+      <c r="B393" s="15"/>
       <c r="C393" s="13"/>
       <c r="D393" s="13"/>
       <c r="E393" s="13"/>
@@ -26462,7 +26478,7 @@
     </row>
     <row r="394" spans="1:17" ht="12" customHeight="1">
       <c r="A394" s="13"/>
-      <c r="B394" s="16"/>
+      <c r="B394" s="15"/>
       <c r="C394" s="13"/>
       <c r="D394" s="13"/>
       <c r="E394" s="13"/>
@@ -26481,7 +26497,7 @@
     </row>
     <row r="395" spans="1:17" ht="12" customHeight="1">
       <c r="A395" s="13"/>
-      <c r="B395" s="16"/>
+      <c r="B395" s="15"/>
       <c r="C395" s="13"/>
       <c r="D395" s="13"/>
       <c r="E395" s="13"/>
@@ -26500,7 +26516,7 @@
     </row>
     <row r="396" spans="1:17" ht="12" customHeight="1">
       <c r="A396" s="13"/>
-      <c r="B396" s="16"/>
+      <c r="B396" s="15"/>
       <c r="C396" s="13"/>
       <c r="D396" s="13"/>
       <c r="E396" s="13"/>
@@ -26519,7 +26535,7 @@
     </row>
     <row r="397" spans="1:17" ht="12" customHeight="1">
       <c r="A397" s="13"/>
-      <c r="B397" s="16"/>
+      <c r="B397" s="15"/>
       <c r="C397" s="13"/>
       <c r="D397" s="13"/>
       <c r="E397" s="13"/>
@@ -26538,7 +26554,7 @@
     </row>
     <row r="398" spans="1:17" ht="12" customHeight="1">
       <c r="A398" s="13"/>
-      <c r="B398" s="16"/>
+      <c r="B398" s="15"/>
       <c r="C398" s="13"/>
       <c r="D398" s="13"/>
       <c r="E398" s="13"/>
@@ -26557,7 +26573,7 @@
     </row>
     <row r="399" spans="1:17" ht="12" customHeight="1">
       <c r="A399" s="13"/>
-      <c r="B399" s="16"/>
+      <c r="B399" s="15"/>
       <c r="C399" s="13"/>
       <c r="D399" s="13"/>
       <c r="E399" s="13"/>
@@ -26576,7 +26592,7 @@
     </row>
     <row r="400" spans="1:17" ht="12" customHeight="1">
       <c r="A400" s="13"/>
-      <c r="B400" s="16"/>
+      <c r="B400" s="15"/>
       <c r="C400" s="13"/>
       <c r="D400" s="13"/>
       <c r="E400" s="13"/>
@@ -26595,7 +26611,7 @@
     </row>
     <row r="401" spans="1:17" ht="12" customHeight="1">
       <c r="A401" s="13"/>
-      <c r="B401" s="16"/>
+      <c r="B401" s="15"/>
       <c r="C401" s="13"/>
       <c r="D401" s="13"/>
       <c r="E401" s="13"/>
@@ -26614,7 +26630,7 @@
     </row>
     <row r="402" spans="1:17" ht="12" customHeight="1">
       <c r="A402" s="13"/>
-      <c r="B402" s="16"/>
+      <c r="B402" s="15"/>
       <c r="C402" s="13"/>
       <c r="D402" s="13"/>
       <c r="E402" s="13"/>
@@ -26633,7 +26649,7 @@
     </row>
     <row r="403" spans="1:17" ht="12" customHeight="1">
       <c r="A403" s="13"/>
-      <c r="B403" s="16"/>
+      <c r="B403" s="15"/>
       <c r="C403" s="13"/>
       <c r="D403" s="13"/>
       <c r="E403" s="13"/>
@@ -26652,7 +26668,7 @@
     </row>
     <row r="404" spans="1:17" ht="12" customHeight="1">
       <c r="A404" s="13"/>
-      <c r="B404" s="16"/>
+      <c r="B404" s="15"/>
       <c r="C404" s="13"/>
       <c r="D404" s="13"/>
       <c r="E404" s="13"/>
@@ -26671,7 +26687,7 @@
     </row>
     <row r="405" spans="1:17" ht="12" customHeight="1">
       <c r="A405" s="13"/>
-      <c r="B405" s="16"/>
+      <c r="B405" s="15"/>
       <c r="C405" s="13"/>
       <c r="D405" s="13"/>
       <c r="E405" s="13"/>
@@ -26690,7 +26706,7 @@
     </row>
     <row r="406" spans="1:17" ht="12" customHeight="1">
       <c r="A406" s="13"/>
-      <c r="B406" s="16"/>
+      <c r="B406" s="15"/>
       <c r="C406" s="13"/>
       <c r="D406" s="13"/>
       <c r="E406" s="13"/>
@@ -26709,7 +26725,7 @@
     </row>
     <row r="407" spans="1:17" ht="12" customHeight="1">
       <c r="A407" s="13"/>
-      <c r="B407" s="16"/>
+      <c r="B407" s="15"/>
       <c r="C407" s="13"/>
       <c r="D407" s="13"/>
       <c r="E407" s="13"/>
@@ -26728,7 +26744,7 @@
     </row>
     <row r="408" spans="1:17" ht="12" customHeight="1">
       <c r="A408" s="13"/>
-      <c r="B408" s="16"/>
+      <c r="B408" s="15"/>
       <c r="C408" s="13"/>
       <c r="D408" s="13"/>
       <c r="E408" s="13"/>
@@ -26747,7 +26763,7 @@
     </row>
     <row r="409" spans="1:17" ht="12" customHeight="1">
       <c r="A409" s="13"/>
-      <c r="B409" s="16"/>
+      <c r="B409" s="15"/>
       <c r="C409" s="13"/>
       <c r="D409" s="13"/>
       <c r="E409" s="13"/>
@@ -26766,7 +26782,7 @@
     </row>
     <row r="410" spans="1:17" ht="12" customHeight="1">
       <c r="A410" s="13"/>
-      <c r="B410" s="16"/>
+      <c r="B410" s="15"/>
       <c r="C410" s="13"/>
       <c r="D410" s="13"/>
       <c r="E410" s="13"/>
@@ -26785,7 +26801,7 @@
     </row>
     <row r="411" spans="1:17" ht="12" customHeight="1">
       <c r="A411" s="13"/>
-      <c r="B411" s="16"/>
+      <c r="B411" s="15"/>
       <c r="C411" s="13"/>
       <c r="D411" s="13"/>
       <c r="E411" s="13"/>
@@ -26804,7 +26820,7 @@
     </row>
     <row r="412" spans="1:17" ht="12" customHeight="1">
       <c r="A412" s="13"/>
-      <c r="B412" s="16"/>
+      <c r="B412" s="15"/>
       <c r="C412" s="13"/>
       <c r="D412" s="13"/>
       <c r="E412" s="13"/>
@@ -26823,7 +26839,7 @@
     </row>
     <row r="413" spans="1:17" ht="12" customHeight="1">
       <c r="A413" s="13"/>
-      <c r="B413" s="16"/>
+      <c r="B413" s="15"/>
       <c r="C413" s="13"/>
       <c r="D413" s="13"/>
       <c r="E413" s="13"/>
@@ -26842,7 +26858,7 @@
     </row>
     <row r="414" spans="1:17" ht="12" customHeight="1">
       <c r="A414" s="13"/>
-      <c r="B414" s="16"/>
+      <c r="B414" s="15"/>
       <c r="C414" s="13"/>
       <c r="D414" s="13"/>
       <c r="E414" s="13"/>
@@ -26861,7 +26877,7 @@
     </row>
     <row r="415" spans="1:17" ht="12" customHeight="1">
       <c r="A415" s="13"/>
-      <c r="B415" s="16"/>
+      <c r="B415" s="15"/>
       <c r="C415" s="13"/>
       <c r="D415" s="13"/>
       <c r="E415" s="13"/>
@@ -26880,7 +26896,7 @@
     </row>
     <row r="416" spans="1:17" ht="12" customHeight="1">
       <c r="A416" s="13"/>
-      <c r="B416" s="16"/>
+      <c r="B416" s="15"/>
       <c r="C416" s="13"/>
       <c r="D416" s="13"/>
       <c r="E416" s="13"/>
@@ -26899,7 +26915,7 @@
     </row>
     <row r="417" spans="1:17" ht="12" customHeight="1">
       <c r="A417" s="13"/>
-      <c r="B417" s="16"/>
+      <c r="B417" s="15"/>
       <c r="C417" s="13"/>
       <c r="D417" s="13"/>
       <c r="E417" s="13"/>
@@ -26918,7 +26934,7 @@
     </row>
     <row r="418" spans="1:17" ht="12" customHeight="1">
       <c r="A418" s="13"/>
-      <c r="B418" s="16"/>
+      <c r="B418" s="15"/>
       <c r="C418" s="13"/>
       <c r="D418" s="13"/>
       <c r="E418" s="13"/>
@@ -26937,7 +26953,7 @@
     </row>
     <row r="419" spans="1:17" ht="12" customHeight="1">
       <c r="A419" s="13"/>
-      <c r="B419" s="16"/>
+      <c r="B419" s="15"/>
       <c r="C419" s="13"/>
       <c r="D419" s="13"/>
       <c r="E419" s="13"/>
@@ -26956,7 +26972,7 @@
     </row>
     <row r="420" spans="1:17" ht="12" customHeight="1">
       <c r="A420" s="13"/>
-      <c r="B420" s="16"/>
+      <c r="B420" s="15"/>
       <c r="C420" s="13"/>
       <c r="D420" s="13"/>
       <c r="E420" s="13"/>
@@ -26975,7 +26991,7 @@
     </row>
     <row r="421" spans="1:17" ht="12" customHeight="1">
       <c r="A421" s="13"/>
-      <c r="B421" s="16"/>
+      <c r="B421" s="15"/>
       <c r="C421" s="13"/>
       <c r="D421" s="13"/>
       <c r="E421" s="13"/>
@@ -26994,7 +27010,7 @@
     </row>
     <row r="422" spans="1:17" ht="12" customHeight="1">
       <c r="A422" s="13"/>
-      <c r="B422" s="16"/>
+      <c r="B422" s="15"/>
       <c r="C422" s="13"/>
       <c r="D422" s="13"/>
       <c r="E422" s="13"/>
@@ -27013,7 +27029,7 @@
     </row>
     <row r="423" spans="1:17" ht="12" customHeight="1">
       <c r="A423" s="13"/>
-      <c r="B423" s="16"/>
+      <c r="B423" s="15"/>
       <c r="C423" s="13"/>
       <c r="D423" s="13"/>
       <c r="E423" s="13"/>
@@ -27032,7 +27048,7 @@
     </row>
     <row r="424" spans="1:17" ht="12" customHeight="1">
       <c r="A424" s="13"/>
-      <c r="B424" s="16"/>
+      <c r="B424" s="15"/>
       <c r="C424" s="13"/>
       <c r="D424" s="13"/>
       <c r="E424" s="13"/>
@@ -27051,7 +27067,7 @@
     </row>
     <row r="425" spans="1:17" ht="12" customHeight="1">
       <c r="A425" s="13"/>
-      <c r="B425" s="16"/>
+      <c r="B425" s="15"/>
       <c r="C425" s="13"/>
       <c r="D425" s="13"/>
       <c r="E425" s="13"/>
@@ -27070,7 +27086,7 @@
     </row>
     <row r="426" spans="1:17" ht="12" customHeight="1">
       <c r="A426" s="13"/>
-      <c r="B426" s="16"/>
+      <c r="B426" s="15"/>
       <c r="C426" s="13"/>
       <c r="D426" s="13"/>
       <c r="E426" s="13"/>
@@ -27089,7 +27105,7 @@
     </row>
     <row r="427" spans="1:17" ht="12" customHeight="1">
       <c r="A427" s="13"/>
-      <c r="B427" s="16"/>
+      <c r="B427" s="15"/>
       <c r="C427" s="13"/>
       <c r="D427" s="13"/>
       <c r="E427" s="13"/>
@@ -27108,7 +27124,7 @@
     </row>
     <row r="428" spans="1:17" ht="12" customHeight="1">
       <c r="A428" s="13"/>
-      <c r="B428" s="16"/>
+      <c r="B428" s="15"/>
       <c r="C428" s="13"/>
       <c r="D428" s="13"/>
       <c r="E428" s="13"/>
@@ -27127,7 +27143,7 @@
     </row>
     <row r="429" spans="1:17" ht="12" customHeight="1">
       <c r="A429" s="13"/>
-      <c r="B429" s="16"/>
+      <c r="B429" s="15"/>
       <c r="C429" s="13"/>
       <c r="D429" s="13"/>
       <c r="E429" s="13"/>
@@ -27146,7 +27162,7 @@
     </row>
     <row r="430" spans="1:17" ht="12" customHeight="1">
       <c r="A430" s="13"/>
-      <c r="B430" s="16"/>
+      <c r="B430" s="15"/>
       <c r="C430" s="13"/>
       <c r="D430" s="13"/>
       <c r="E430" s="13"/>
@@ -27165,7 +27181,7 @@
     </row>
     <row r="431" spans="1:17" ht="12" customHeight="1">
       <c r="A431" s="13"/>
-      <c r="B431" s="16"/>
+      <c r="B431" s="15"/>
       <c r="C431" s="13"/>
       <c r="D431" s="13"/>
       <c r="E431" s="13"/>
@@ -27184,7 +27200,7 @@
     </row>
     <row r="432" spans="1:17" ht="12" customHeight="1">
       <c r="A432" s="13"/>
-      <c r="B432" s="16"/>
+      <c r="B432" s="15"/>
       <c r="C432" s="13"/>
       <c r="D432" s="13"/>
       <c r="E432" s="13"/>
@@ -27203,7 +27219,7 @@
     </row>
     <row r="433" spans="1:17" ht="12" customHeight="1">
       <c r="A433" s="13"/>
-      <c r="B433" s="16"/>
+      <c r="B433" s="15"/>
       <c r="C433" s="13"/>
       <c r="D433" s="13"/>
       <c r="E433" s="13"/>
@@ -27222,7 +27238,7 @@
     </row>
     <row r="434" spans="1:17" ht="12" customHeight="1">
       <c r="A434" s="13"/>
-      <c r="B434" s="16"/>
+      <c r="B434" s="15"/>
       <c r="C434" s="13"/>
       <c r="D434" s="13"/>
       <c r="E434" s="13"/>
@@ -27241,7 +27257,7 @@
     </row>
     <row r="435" spans="1:17" ht="12" customHeight="1">
       <c r="A435" s="13"/>
-      <c r="B435" s="16"/>
+      <c r="B435" s="15"/>
       <c r="C435" s="13"/>
       <c r="D435" s="13"/>
       <c r="E435" s="13"/>
@@ -27260,7 +27276,7 @@
     </row>
     <row r="436" spans="1:17" ht="12" customHeight="1">
       <c r="A436" s="13"/>
-      <c r="B436" s="16"/>
+      <c r="B436" s="15"/>
       <c r="C436" s="13"/>
       <c r="D436" s="13"/>
       <c r="E436" s="13"/>
@@ -27279,7 +27295,7 @@
     </row>
     <row r="437" spans="1:17" ht="12" customHeight="1">
       <c r="A437" s="13"/>
-      <c r="B437" s="16"/>
+      <c r="B437" s="15"/>
       <c r="C437" s="13"/>
       <c r="D437" s="13"/>
       <c r="E437" s="13"/>
@@ -27298,7 +27314,7 @@
     </row>
     <row r="438" spans="1:17" ht="12" customHeight="1">
       <c r="A438" s="13"/>
-      <c r="B438" s="16"/>
+      <c r="B438" s="15"/>
       <c r="C438" s="13"/>
       <c r="D438" s="13"/>
       <c r="E438" s="13"/>
@@ -27317,7 +27333,7 @@
     </row>
     <row r="439" spans="1:17" ht="12" customHeight="1">
       <c r="A439" s="13"/>
-      <c r="B439" s="16"/>
+      <c r="B439" s="15"/>
       <c r="C439" s="13"/>
       <c r="D439" s="13"/>
       <c r="E439" s="13"/>
@@ -27336,7 +27352,7 @@
     </row>
     <row r="440" spans="1:17" ht="12" customHeight="1">
       <c r="A440" s="13"/>
-      <c r="B440" s="16"/>
+      <c r="B440" s="15"/>
       <c r="C440" s="13"/>
       <c r="D440" s="13"/>
       <c r="E440" s="13"/>
@@ -27355,7 +27371,7 @@
     </row>
     <row r="441" spans="1:17" ht="12" customHeight="1">
       <c r="A441" s="13"/>
-      <c r="B441" s="16"/>
+      <c r="B441" s="15"/>
       <c r="C441" s="13"/>
       <c r="D441" s="13"/>
       <c r="E441" s="13"/>
@@ -27374,7 +27390,7 @@
     </row>
     <row r="442" spans="1:17" ht="12" customHeight="1">
       <c r="A442" s="13"/>
-      <c r="B442" s="16"/>
+      <c r="B442" s="15"/>
       <c r="C442" s="13"/>
       <c r="D442" s="13"/>
       <c r="E442" s="13"/>
@@ -27393,7 +27409,7 @@
     </row>
     <row r="443" spans="1:17" ht="12" customHeight="1">
       <c r="A443" s="13"/>
-      <c r="B443" s="16"/>
+      <c r="B443" s="15"/>
       <c r="C443" s="13"/>
       <c r="D443" s="13"/>
       <c r="E443" s="13"/>
@@ -27412,7 +27428,7 @@
     </row>
     <row r="444" spans="1:17" ht="12" customHeight="1">
       <c r="A444" s="13"/>
-      <c r="B444" s="16"/>
+      <c r="B444" s="15"/>
       <c r="C444" s="13"/>
       <c r="D444" s="13"/>
       <c r="E444" s="13"/>
@@ -27431,7 +27447,7 @@
     </row>
     <row r="445" spans="1:17" ht="12" customHeight="1">
       <c r="A445" s="13"/>
-      <c r="B445" s="16"/>
+      <c r="B445" s="15"/>
       <c r="C445" s="13"/>
       <c r="D445" s="13"/>
       <c r="E445" s="13"/>
@@ -27450,7 +27466,7 @@
     </row>
     <row r="446" spans="1:17" ht="12" customHeight="1">
       <c r="A446" s="13"/>
-      <c r="B446" s="16"/>
+      <c r="B446" s="15"/>
       <c r="C446" s="13"/>
       <c r="D446" s="13"/>
       <c r="E446" s="13"/>
@@ -27469,7 +27485,7 @@
     </row>
     <row r="447" spans="1:17" ht="12" customHeight="1">
       <c r="A447" s="13"/>
-      <c r="B447" s="16"/>
+      <c r="B447" s="15"/>
       <c r="C447" s="13"/>
       <c r="D447" s="13"/>
       <c r="E447" s="13"/>
@@ -27488,7 +27504,7 @@
     </row>
     <row r="448" spans="1:17" ht="12" customHeight="1">
       <c r="A448" s="13"/>
-      <c r="B448" s="16"/>
+      <c r="B448" s="15"/>
       <c r="C448" s="13"/>
       <c r="D448" s="13"/>
       <c r="E448" s="13"/>
@@ -27507,7 +27523,7 @@
     </row>
     <row r="449" spans="1:17" ht="12" customHeight="1">
       <c r="A449" s="13"/>
-      <c r="B449" s="16"/>
+      <c r="B449" s="15"/>
       <c r="C449" s="13"/>
       <c r="D449" s="13"/>
       <c r="E449" s="13"/>
@@ -27526,7 +27542,7 @@
     </row>
     <row r="450" spans="1:17" ht="12" customHeight="1">
       <c r="A450" s="13"/>
-      <c r="B450" s="16"/>
+      <c r="B450" s="15"/>
       <c r="C450" s="13"/>
       <c r="D450" s="13"/>
       <c r="E450" s="13"/>
@@ -27545,7 +27561,7 @@
     </row>
     <row r="451" spans="1:17" ht="12" customHeight="1">
       <c r="A451" s="13"/>
-      <c r="B451" s="16"/>
+      <c r="B451" s="15"/>
       <c r="C451" s="13"/>
       <c r="D451" s="13"/>
       <c r="E451" s="13"/>
@@ -27564,7 +27580,7 @@
     </row>
     <row r="452" spans="1:17" ht="12" customHeight="1">
       <c r="A452" s="13"/>
-      <c r="B452" s="16"/>
+      <c r="B452" s="15"/>
       <c r="C452" s="13"/>
       <c r="D452" s="13"/>
       <c r="E452" s="13"/>
@@ -27583,7 +27599,7 @@
     </row>
     <row r="453" spans="1:17" ht="12" customHeight="1">
       <c r="A453" s="13"/>
-      <c r="B453" s="16"/>
+      <c r="B453" s="15"/>
       <c r="C453" s="13"/>
       <c r="D453" s="13"/>
       <c r="E453" s="13"/>
@@ -27602,7 +27618,7 @@
     </row>
     <row r="454" spans="1:17" ht="12" customHeight="1">
       <c r="A454" s="13"/>
-      <c r="B454" s="16"/>
+      <c r="B454" s="15"/>
       <c r="C454" s="13"/>
       <c r="D454" s="13"/>
       <c r="E454" s="13"/>
@@ -27621,7 +27637,7 @@
     </row>
     <row r="455" spans="1:17" ht="12" customHeight="1">
       <c r="A455" s="13"/>
-      <c r="B455" s="16"/>
+      <c r="B455" s="15"/>
       <c r="C455" s="13"/>
       <c r="D455" s="13"/>
       <c r="E455" s="13"/>
@@ -27640,7 +27656,7 @@
     </row>
     <row r="456" spans="1:17" ht="12" customHeight="1">
       <c r="A456" s="13"/>
-      <c r="B456" s="16"/>
+      <c r="B456" s="15"/>
       <c r="C456" s="13"/>
       <c r="D456" s="13"/>
       <c r="E456" s="13"/>
@@ -27659,7 +27675,7 @@
     </row>
     <row r="457" spans="1:17" ht="12" customHeight="1">
       <c r="A457" s="13"/>
-      <c r="B457" s="16"/>
+      <c r="B457" s="15"/>
       <c r="C457" s="13"/>
       <c r="D457" s="13"/>
       <c r="E457" s="13"/>
@@ -27678,7 +27694,7 @@
     </row>
     <row r="458" spans="1:17" ht="12" customHeight="1">
       <c r="A458" s="13"/>
-      <c r="B458" s="16"/>
+      <c r="B458" s="15"/>
       <c r="C458" s="13"/>
       <c r="D458" s="13"/>
       <c r="E458" s="13"/>
@@ -27697,7 +27713,7 @@
     </row>
     <row r="459" spans="1:17" ht="12" customHeight="1">
       <c r="A459" s="13"/>
-      <c r="B459" s="16"/>
+      <c r="B459" s="15"/>
       <c r="C459" s="13"/>
       <c r="D459" s="13"/>
       <c r="E459" s="13"/>
@@ -27716,7 +27732,7 @@
     </row>
     <row r="460" spans="1:17" ht="12" customHeight="1">
       <c r="A460" s="13"/>
-      <c r="B460" s="16"/>
+      <c r="B460" s="15"/>
       <c r="C460" s="13"/>
       <c r="D460" s="13"/>
       <c r="E460" s="13"/>
@@ -27735,7 +27751,7 @@
     </row>
     <row r="461" spans="1:17" ht="12" customHeight="1">
       <c r="A461" s="13"/>
-      <c r="B461" s="16"/>
+      <c r="B461" s="15"/>
       <c r="C461" s="13"/>
       <c r="D461" s="13"/>
       <c r="E461" s="13"/>
@@ -27754,7 +27770,7 @@
     </row>
     <row r="462" spans="1:17" ht="12" customHeight="1">
       <c r="A462" s="13"/>
-      <c r="B462" s="16"/>
+      <c r="B462" s="15"/>
       <c r="C462" s="13"/>
       <c r="D462" s="13"/>
       <c r="E462" s="13"/>
@@ -27773,7 +27789,7 @@
     </row>
     <row r="463" spans="1:17" ht="12" customHeight="1">
       <c r="A463" s="13"/>
-      <c r="B463" s="16"/>
+      <c r="B463" s="15"/>
       <c r="C463" s="13"/>
       <c r="D463" s="13"/>
       <c r="E463" s="13"/>
@@ -27792,7 +27808,7 @@
     </row>
     <row r="464" spans="1:17" ht="12" customHeight="1">
       <c r="A464" s="13"/>
-      <c r="B464" s="16"/>
+      <c r="B464" s="15"/>
       <c r="C464" s="13"/>
       <c r="D464" s="13"/>
       <c r="E464" s="13"/>
@@ -27811,7 +27827,7 @@
     </row>
     <row r="465" spans="1:17" ht="12" customHeight="1">
       <c r="A465" s="13"/>
-      <c r="B465" s="16"/>
+      <c r="B465" s="15"/>
       <c r="C465" s="13"/>
       <c r="D465" s="13"/>
       <c r="E465" s="13"/>
@@ -27830,7 +27846,7 @@
     </row>
     <row r="466" spans="1:17" ht="12" customHeight="1">
       <c r="A466" s="13"/>
-      <c r="B466" s="16"/>
+      <c r="B466" s="15"/>
       <c r="C466" s="13"/>
       <c r="D466" s="13"/>
       <c r="E466" s="13"/>
@@ -27849,7 +27865,7 @@
     </row>
     <row r="467" spans="1:17" ht="12" customHeight="1">
       <c r="A467" s="13"/>
-      <c r="B467" s="16"/>
+      <c r="B467" s="15"/>
       <c r="C467" s="13"/>
       <c r="D467" s="13"/>
       <c r="E467" s="13"/>
@@ -27868,7 +27884,7 @@
     </row>
     <row r="468" spans="1:17" ht="12" customHeight="1">
       <c r="A468" s="13"/>
-      <c r="B468" s="16"/>
+      <c r="B468" s="15"/>
       <c r="C468" s="13"/>
       <c r="D468" s="13"/>
       <c r="E468" s="13"/>
@@ -27887,7 +27903,7 @@
     </row>
     <row r="469" spans="1:17" ht="12" customHeight="1">
       <c r="A469" s="13"/>
-      <c r="B469" s="16"/>
+      <c r="B469" s="15"/>
       <c r="C469" s="13"/>
       <c r="D469" s="13"/>
       <c r="E469" s="13"/>
@@ -27906,7 +27922,7 @@
     </row>
     <row r="470" spans="1:17" ht="12" customHeight="1">
       <c r="A470" s="13"/>
-      <c r="B470" s="16"/>
+      <c r="B470" s="15"/>
       <c r="C470" s="13"/>
       <c r="D470" s="13"/>
       <c r="E470" s="13"/>
@@ -27925,7 +27941,7 @@
     </row>
     <row r="471" spans="1:17" ht="12" customHeight="1">
       <c r="A471" s="13"/>
-      <c r="B471" s="16"/>
+      <c r="B471" s="15"/>
       <c r="C471" s="13"/>
       <c r="D471" s="13"/>
       <c r="E471" s="13"/>
@@ -27944,7 +27960,7 @@
     </row>
     <row r="472" spans="1:17" ht="12" customHeight="1">
       <c r="A472" s="13"/>
-      <c r="B472" s="16"/>
+      <c r="B472" s="15"/>
       <c r="C472" s="13"/>
       <c r="D472" s="13"/>
       <c r="E472" s="13"/>
@@ -27963,7 +27979,7 @@
     </row>
     <row r="473" spans="1:17" ht="12" customHeight="1">
       <c r="A473" s="13"/>
-      <c r="B473" s="16"/>
+      <c r="B473" s="15"/>
       <c r="C473" s="13"/>
       <c r="D473" s="13"/>
       <c r="E473" s="13"/>
@@ -27982,7 +27998,7 @@
     </row>
     <row r="474" spans="1:17" ht="12" customHeight="1">
       <c r="A474" s="13"/>
-      <c r="B474" s="16"/>
+      <c r="B474" s="15"/>
       <c r="C474" s="13"/>
       <c r="D474" s="13"/>
       <c r="E474" s="13"/>
@@ -28001,7 +28017,7 @@
     </row>
     <row r="475" spans="1:17" ht="12" customHeight="1">
       <c r="A475" s="13"/>
-      <c r="B475" s="16"/>
+      <c r="B475" s="15"/>
       <c r="C475" s="13"/>
       <c r="D475" s="13"/>
       <c r="E475" s="13"/>
@@ -28020,7 +28036,7 @@
     </row>
     <row r="476" spans="1:17" ht="12" customHeight="1">
       <c r="A476" s="13"/>
-      <c r="B476" s="16"/>
+      <c r="B476" s="15"/>
       <c r="C476" s="13"/>
       <c r="D476" s="13"/>
       <c r="E476" s="13"/>
@@ -28039,7 +28055,7 @@
     </row>
     <row r="477" spans="1:17" ht="12" customHeight="1">
       <c r="A477" s="13"/>
-      <c r="B477" s="16"/>
+      <c r="B477" s="15"/>
       <c r="C477" s="13"/>
       <c r="D477" s="13"/>
       <c r="E477" s="13"/>
@@ -28058,7 +28074,7 @@
     </row>
     <row r="478" spans="1:17" ht="12" customHeight="1">
       <c r="A478" s="13"/>
-      <c r="B478" s="16"/>
+      <c r="B478" s="15"/>
       <c r="C478" s="13"/>
       <c r="D478" s="13"/>
       <c r="E478" s="13"/>
@@ -28077,7 +28093,7 @@
     </row>
     <row r="479" spans="1:17" ht="12" customHeight="1">
       <c r="A479" s="13"/>
-      <c r="B479" s="16"/>
+      <c r="B479" s="15"/>
       <c r="C479" s="13"/>
       <c r="D479" s="13"/>
       <c r="E479" s="13"/>
@@ -28096,7 +28112,7 @@
     </row>
     <row r="480" spans="1:17" ht="12" customHeight="1">
       <c r="A480" s="13"/>
-      <c r="B480" s="16"/>
+      <c r="B480" s="15"/>
       <c r="C480" s="13"/>
       <c r="D480" s="13"/>
       <c r="E480" s="13"/>
@@ -28115,7 +28131,7 @@
     </row>
     <row r="481" spans="1:17" ht="12" customHeight="1">
       <c r="A481" s="13"/>
-      <c r="B481" s="16"/>
+      <c r="B481" s="15"/>
       <c r="C481" s="13"/>
       <c r="D481" s="13"/>
       <c r="E481" s="13"/>
@@ -28134,7 +28150,7 @@
     </row>
     <row r="482" spans="1:17" ht="12" customHeight="1">
       <c r="A482" s="13"/>
-      <c r="B482" s="16"/>
+      <c r="B482" s="15"/>
       <c r="C482" s="13"/>
       <c r="D482" s="13"/>
       <c r="E482" s="13"/>
@@ -28153,7 +28169,7 @@
     </row>
     <row r="483" spans="1:17" ht="12" customHeight="1">
       <c r="A483" s="13"/>
-      <c r="B483" s="16"/>
+      <c r="B483" s="15"/>
       <c r="C483" s="13"/>
       <c r="D483" s="13"/>
       <c r="E483" s="13"/>
@@ -28172,7 +28188,7 @@
     </row>
     <row r="484" spans="1:17" ht="12" customHeight="1">
       <c r="A484" s="13"/>
-      <c r="B484" s="16"/>
+      <c r="B484" s="15"/>
       <c r="C484" s="13"/>
       <c r="D484" s="13"/>
       <c r="E484" s="13"/>
@@ -28191,7 +28207,7 @@
     </row>
     <row r="485" spans="1:17" ht="12" customHeight="1">
       <c r="A485" s="13"/>
-      <c r="B485" s="16"/>
+      <c r="B485" s="15"/>
       <c r="C485" s="13"/>
       <c r="D485" s="13"/>
       <c r="E485" s="13"/>
@@ -28210,7 +28226,7 @@
     </row>
     <row r="486" spans="1:17" ht="12" customHeight="1">
       <c r="A486" s="13"/>
-      <c r="B486" s="16"/>
+      <c r="B486" s="15"/>
       <c r="C486" s="13"/>
       <c r="D486" s="13"/>
       <c r="E486" s="13"/>
@@ -28229,7 +28245,7 @@
     </row>
     <row r="487" spans="1:17" ht="12" customHeight="1">
       <c r="A487" s="13"/>
-      <c r="B487" s="16"/>
+      <c r="B487" s="15"/>
       <c r="C487" s="13"/>
       <c r="D487" s="13"/>
       <c r="E487" s="13"/>
@@ -28248,7 +28264,7 @@
     </row>
     <row r="488" spans="1:17" ht="12" customHeight="1">
       <c r="A488" s="13"/>
-      <c r="B488" s="16"/>
+      <c r="B488" s="15"/>
       <c r="C488" s="13"/>
       <c r="D488" s="13"/>
       <c r="E488" s="13"/>
@@ -28267,7 +28283,7 @@
     </row>
     <row r="489" spans="1:17" ht="12" customHeight="1">
       <c r="A489" s="13"/>
-      <c r="B489" s="16"/>
+      <c r="B489" s="15"/>
       <c r="C489" s="13"/>
       <c r="D489" s="13"/>
       <c r="E489" s="13"/>
@@ -28286,7 +28302,7 @@
     </row>
     <row r="490" spans="1:17" ht="12" customHeight="1">
       <c r="A490" s="13"/>
-      <c r="B490" s="16"/>
+      <c r="B490" s="15"/>
       <c r="C490" s="13"/>
       <c r="D490" s="13"/>
       <c r="E490" s="13"/>
@@ -28305,7 +28321,7 @@
     </row>
     <row r="491" spans="1:17" ht="12" customHeight="1">
       <c r="A491" s="13"/>
-      <c r="B491" s="16"/>
+      <c r="B491" s="15"/>
       <c r="C491" s="13"/>
       <c r="D491" s="13"/>
       <c r="E491" s="13"/>
@@ -28324,7 +28340,7 @@
     </row>
     <row r="492" spans="1:17" ht="12" customHeight="1">
       <c r="A492" s="13"/>
-      <c r="B492" s="16"/>
+      <c r="B492" s="15"/>
       <c r="C492" s="13"/>
       <c r="D492" s="13"/>
       <c r="E492" s="13"/>
@@ -28343,7 +28359,7 @@
     </row>
     <row r="493" spans="1:17" ht="12" customHeight="1">
       <c r="A493" s="13"/>
-      <c r="B493" s="16"/>
+      <c r="B493" s="15"/>
       <c r="C493" s="13"/>
       <c r="D493" s="13"/>
       <c r="E493" s="13"/>
@@ -28362,7 +28378,7 @@
     </row>
     <row r="494" spans="1:17" ht="12" customHeight="1">
       <c r="A494" s="13"/>
-      <c r="B494" s="16"/>
+      <c r="B494" s="15"/>
       <c r="C494" s="13"/>
       <c r="D494" s="13"/>
       <c r="E494" s="13"/>
@@ -28381,7 +28397,7 @@
     </row>
     <row r="495" spans="1:17" ht="12" customHeight="1">
       <c r="A495" s="13"/>
-      <c r="B495" s="16"/>
+      <c r="B495" s="15"/>
       <c r="C495" s="13"/>
       <c r="D495" s="13"/>
       <c r="E495" s="13"/>
@@ -28400,7 +28416,7 @@
     </row>
     <row r="496" spans="1:17" ht="12" customHeight="1">
       <c r="A496" s="13"/>
-      <c r="B496" s="16"/>
+      <c r="B496" s="15"/>
       <c r="C496" s="13"/>
       <c r="D496" s="13"/>
       <c r="E496" s="13"/>
@@ -28419,7 +28435,7 @@
     </row>
     <row r="497" spans="1:17" ht="12" customHeight="1">
       <c r="A497" s="13"/>
-      <c r="B497" s="16"/>
+      <c r="B497" s="15"/>
       <c r="C497" s="13"/>
       <c r="D497" s="13"/>
       <c r="E497" s="13"/>
@@ -28438,7 +28454,7 @@
     </row>
     <row r="498" spans="1:17" ht="12" customHeight="1">
       <c r="A498" s="13"/>
-      <c r="B498" s="16"/>
+      <c r="B498" s="15"/>
       <c r="C498" s="13"/>
       <c r="D498" s="13"/>
       <c r="E498" s="13"/>
@@ -28457,7 +28473,7 @@
     </row>
     <row r="499" spans="1:17" ht="12" customHeight="1">
       <c r="A499" s="13"/>
-      <c r="B499" s="16"/>
+      <c r="B499" s="15"/>
       <c r="C499" s="13"/>
       <c r="D499" s="13"/>
       <c r="E499" s="13"/>
@@ -28476,7 +28492,7 @@
     </row>
     <row r="500" spans="1:17" ht="12" customHeight="1">
       <c r="A500" s="13"/>
-      <c r="B500" s="16"/>
+      <c r="B500" s="15"/>
       <c r="C500" s="13"/>
       <c r="D500" s="13"/>
       <c r="E500" s="13"/>
@@ -28495,7 +28511,7 @@
     </row>
     <row r="501" spans="1:17" ht="12" customHeight="1">
       <c r="A501" s="13"/>
-      <c r="B501" s="16"/>
+      <c r="B501" s="15"/>
       <c r="C501" s="13"/>
       <c r="D501" s="13"/>
       <c r="E501" s="13"/>
@@ -28514,7 +28530,7 @@
     </row>
     <row r="502" spans="1:17" ht="12" customHeight="1">
       <c r="A502" s="13"/>
-      <c r="B502" s="16"/>
+      <c r="B502" s="15"/>
       <c r="C502" s="13"/>
       <c r="D502" s="13"/>
       <c r="E502" s="13"/>
@@ -28533,7 +28549,7 @@
     </row>
     <row r="503" spans="1:17" ht="12" customHeight="1">
       <c r="A503" s="13"/>
-      <c r="B503" s="16"/>
+      <c r="B503" s="15"/>
       <c r="C503" s="13"/>
       <c r="D503" s="13"/>
       <c r="E503" s="13"/>
@@ -28552,7 +28568,7 @@
     </row>
     <row r="504" spans="1:17" ht="12" customHeight="1">
       <c r="A504" s="13"/>
-      <c r="B504" s="16"/>
+      <c r="B504" s="15"/>
       <c r="C504" s="13"/>
       <c r="D504" s="13"/>
       <c r="E504" s="13"/>
@@ -28571,7 +28587,7 @@
     </row>
     <row r="505" spans="1:17" ht="12" customHeight="1">
       <c r="A505" s="13"/>
-      <c r="B505" s="16"/>
+      <c r="B505" s="15"/>
       <c r="C505" s="13"/>
       <c r="D505" s="13"/>
       <c r="E505" s="13"/>
@@ -28590,7 +28606,7 @@
     </row>
     <row r="506" spans="1:17" ht="12" customHeight="1">
       <c r="A506" s="13"/>
-      <c r="B506" s="16"/>
+      <c r="B506" s="15"/>
       <c r="C506" s="13"/>
       <c r="D506" s="13"/>
       <c r="E506" s="13"/>
@@ -28609,7 +28625,7 @@
     </row>
     <row r="507" spans="1:17" ht="12" customHeight="1">
       <c r="A507" s="13"/>
-      <c r="B507" s="16"/>
+      <c r="B507" s="15"/>
       <c r="C507" s="13"/>
       <c r="D507" s="13"/>
       <c r="E507" s="13"/>
@@ -28628,7 +28644,7 @@
     </row>
     <row r="508" spans="1:17" ht="12" customHeight="1">
       <c r="A508" s="13"/>
-      <c r="B508" s="16"/>
+      <c r="B508" s="15"/>
       <c r="C508" s="13"/>
       <c r="D508" s="13"/>
       <c r="E508" s="13"/>
@@ -28647,7 +28663,7 @@
     </row>
     <row r="509" spans="1:17" ht="12" customHeight="1">
       <c r="A509" s="13"/>
-      <c r="B509" s="16"/>
+      <c r="B509" s="15"/>
       <c r="C509" s="13"/>
       <c r="D509" s="13"/>
       <c r="E509" s="13"/>
@@ -28666,7 +28682,7 @@
     </row>
     <row r="510" spans="1:17" ht="12" customHeight="1">
       <c r="A510" s="13"/>
-      <c r="B510" s="16"/>
+      <c r="B510" s="15"/>
       <c r="C510" s="13"/>
       <c r="D510" s="13"/>
       <c r="E510" s="13"/>
@@ -28685,7 +28701,7 @@
     </row>
     <row r="511" spans="1:17" ht="12" customHeight="1">
       <c r="A511" s="13"/>
-      <c r="B511" s="16"/>
+      <c r="B511" s="15"/>
       <c r="C511" s="13"/>
       <c r="D511" s="13"/>
       <c r="E511" s="13"/>
@@ -28704,7 +28720,7 @@
     </row>
     <row r="512" spans="1:17" ht="12" customHeight="1">
       <c r="A512" s="13"/>
-      <c r="B512" s="16"/>
+      <c r="B512" s="15"/>
       <c r="C512" s="13"/>
       <c r="D512" s="13"/>
       <c r="E512" s="13"/>
@@ -28723,7 +28739,7 @@
     </row>
     <row r="513" spans="1:17" ht="12" customHeight="1">
       <c r="A513" s="13"/>
-      <c r="B513" s="16"/>
+      <c r="B513" s="15"/>
       <c r="C513" s="13"/>
       <c r="D513" s="13"/>
       <c r="E513" s="13"/>
@@ -28742,7 +28758,7 @@
     </row>
     <row r="514" spans="1:17" ht="12" customHeight="1">
       <c r="A514" s="13"/>
-      <c r="B514" s="16"/>
+      <c r="B514" s="15"/>
       <c r="C514" s="13"/>
       <c r="D514" s="13"/>
       <c r="E514" s="13"/>
@@ -28761,7 +28777,7 @@
     </row>
     <row r="515" spans="1:17" ht="12" customHeight="1">
       <c r="A515" s="13"/>
-      <c r="B515" s="16"/>
+      <c r="B515" s="15"/>
       <c r="C515" s="13"/>
       <c r="D515" s="13"/>
       <c r="E515" s="13"/>
@@ -28780,7 +28796,7 @@
     </row>
     <row r="516" spans="1:17" ht="12" customHeight="1">
       <c r="A516" s="13"/>
-      <c r="B516" s="16"/>
+      <c r="B516" s="15"/>
       <c r="C516" s="13"/>
       <c r="D516" s="13"/>
       <c r="E516" s="13"/>
@@ -28799,7 +28815,7 @@
     </row>
     <row r="517" spans="1:17" ht="12" customHeight="1">
       <c r="A517" s="13"/>
-      <c r="B517" s="16"/>
+      <c r="B517" s="15"/>
       <c r="C517" s="13"/>
       <c r="D517" s="13"/>
       <c r="E517" s="13"/>
@@ -28818,7 +28834,7 @@
     </row>
     <row r="518" spans="1:17" ht="12" customHeight="1">
       <c r="A518" s="13"/>
-      <c r="B518" s="16"/>
+      <c r="B518" s="15"/>
       <c r="C518" s="13"/>
       <c r="D518" s="13"/>
       <c r="E518" s="13"/>
@@ -28837,7 +28853,7 @@
     </row>
     <row r="519" spans="1:17" ht="12" customHeight="1">
       <c r="A519" s="13"/>
-      <c r="B519" s="16"/>
+      <c r="B519" s="15"/>
       <c r="C519" s="13"/>
       <c r="D519" s="13"/>
       <c r="E519" s="13"/>
@@ -28856,7 +28872,7 @@
     </row>
     <row r="520" spans="1:17" ht="12" customHeight="1">
       <c r="A520" s="13"/>
-      <c r="B520" s="16"/>
+      <c r="B520" s="15"/>
       <c r="C520" s="13"/>
       <c r="D520" s="13"/>
       <c r="E520" s="13"/>
@@ -28875,7 +28891,7 @@
     </row>
     <row r="521" spans="1:17" ht="12" customHeight="1">
       <c r="A521" s="13"/>
-      <c r="B521" s="16"/>
+      <c r="B521" s="15"/>
       <c r="C521" s="13"/>
       <c r="D521" s="13"/>
       <c r="E521" s="13"/>
@@ -28894,7 +28910,7 @@
     </row>
     <row r="522" spans="1:17" ht="12" customHeight="1">
       <c r="A522" s="13"/>
-      <c r="B522" s="16"/>
+      <c r="B522" s="15"/>
       <c r="C522" s="13"/>
       <c r="D522" s="13"/>
       <c r="E522" s="13"/>
@@ -28913,7 +28929,7 @@
     </row>
     <row r="523" spans="1:17" ht="12" customHeight="1">
       <c r="A523" s="13"/>
-      <c r="B523" s="16"/>
+      <c r="B523" s="15"/>
       <c r="C523" s="13"/>
       <c r="D523" s="13"/>
       <c r="E523" s="13"/>
@@ -28932,7 +28948,7 @@
     </row>
     <row r="524" spans="1:17" ht="12" customHeight="1">
       <c r="A524" s="13"/>
-      <c r="B524" s="16"/>
+      <c r="B524" s="15"/>
       <c r="C524" s="13"/>
       <c r="D524" s="13"/>
       <c r="E524" s="13"/>
@@ -28951,7 +28967,7 @@
     </row>
     <row r="525" spans="1:17" ht="12" customHeight="1">
       <c r="A525" s="13"/>
-      <c r="B525" s="16"/>
+      <c r="B525" s="15"/>
       <c r="C525" s="13"/>
       <c r="D525" s="13"/>
       <c r="E525" s="13"/>
@@ -28970,7 +28986,7 @@
     </row>
     <row r="526" spans="1:17" ht="12" customHeight="1">
       <c r="A526" s="13"/>
-      <c r="B526" s="16"/>
+      <c r="B526" s="15"/>
       <c r="C526" s="13"/>
       <c r="D526" s="13"/>
       <c r="E526" s="13"/>
@@ -28989,7 +29005,7 @@
     </row>
     <row r="527" spans="1:17" ht="12" customHeight="1">
       <c r="A527" s="13"/>
-      <c r="B527" s="16"/>
+      <c r="B527" s="15"/>
       <c r="C527" s="13"/>
       <c r="D527" s="13"/>
       <c r="E527" s="13"/>
@@ -29008,7 +29024,7 @@
     </row>
     <row r="528" spans="1:17" ht="12" customHeight="1">
       <c r="A528" s="13"/>
-      <c r="B528" s="16"/>
+      <c r="B528" s="15"/>
       <c r="C528" s="13"/>
       <c r="D528" s="13"/>
       <c r="E528" s="13"/>
@@ -29027,7 +29043,7 @@
     </row>
     <row r="529" spans="1:17" ht="12" customHeight="1">
       <c r="A529" s="13"/>
-      <c r="B529" s="16"/>
+      <c r="B529" s="15"/>
       <c r="C529" s="13"/>
       <c r="D529" s="13"/>
       <c r="E529" s="13"/>
@@ -29046,7 +29062,7 @@
     </row>
     <row r="530" spans="1:17" ht="12" customHeight="1">
       <c r="A530" s="13"/>
-      <c r="B530" s="16"/>
+      <c r="B530" s="15"/>
       <c r="C530" s="13"/>
       <c r="D530" s="13"/>
       <c r="E530" s="13"/>
@@ -29065,7 +29081,7 @@
     </row>
     <row r="531" spans="1:17" ht="12" customHeight="1">
       <c r="A531" s="13"/>
-      <c r="B531" s="16"/>
+      <c r="B531" s="15"/>
       <c r="C531" s="13"/>
       <c r="D531" s="13"/>
       <c r="E531" s="13"/>
@@ -29084,7 +29100,7 @@
     </row>
     <row r="532" spans="1:17" ht="12" customHeight="1">
       <c r="A532" s="13"/>
-      <c r="B532" s="16"/>
+      <c r="B532" s="15"/>
       <c r="C532" s="13"/>
       <c r="D532" s="13"/>
       <c r="E532" s="13"/>
@@ -29103,7 +29119,7 @@
     </row>
     <row r="533" spans="1:17" ht="12" customHeight="1">
       <c r="A533" s="13"/>
-      <c r="B533" s="16"/>
+      <c r="B533" s="15"/>
       <c r="C533" s="13"/>
       <c r="D533" s="13"/>
       <c r="E533" s="13"/>
@@ -29122,7 +29138,7 @@
     </row>
     <row r="534" spans="1:17" ht="12" customHeight="1">
       <c r="A534" s="13"/>
-      <c r="B534" s="16"/>
+      <c r="B534" s="15"/>
       <c r="C534" s="13"/>
       <c r="D534" s="13"/>
       <c r="E534" s="13"/>
@@ -29141,7 +29157,7 @@
     </row>
     <row r="535" spans="1:17" ht="12" customHeight="1">
       <c r="A535" s="13"/>
-      <c r="B535" s="16"/>
+      <c r="B535" s="15"/>
       <c r="C535" s="13"/>
       <c r="D535" s="13"/>
       <c r="E535" s="13"/>
@@ -29160,7 +29176,7 @@
     </row>
     <row r="536" spans="1:17" ht="12" customHeight="1">
       <c r="A536" s="13"/>
-      <c r="B536" s="16"/>
+      <c r="B536" s="15"/>
       <c r="C536" s="13"/>
       <c r="D536" s="13"/>
       <c r="E536" s="13"/>
@@ -29179,7 +29195,7 @@
     </row>
     <row r="537" spans="1:17" ht="12" customHeight="1">
       <c r="A537" s="13"/>
-      <c r="B537" s="16"/>
+      <c r="B537" s="15"/>
       <c r="C537" s="13"/>
       <c r="D537" s="13"/>
       <c r="E537" s="13"/>
@@ -29198,7 +29214,7 @@
     </row>
     <row r="538" spans="1:17" ht="12" customHeight="1">
       <c r="A538" s="13"/>
-      <c r="B538" s="16"/>
+      <c r="B538" s="15"/>
       <c r="C538" s="13"/>
       <c r="D538" s="13"/>
       <c r="E538" s="13"/>
@@ -29217,7 +29233,7 @@
     </row>
     <row r="539" spans="1:17" ht="12" customHeight="1">
       <c r="A539" s="13"/>
-      <c r="B539" s="16"/>
+      <c r="B539" s="15"/>
       <c r="C539" s="13"/>
       <c r="D539" s="13"/>
       <c r="E539" s="13"/>
@@ -29236,7 +29252,7 @@
     </row>
     <row r="540" spans="1:17" ht="12" customHeight="1">
       <c r="A540" s="13"/>
-      <c r="B540" s="16"/>
+      <c r="B540" s="15"/>
       <c r="C540" s="13"/>
       <c r="D540" s="13"/>
       <c r="E540" s="13"/>
@@ -29255,7 +29271,7 @@
     </row>
     <row r="541" spans="1:17" ht="12" customHeight="1">
       <c r="A541" s="13"/>
-      <c r="B541" s="16"/>
+      <c r="B541" s="15"/>
       <c r="C541" s="13"/>
       <c r="D541" s="13"/>
       <c r="E541" s="13"/>
@@ -29274,7 +29290,7 @@
     </row>
     <row r="542" spans="1:17" ht="12" customHeight="1">
       <c r="A542" s="13"/>
-      <c r="B542" s="16"/>
+      <c r="B542" s="15"/>
       <c r="C542" s="13"/>
       <c r="D542" s="13"/>
       <c r="E542" s="13"/>
@@ -29293,7 +29309,7 @@
     </row>
     <row r="543" spans="1:17" ht="12" customHeight="1">
       <c r="A543" s="13"/>
-      <c r="B543" s="16"/>
+      <c r="B543" s="15"/>
       <c r="C543" s="13"/>
       <c r="D543" s="13"/>
       <c r="E543" s="13"/>
@@ -29312,7 +29328,7 @@
     </row>
     <row r="544" spans="1:17" ht="12" customHeight="1">
       <c r="A544" s="13"/>
-      <c r="B544" s="16"/>
+      <c r="B544" s="15"/>
       <c r="C544" s="13"/>
       <c r="D544" s="13"/>
       <c r="E544" s="13"/>
@@ -29331,7 +29347,7 @@
     </row>
     <row r="545" spans="1:17" ht="12" customHeight="1">
       <c r="A545" s="13"/>
-      <c r="B545" s="16"/>
+      <c r="B545" s="15"/>
       <c r="C545" s="13"/>
       <c r="D545" s="13"/>
       <c r="E545" s="13"/>
@@ -29350,7 +29366,7 @@
     </row>
     <row r="546" spans="1:17" ht="12" customHeight="1">
       <c r="A546" s="13"/>
-      <c r="B546" s="16"/>
+      <c r="B546" s="15"/>
       <c r="C546" s="13"/>
       <c r="D546" s="13"/>
       <c r="E546" s="13"/>
@@ -29369,7 +29385,7 @@
     </row>
     <row r="547" spans="1:17" ht="12" customHeight="1">
       <c r="A547" s="13"/>
-      <c r="B547" s="16"/>
+      <c r="B547" s="15"/>
       <c r="C547" s="13"/>
       <c r="D547" s="13"/>
       <c r="E547" s="13"/>
@@ -29388,7 +29404,7 @@
     </row>
     <row r="548" spans="1:17" ht="12" customHeight="1">
       <c r="A548" s="13"/>
-      <c r="B548" s="16"/>
+      <c r="B548" s="15"/>
       <c r="C548" s="13"/>
       <c r="D548" s="13"/>
       <c r="E548" s="13"/>
@@ -29407,7 +29423,7 @@
     </row>
     <row r="549" spans="1:17" ht="12" customHeight="1">
       <c r="A549" s="13"/>
-      <c r="B549" s="16"/>
+      <c r="B549" s="15"/>
       <c r="C549" s="13"/>
       <c r="D549" s="13"/>
       <c r="E549" s="13"/>
@@ -29426,7 +29442,7 @@
     </row>
     <row r="550" spans="1:17" ht="12" customHeight="1">
       <c r="A550" s="13"/>
-      <c r="B550" s="16"/>
+      <c r="B550" s="15"/>
       <c r="C550" s="13"/>
       <c r="D550" s="13"/>
       <c r="E550" s="13"/>
@@ -29445,7 +29461,7 @@
     </row>
     <row r="551" spans="1:17" ht="12" customHeight="1">
       <c r="A551" s="13"/>
-      <c r="B551" s="16"/>
+      <c r="B551" s="15"/>
       <c r="C551" s="13"/>
       <c r="D551" s="13"/>
       <c r="E551" s="13"/>
@@ -29464,7 +29480,7 @@
     </row>
     <row r="552" spans="1:17" ht="12" customHeight="1">
       <c r="A552" s="13"/>
-      <c r="B552" s="16"/>
+      <c r="B552" s="15"/>
       <c r="C552" s="13"/>
       <c r="D552" s="13"/>
       <c r="E552" s="13"/>
@@ -29483,7 +29499,7 @@
     </row>
     <row r="553" spans="1:17" ht="12" customHeight="1">
       <c r="A553" s="13"/>
-      <c r="B553" s="16"/>
+      <c r="B553" s="15"/>
       <c r="C553" s="13"/>
       <c r="D553" s="13"/>
       <c r="E553" s="13"/>
@@ -29502,7 +29518,7 @@
     </row>
     <row r="554" spans="1:17" ht="12" customHeight="1">
       <c r="A554" s="13"/>
-      <c r="B554" s="16"/>
+      <c r="B554" s="15"/>
       <c r="C554" s="13"/>
       <c r="D554" s="13"/>
       <c r="E554" s="13"/>
@@ -29521,7 +29537,7 @@
     </row>
     <row r="555" spans="1:17" ht="12" customHeight="1">
       <c r="A555" s="13"/>
-      <c r="B555" s="16"/>
+      <c r="B555" s="15"/>
       <c r="C555" s="13"/>
       <c r="D555" s="13"/>
       <c r="E555" s="13"/>
@@ -29540,7 +29556,7 @@
     </row>
     <row r="556" spans="1:17" ht="12" customHeight="1">
       <c r="A556" s="13"/>
-      <c r="B556" s="16"/>
+      <c r="B556" s="15"/>
       <c r="C556" s="13"/>
       <c r="D556" s="13"/>
       <c r="E556" s="13"/>
@@ -29559,7 +29575,7 @@
     </row>
     <row r="557" spans="1:17" ht="12" customHeight="1">
       <c r="A557" s="13"/>
-      <c r="B557" s="16"/>
+      <c r="B557" s="15"/>
       <c r="C557" s="13"/>
       <c r="D557" s="13"/>
       <c r="E557" s="13"/>
@@ -29578,7 +29594,7 @@
     </row>
     <row r="558" spans="1:17" ht="12" customHeight="1">
       <c r="A558" s="13"/>
-      <c r="B558" s="16"/>
+      <c r="B558" s="15"/>
       <c r="C558" s="13"/>
       <c r="D558" s="13"/>
       <c r="E558" s="13"/>
@@ -29597,7 +29613,7 @@
     </row>
     <row r="559" spans="1:17" ht="12" customHeight="1">
       <c r="A559" s="13"/>
-      <c r="B559" s="16"/>
+      <c r="B559" s="15"/>
       <c r="C559" s="13"/>
       <c r="D559" s="13"/>
       <c r="E559" s="13"/>
@@ -29616,7 +29632,7 @@
     </row>
     <row r="560" spans="1:17" ht="12" customHeight="1">
       <c r="A560" s="13"/>
-      <c r="B560" s="16"/>
+      <c r="B560" s="15"/>
       <c r="C560" s="13"/>
       <c r="D560" s="13"/>
       <c r="E560" s="13"/>
@@ -29635,7 +29651,7 @@
     </row>
     <row r="561" spans="1:17" ht="12" customHeight="1">
       <c r="A561" s="13"/>
-      <c r="B561" s="16"/>
+      <c r="B561" s="15"/>
       <c r="C561" s="13"/>
       <c r="D561" s="13"/>
       <c r="E561" s="13"/>
@@ -29654,7 +29670,7 @@
     </row>
     <row r="562" spans="1:17" ht="12" customHeight="1">
       <c r="A562" s="13"/>
-      <c r="B562" s="16"/>
+      <c r="B562" s="15"/>
       <c r="C562" s="13"/>
       <c r="D562" s="13"/>
       <c r="E562" s="13"/>
@@ -29673,7 +29689,7 @@
     </row>
     <row r="563" spans="1:17" ht="12" customHeight="1">
       <c r="A563" s="13"/>
-      <c r="B563" s="16"/>
+      <c r="B563" s="15"/>
       <c r="C563" s="13"/>
       <c r="D563" s="13"/>
       <c r="E563" s="13"/>
@@ -29692,7 +29708,7 @@
     </row>
     <row r="564" spans="1:17" ht="12" customHeight="1">
       <c r="A564" s="13"/>
-      <c r="B564" s="16"/>
+      <c r="B564" s="15"/>
       <c r="C564" s="13"/>
       <c r="D564" s="13"/>
       <c r="E564" s="13"/>
@@ -29711,7 +29727,7 @@
     </row>
     <row r="565" spans="1:17" ht="12" customHeight="1">
       <c r="A565" s="13"/>
-      <c r="B565" s="16"/>
+      <c r="B565" s="15"/>
       <c r="C565" s="13"/>
       <c r="D565" s="13"/>
       <c r="E565" s="13"/>
@@ -29730,7 +29746,7 @@
     </row>
     <row r="566" spans="1:17" ht="12" customHeight="1">
       <c r="A566" s="13"/>
-      <c r="B566" s="16"/>
+      <c r="B566" s="15"/>
       <c r="C566" s="13"/>
       <c r="D566" s="13"/>
       <c r="E566" s="13"/>
@@ -29749,7 +29765,7 @@
     </row>
     <row r="567" spans="1:17" ht="12" customHeight="1">
       <c r="A567" s="13"/>
-      <c r="B567" s="16"/>
+      <c r="B567" s="15"/>
       <c r="C567" s="13"/>
       <c r="D567" s="13"/>
       <c r="E567" s="13"/>
@@ -29768,7 +29784,7 @@
     </row>
     <row r="568" spans="1:17" ht="12" customHeight="1">
       <c r="A568" s="13"/>
-      <c r="B568" s="16"/>
+      <c r="B568" s="15"/>
       <c r="C568" s="13"/>
       <c r="D568" s="13"/>
       <c r="E568" s="13"/>
@@ -29787,7 +29803,7 @@
     </row>
     <row r="569" spans="1:17" ht="12" customHeight="1">
       <c r="A569" s="13"/>
-      <c r="B569" s="16"/>
+      <c r="B569" s="15"/>
       <c r="C569" s="13"/>
       <c r="D569" s="13"/>
       <c r="E569" s="13"/>
@@ -29806,7 +29822,7 @@
     </row>
     <row r="570" spans="1:17" ht="12" customHeight="1">
       <c r="A570" s="13"/>
-      <c r="B570" s="16"/>
+      <c r="B570" s="15"/>
       <c r="C570" s="13"/>
       <c r="D570" s="13"/>
       <c r="E570" s="13"/>
@@ -29825,7 +29841,7 @@
     </row>
     <row r="571" spans="1:17" ht="12" customHeight="1">
       <c r="A571" s="13"/>
-      <c r="B571" s="16"/>
+      <c r="B571" s="15"/>
       <c r="C571" s="13"/>
       <c r="D571" s="13"/>
       <c r="E571" s="13"/>
@@ -29844,7 +29860,7 @@
     </row>
     <row r="572" spans="1:17" ht="12" customHeight="1">
       <c r="A572" s="13"/>
-      <c r="B572" s="16"/>
+      <c r="B572" s="15"/>
       <c r="C572" s="13"/>
       <c r="D572" s="13"/>
       <c r="E572" s="13"/>
@@ -29863,7 +29879,7 @@
     </row>
     <row r="573" spans="1:17" ht="12" customHeight="1">
       <c r="A573" s="13"/>
-      <c r="B573" s="16"/>
+      <c r="B573" s="15"/>
       <c r="C573" s="13"/>
       <c r="D573" s="13"/>
       <c r="E573" s="13"/>
@@ -29882,7 +29898,7 @@
     </row>
     <row r="574" spans="1:17" ht="12" customHeight="1">
       <c r="A574" s="13"/>
-      <c r="B574" s="16"/>
+      <c r="B574" s="15"/>
       <c r="C574" s="13"/>
       <c r="D574" s="13"/>
       <c r="E574" s="13"/>
@@ -29901,7 +29917,7 @@
     </row>
     <row r="575" spans="1:17" ht="12" customHeight="1">
       <c r="A575" s="13"/>
-      <c r="B575" s="16"/>
+      <c r="B575" s="15"/>
       <c r="C575" s="13"/>
       <c r="D575" s="13"/>
       <c r="E575" s="13"/>
@@ -29920,7 +29936,7 @@
     </row>
     <row r="576" spans="1:17" ht="12" customHeight="1">
       <c r="A576" s="13"/>
-      <c r="B576" s="16"/>
+      <c r="B576" s="15"/>
       <c r="C576" s="13"/>
       <c r="D576" s="13"/>
       <c r="E576" s="13"/>
@@ -29939,7 +29955,7 @@
     </row>
     <row r="577" spans="1:17" ht="12" customHeight="1">
       <c r="A577" s="13"/>
-      <c r="B577" s="16"/>
+      <c r="B577" s="15"/>
       <c r="C577" s="13"/>
       <c r="D577" s="13"/>
       <c r="E577" s="13"/>
@@ -29958,7 +29974,7 @@
     </row>
     <row r="578" spans="1:17" ht="12" customHeight="1">
       <c r="A578" s="13"/>
-      <c r="B578" s="16"/>
+      <c r="B578" s="15"/>
       <c r="C578" s="13"/>
       <c r="D578" s="13"/>
       <c r="E578" s="13"/>
@@ -29977,7 +29993,7 @@
     </row>
     <row r="579" spans="1:17" ht="12" customHeight="1">
       <c r="A579" s="13"/>
-      <c r="B579" s="16"/>
+      <c r="B579" s="15"/>
       <c r="C579" s="13"/>
       <c r="D579" s="13"/>
       <c r="E579" s="13"/>
@@ -29996,7 +30012,7 @@
     </row>
     <row r="580" spans="1:17" ht="12" customHeight="1">
       <c r="A580" s="13"/>
-      <c r="B580" s="16"/>
+      <c r="B580" s="15"/>
       <c r="C580" s="13"/>
       <c r="D580" s="13"/>
       <c r="E580" s="13"/>
@@ -30015,7 +30031,7 @@
     </row>
     <row r="581" spans="1:17" ht="12" customHeight="1">
       <c r="A581" s="13"/>
-      <c r="B581" s="16"/>
+      <c r="B581" s="15"/>
       <c r="C581" s="13"/>
       <c r="D581" s="13"/>
       <c r="E581" s="13"/>
@@ -30034,7 +30050,7 @@
     </row>
     <row r="582" spans="1:17" ht="12" customHeight="1">
       <c r="A582" s="13"/>
-      <c r="B582" s="16"/>
+      <c r="B582" s="15"/>
       <c r="C582" s="13"/>
       <c r="D582" s="13"/>
       <c r="E582" s="13"/>
@@ -30053,7 +30069,7 @@
     </row>
     <row r="583" spans="1:17" ht="12" customHeight="1">
       <c r="A583" s="13"/>
-      <c r="B583" s="16"/>
+      <c r="B583" s="15"/>
       <c r="C583" s="13"/>
       <c r="D583" s="13"/>
       <c r="E583" s="13"/>
@@ -30072,7 +30088,7 @@
     </row>
     <row r="584" spans="1:17" ht="12" customHeight="1">
       <c r="A584" s="13"/>
-      <c r="B584" s="16"/>
+      <c r="B584" s="15"/>
       <c r="C584" s="13"/>
       <c r="D584" s="13"/>
       <c r="E584" s="13"/>
@@ -30091,7 +30107,7 @@
     </row>
     <row r="585" spans="1:17" ht="12" customHeight="1">
       <c r="A585" s="13"/>
-      <c r="B585" s="16"/>
+      <c r="B585" s="15"/>
       <c r="C585" s="13"/>
       <c r="D585" s="13"/>
       <c r="E585" s="13"/>
@@ -30110,7 +30126,7 @@
     </row>
     <row r="586" spans="1:17" ht="12" customHeight="1">
       <c r="A586" s="13"/>
-      <c r="B586" s="16"/>
+      <c r="B586" s="15"/>
       <c r="C586" s="13"/>
       <c r="D586" s="13"/>
       <c r="E586" s="13"/>
@@ -30129,7 +30145,7 @@
     </row>
     <row r="587" spans="1:17" ht="12" customHeight="1">
       <c r="A587" s="13"/>
-      <c r="B587" s="16"/>
+      <c r="B587" s="15"/>
       <c r="C587" s="13"/>
       <c r="D587" s="13"/>
       <c r="E587" s="13"/>
@@ -30148,7 +30164,7 @@
     </row>
     <row r="588" spans="1:17" ht="12" customHeight="1">
       <c r="A588" s="13"/>
-      <c r="B588" s="16"/>
+      <c r="B588" s="15"/>
       <c r="C588" s="13"/>
       <c r="D588" s="13"/>
       <c r="E588" s="13"/>
@@ -30167,7 +30183,7 @@
     </row>
     <row r="589" spans="1:17" ht="12" customHeight="1">
       <c r="A589" s="13"/>
-      <c r="B589" s="16"/>
+      <c r="B589" s="15"/>
       <c r="C589" s="13"/>
       <c r="D589" s="13"/>
       <c r="E589" s="13"/>
@@ -30186,7 +30202,7 @@
     </row>
     <row r="590" spans="1:17" ht="12" customHeight="1">
       <c r="A590" s="13"/>
-      <c r="B590" s="16"/>
+      <c r="B590" s="15"/>
       <c r="C590" s="13"/>
       <c r="D590" s="13"/>
       <c r="E590" s="13"/>
@@ -30205,7 +30221,7 @@
     </row>
     <row r="591" spans="1:17" ht="12" customHeight="1">
       <c r="A591" s="13"/>
-      <c r="B591" s="16"/>
+      <c r="B591" s="15"/>
       <c r="C591" s="13"/>
       <c r="D591" s="13"/>
       <c r="E591" s="13"/>
@@ -30224,7 +30240,7 @@
     </row>
     <row r="592" spans="1:17" ht="12" customHeight="1">
       <c r="A592" s="13"/>
-      <c r="B592" s="16"/>
+      <c r="B592" s="15"/>
       <c r="C592" s="13"/>
       <c r="D592" s="13"/>
       <c r="E592" s="13"/>
@@ -30243,7 +30259,7 @@
     </row>
     <row r="593" spans="1:17" ht="12" customHeight="1">
       <c r="A593" s="13"/>
-      <c r="B593" s="16"/>
+      <c r="B593" s="15"/>
       <c r="C593" s="13"/>
       <c r="D593" s="13"/>
       <c r="E593" s="13"/>
@@ -30262,7 +30278,7 @@
     </row>
     <row r="594" spans="1:17" ht="12" customHeight="1">
       <c r="A594" s="13"/>
-      <c r="B594" s="16"/>
+      <c r="B594" s="15"/>
       <c r="C594" s="13"/>
       <c r="D594" s="13"/>
       <c r="E594" s="13"/>
@@ -30281,7 +30297,7 @@
     </row>
     <row r="595" spans="1:17" ht="12" customHeight="1">
       <c r="A595" s="13"/>
-      <c r="B595" s="16"/>
+      <c r="B595" s="15"/>
       <c r="C595" s="13"/>
       <c r="D595" s="13"/>
       <c r="E595" s="13"/>
@@ -30300,7 +30316,7 @@
     </row>
     <row r="596" spans="1:17" ht="12" customHeight="1">
       <c r="A596" s="13"/>
-      <c r="B596" s="16"/>
+      <c r="B596" s="15"/>
       <c r="C596" s="13"/>
       <c r="D596" s="13"/>
       <c r="E596" s="13"/>
@@ -30319,7 +30335,7 @@
     </row>
     <row r="597" spans="1:17" ht="12" customHeight="1">
       <c r="A597" s="13"/>
-      <c r="B597" s="16"/>
+      <c r="B597" s="15"/>
       <c r="C597" s="13"/>
       <c r="D597" s="13"/>
       <c r="E597" s="13"/>
@@ -30338,7 +30354,7 @@
     </row>
     <row r="598" spans="1:17" ht="12" customHeight="1">
       <c r="A598" s="13"/>
-      <c r="B598" s="16"/>
+      <c r="B598" s="15"/>
       <c r="C598" s="13"/>
       <c r="D598" s="13"/>
       <c r="E598" s="13"/>
@@ -30357,7 +30373,7 @@
     </row>
     <row r="599" spans="1:17" ht="12" customHeight="1">
       <c r="A599" s="13"/>
-      <c r="B599" s="16"/>
+      <c r="B599" s="15"/>
       <c r="C599" s="13"/>
       <c r="D599" s="13"/>
       <c r="E599" s="13"/>
@@ -30376,7 +30392,7 @@
     </row>
     <row r="600" spans="1:17" ht="12" customHeight="1">
       <c r="A600" s="13"/>
-      <c r="B600" s="16"/>
+      <c r="B600" s="15"/>
       <c r="C600" s="13"/>
       <c r="D600" s="13"/>
       <c r="E600" s="13"/>
@@ -30395,7 +30411,7 @@
     </row>
     <row r="601" spans="1:17" ht="12" customHeight="1">
       <c r="A601" s="13"/>
-      <c r="B601" s="16"/>
+      <c r="B601" s="15"/>
       <c r="C601" s="13"/>
       <c r="D601" s="13"/>
       <c r="E601" s="13"/>
@@ -30414,7 +30430,7 @@
     </row>
     <row r="602" spans="1:17" ht="12" customHeight="1">
       <c r="A602" s="13"/>
-      <c r="B602" s="16"/>
+      <c r="B602" s="15"/>
       <c r="C602" s="13"/>
       <c r="D602" s="13"/>
       <c r="E602" s="13"/>
@@ -30433,7 +30449,7 @@
     </row>
     <row r="603" spans="1:17" ht="12" customHeight="1">
       <c r="A603" s="13"/>
-      <c r="B603" s="16"/>
+      <c r="B603" s="15"/>
       <c r="C603" s="13"/>
       <c r="D603" s="13"/>
       <c r="E603" s="13"/>
@@ -30452,7 +30468,7 @@
     </row>
     <row r="604" spans="1:17" ht="12" customHeight="1">
       <c r="A604" s="13"/>
-      <c r="B604" s="16"/>
+      <c r="B604" s="15"/>
       <c r="C604" s="13"/>
       <c r="D604" s="13"/>
       <c r="E604" s="13"/>
@@ -30471,7 +30487,7 @@
     </row>
     <row r="605" spans="1:17" ht="12" customHeight="1">
       <c r="A605" s="13"/>
-      <c r="B605" s="16"/>
+      <c r="B605" s="15"/>
       <c r="C605" s="13"/>
       <c r="D605" s="13"/>
       <c r="E605" s="13"/>
@@ -30490,7 +30506,7 @@
     </row>
     <row r="606" spans="1:17" ht="12" customHeight="1">
       <c r="A606" s="13"/>
-      <c r="B606" s="16"/>
+      <c r="B606" s="15"/>
       <c r="C606" s="13"/>
       <c r="D606" s="13"/>
       <c r="E606" s="13"/>
@@ -30509,7 +30525,7 @@
     </row>
     <row r="607" spans="1:17" ht="12" customHeight="1">
       <c r="A607" s="13"/>
-      <c r="B607" s="16"/>
+      <c r="B607" s="15"/>
       <c r="C607" s="13"/>
       <c r="D607" s="13"/>
       <c r="E607" s="13"/>
@@ -30528,7 +30544,7 @@
     </row>
     <row r="608" spans="1:17" ht="12" customHeight="1">
       <c r="A608" s="13"/>
-      <c r="B608" s="16"/>
+      <c r="B608" s="15"/>
       <c r="C608" s="13"/>
       <c r="D608" s="13"/>
       <c r="E608" s="13"/>
@@ -30547,7 +30563,7 @@
     </row>
     <row r="609" spans="1:17" ht="12" customHeight="1">
       <c r="A609" s="13"/>
-      <c r="B609" s="16"/>
+      <c r="B609" s="15"/>
       <c r="C609" s="13"/>
       <c r="D609" s="13"/>
       <c r="E609" s="13"/>
@@ -30566,7 +30582,7 @@
     </row>
     <row r="610" spans="1:17" ht="12" customHeight="1">
       <c r="A610" s="13"/>
-      <c r="B610" s="16"/>
+      <c r="B610" s="15"/>
       <c r="C610" s="13"/>
       <c r="D610" s="13"/>
       <c r="E610" s="13"/>
@@ -30585,7 +30601,7 @@
     </row>
     <row r="611" spans="1:17" ht="12" customHeight="1">
       <c r="A611" s="13"/>
-      <c r="B611" s="16"/>
+      <c r="B611" s="15"/>
       <c r="C611" s="13"/>
       <c r="D611" s="13"/>
       <c r="E611" s="13"/>
@@ -30604,7 +30620,7 @@
     </row>
     <row r="612" spans="1:17" ht="12" customHeight="1">
       <c r="A612" s="13"/>
-      <c r="B612" s="16"/>
+      <c r="B612" s="15"/>
       <c r="C612" s="13"/>
       <c r="D612" s="13"/>
       <c r="E612" s="13"/>
@@ -30623,7 +30639,7 @@
     </row>
     <row r="613" spans="1:17" ht="12" customHeight="1">
       <c r="A613" s="13"/>
-      <c r="B613" s="16"/>
+      <c r="B613" s="15"/>
       <c r="C613" s="13"/>
       <c r="D613" s="13"/>
       <c r="E613" s="13"/>
@@ -30642,7 +30658,7 @@
     </row>
     <row r="614" spans="1:17" ht="12" customHeight="1">
       <c r="A614" s="13"/>
-      <c r="B614" s="16"/>
+      <c r="B614" s="15"/>
       <c r="C614" s="13"/>
       <c r="D614" s="13"/>
       <c r="E614" s="13"/>
@@ -30661,7 +30677,7 @@
     </row>
     <row r="615" spans="1:17" ht="12" customHeight="1">
       <c r="A615" s="13"/>
-      <c r="B615" s="16"/>
+      <c r="B615" s="15"/>
       <c r="C615" s="13"/>
       <c r="D615" s="13"/>
       <c r="E615" s="13"/>
@@ -30680,7 +30696,7 @@
     </row>
     <row r="616" spans="1:17" ht="12" customHeight="1">
       <c r="A616" s="13"/>
-      <c r="B616" s="16"/>
+      <c r="B616" s="15"/>
       <c r="C616" s="13"/>
       <c r="D616" s="13"/>
       <c r="E616" s="13"/>
@@ -30699,7 +30715,7 @@
     </row>
     <row r="617" spans="1:17" ht="12" customHeight="1">
       <c r="A617" s="13"/>
-      <c r="B617" s="16"/>
+      <c r="B617" s="15"/>
       <c r="C617" s="13"/>
       <c r="D617" s="13"/>
       <c r="E617" s="13"/>
@@ -30718,7 +30734,7 @@
     </row>
     <row r="618" spans="1:17" ht="12" customHeight="1">
       <c r="A618" s="13"/>
-      <c r="B618" s="16"/>
+      <c r="B618" s="15"/>
       <c r="C618" s="13"/>
       <c r="D618" s="13"/>
       <c r="E618" s="13"/>
@@ -30737,7 +30753,7 @@
     </row>
     <row r="619" spans="1:17" ht="12" customHeight="1">
       <c r="A619" s="13"/>
-      <c r="B619" s="16"/>
+      <c r="B619" s="15"/>
       <c r="C619" s="13"/>
       <c r="D619" s="13"/>
       <c r="E619" s="13"/>
@@ -30756,7 +30772,7 @@
     </row>
     <row r="620" spans="1:17" ht="12" customHeight="1">
       <c r="A620" s="13"/>
-      <c r="B620" s="16"/>
+      <c r="B620" s="15"/>
       <c r="C620" s="13"/>
       <c r="D620" s="13"/>
       <c r="E620" s="13"/>
@@ -30775,7 +30791,7 @@
     </row>
     <row r="621" spans="1:17" ht="12" customHeight="1">
       <c r="A621" s="13"/>
-      <c r="B621" s="16"/>
+      <c r="B621" s="15"/>
       <c r="C621" s="13"/>
       <c r="D621" s="13"/>
       <c r="E621" s="13"/>
@@ -30794,7 +30810,7 @@
     </row>
     <row r="622" spans="1:17" ht="12" customHeight="1">
       <c r="A622" s="13"/>
-      <c r="B622" s="16"/>
+      <c r="B622" s="15"/>
       <c r="C622" s="13"/>
       <c r="D622" s="13"/>
       <c r="E622" s="13"/>
@@ -30813,7 +30829,7 @@
     </row>
     <row r="623" spans="1:17" ht="12" customHeight="1">
       <c r="A623" s="13"/>
-      <c r="B623" s="16"/>
+      <c r="B623" s="15"/>
       <c r="C623" s="13"/>
       <c r="D623" s="13"/>
       <c r="E623" s="13"/>
@@ -30832,7 +30848,7 @@
     </row>
     <row r="624" spans="1:17" ht="12" customHeight="1">
       <c r="A624" s="13"/>
-      <c r="B624" s="16"/>
+      <c r="B624" s="15"/>
       <c r="C624" s="13"/>
       <c r="D624" s="13"/>
       <c r="E624" s="13"/>
@@ -30851,7 +30867,7 @@
     </row>
     <row r="625" spans="1:17" ht="12" customHeight="1">
       <c r="A625" s="13"/>
-      <c r="B625" s="16"/>
+      <c r="B625" s="15"/>
       <c r="C625" s="13"/>
       <c r="D625" s="13"/>
       <c r="E625" s="13"/>
@@ -30870,7 +30886,7 @@
     </row>
     <row r="626" spans="1:17" ht="12" customHeight="1">
       <c r="A626" s="13"/>
-      <c r="B626" s="16"/>
+      <c r="B626" s="15"/>
       <c r="C626" s="13"/>
       <c r="D626" s="13"/>
       <c r="E626" s="13"/>
@@ -30889,7 +30905,7 @@
     </row>
     <row r="627" spans="1:17" ht="12" customHeight="1">
       <c r="A627" s="13"/>
-      <c r="B627" s="16"/>
+      <c r="B627" s="15"/>
       <c r="C627" s="13"/>
       <c r="D627" s="13"/>
       <c r="E627" s="13"/>
@@ -30908,7 +30924,7 @@
     </row>
     <row r="628" spans="1:17" ht="12" customHeight="1">
       <c r="A628" s="13"/>
-      <c r="B628" s="16"/>
+      <c r="B628" s="15"/>
       <c r="C628" s="13"/>
       <c r="D628" s="13"/>
       <c r="E628" s="13"/>
@@ -30927,7 +30943,7 @@
     </row>
     <row r="629" spans="1:17" ht="12" customHeight="1">
       <c r="A629" s="13"/>
-      <c r="B629" s="16"/>
+      <c r="B629" s="15"/>
       <c r="C629" s="13"/>
       <c r="D629" s="13"/>
       <c r="E629" s="13"/>
@@ -30946,7 +30962,7 @@
     </row>
     <row r="630" spans="1:17" ht="12" customHeight="1">
       <c r="A630" s="13"/>
-      <c r="B630" s="16"/>
+      <c r="B630" s="15"/>
       <c r="C630" s="13"/>
       <c r="D630" s="13"/>
       <c r="E630" s="13"/>
@@ -30965,7 +30981,7 @@
     </row>
     <row r="631" spans="1:17" ht="12" customHeight="1">
       <c r="A631" s="13"/>
-      <c r="B631" s="16"/>
+      <c r="B631" s="15"/>
       <c r="C631" s="13"/>
       <c r="D631" s="13"/>
       <c r="E631" s="13"/>
@@ -30984,7 +31000,7 @@
     </row>
     <row r="632" spans="1:17" ht="12" customHeight="1">
       <c r="A632" s="13"/>
-      <c r="B632" s="16"/>
+      <c r="B632" s="15"/>
       <c r="C632" s="13"/>
       <c r="D632" s="13"/>
       <c r="E632" s="13"/>
@@ -31003,7 +31019,7 @@
     </row>
     <row r="633" spans="1:17" ht="12" customHeight="1">
       <c r="A633" s="13"/>
-      <c r="B633" s="16"/>
+      <c r="B633" s="15"/>
       <c r="C633" s="13"/>
       <c r="D633" s="13"/>
       <c r="E633" s="13"/>
@@ -31022,7 +31038,7 @@
     </row>
     <row r="634" spans="1:17" ht="12" customHeight="1">
       <c r="A634" s="13"/>
-      <c r="B634" s="16"/>
+      <c r="B634" s="15"/>
       <c r="C634" s="13"/>
       <c r="D634" s="13"/>
       <c r="E634" s="13"/>
@@ -31041,7 +31057,7 @@
     </row>
     <row r="635" spans="1:17" ht="12" customHeight="1">
       <c r="A635" s="13"/>
-      <c r="B635" s="16"/>
+      <c r="B635" s="15"/>
       <c r="C635" s="13"/>
       <c r="D635" s="13"/>
       <c r="E635" s="13"/>
@@ -31060,7 +31076,7 @@
     </row>
     <row r="636" spans="1:17" ht="12" customHeight="1">
       <c r="A636" s="13"/>
-      <c r="B636" s="16"/>
+      <c r="B636" s="15"/>
       <c r="C636" s="13"/>
       <c r="D636" s="13"/>
       <c r="E636" s="13"/>
@@ -31079,7 +31095,7 @@
     </row>
     <row r="637" spans="1:17" ht="12" customHeight="1">
       <c r="A637" s="13"/>
-      <c r="B637" s="16"/>
+      <c r="B637" s="15"/>
       <c r="C637" s="13"/>
       <c r="D637" s="13"/>
       <c r="E637" s="13"/>
@@ -31098,7 +31114,7 @@
     </row>
     <row r="638" spans="1:17" ht="12" customHeight="1">
       <c r="A638" s="13"/>
-      <c r="B638" s="16"/>
+      <c r="B638" s="15"/>
       <c r="C638" s="13"/>
       <c r="D638" s="13"/>
       <c r="E638" s="13"/>
@@ -31117,7 +31133,7 @@
     </row>
     <row r="639" spans="1:17" ht="12" customHeight="1">
       <c r="A639" s="13"/>
-      <c r="B639" s="16"/>
+      <c r="B639" s="15"/>
       <c r="C639" s="13"/>
       <c r="D639" s="13"/>
       <c r="E639" s="13"/>
@@ -31136,7 +31152,7 @@
     </row>
     <row r="640" spans="1:17" ht="12" customHeight="1">
       <c r="A640" s="13"/>
-      <c r="B640" s="16"/>
+      <c r="B640" s="15"/>
       <c r="C640" s="13"/>
       <c r="D640" s="13"/>
       <c r="E640" s="13"/>
@@ -31155,7 +31171,7 @@
     </row>
     <row r="641" spans="1:17" ht="12" customHeight="1">
       <c r="A641" s="13"/>
-      <c r="B641" s="16"/>
+      <c r="B641" s="15"/>
       <c r="C641" s="13"/>
       <c r="D641" s="13"/>
       <c r="E641" s="13"/>
@@ -31174,7 +31190,7 @@
     </row>
     <row r="642" spans="1:17" ht="12" customHeight="1">
       <c r="A642" s="13"/>
-      <c r="B642" s="16"/>
+      <c r="B642" s="15"/>
       <c r="C642" s="13"/>
       <c r="D642" s="13"/>
       <c r="E642" s="13"/>
@@ -31193,7 +31209,7 @@
     </row>
     <row r="643" spans="1:17" ht="12" customHeight="1">
       <c r="A643" s="13"/>
-      <c r="B643" s="16"/>
+      <c r="B643" s="15"/>
       <c r="C643" s="13"/>
       <c r="D643" s="13"/>
       <c r="E643" s="13"/>
@@ -31212,7 +31228,7 @@
     </row>
     <row r="644" spans="1:17" ht="12" customHeight="1">
       <c r="A644" s="13"/>
-      <c r="B644" s="16"/>
+      <c r="B644" s="15"/>
       <c r="C644" s="13"/>
       <c r="D644" s="13"/>
       <c r="E644" s="13"/>
@@ -31231,7 +31247,7 @@
     </row>
     <row r="645" spans="1:17" ht="12" customHeight="1">
       <c r="A645" s="13"/>
-      <c r="B645" s="16"/>
+      <c r="B645" s="15"/>
       <c r="C645" s="13"/>
       <c r="D645" s="13"/>
       <c r="E645" s="13"/>
@@ -31250,7 +31266,7 @@
     </row>
     <row r="646" spans="1:17" ht="12" customHeight="1">
       <c r="A646" s="13"/>
-      <c r="B646" s="16"/>
+      <c r="B646" s="15"/>
       <c r="C646" s="13"/>
       <c r="D646" s="13"/>
       <c r="E646" s="13"/>
@@ -31269,7 +31285,7 @@
     </row>
     <row r="647" spans="1:17" ht="12" customHeight="1">
       <c r="A647" s="13"/>
-      <c r="B647" s="16"/>
+      <c r="B647" s="15"/>
       <c r="C647" s="13"/>
       <c r="D647" s="13"/>
       <c r="E647" s="13"/>
@@ -31288,7 +31304,7 @@
     </row>
     <row r="648" spans="1:17" ht="12" customHeight="1">
       <c r="A648" s="13"/>
-      <c r="B648" s="16"/>
+      <c r="B648" s="15"/>
       <c r="C648" s="13"/>
       <c r="D648" s="13"/>
       <c r="E648" s="13"/>
@@ -31307,7 +31323,7 @@
     </row>
     <row r="649" spans="1:17" ht="12" customHeight="1">
       <c r="A649" s="13"/>
-      <c r="B649" s="16"/>
+      <c r="B649" s="15"/>
       <c r="C649" s="13"/>
       <c r="D649" s="13"/>
       <c r="E649" s="13"/>
@@ -31326,7 +31342,7 @@
     </row>
     <row r="650" spans="1:17" ht="12" customHeight="1">
       <c r="A650" s="13"/>
-      <c r="B650" s="16"/>
+      <c r="B650" s="15"/>
       <c r="C650" s="13"/>
       <c r="D650" s="13"/>
       <c r="E650" s="13"/>
@@ -31345,7 +31361,7 @@
     </row>
     <row r="651" spans="1:17" ht="12" customHeight="1">
       <c r="A651" s="13"/>
-      <c r="B651" s="16"/>
+      <c r="B651" s="15"/>
       <c r="C651" s="13"/>
       <c r="D651" s="13"/>
       <c r="E651" s="13"/>
@@ -31364,7 +31380,7 @@
     </row>
     <row r="652" spans="1:17" ht="12" customHeight="1">
       <c r="A652" s="13"/>
-      <c r="B652" s="16"/>
+      <c r="B652" s="15"/>
       <c r="C652" s="13"/>
       <c r="D652" s="13"/>
       <c r="E652" s="13"/>
@@ -31383,7 +31399,7 @@
     </row>
     <row r="653" spans="1:17" ht="12" customHeight="1">
       <c r="A653" s="13"/>
-      <c r="B653" s="16"/>
+      <c r="B653" s="15"/>
       <c r="C653" s="13"/>
       <c r="D653" s="13"/>
       <c r="E653" s="13"/>
@@ -31402,7 +31418,7 @@
     </row>
     <row r="654" spans="1:17" ht="12" customHeight="1">
       <c r="A654" s="13"/>
-      <c r="B654" s="16"/>
+      <c r="B654" s="15"/>
       <c r="C654" s="13"/>
       <c r="D654" s="13"/>
       <c r="E654" s="13"/>
@@ -31421,7 +31437,7 @@
     </row>
     <row r="655" spans="1:17" ht="12" customHeight="1">
       <c r="A655" s="13"/>
-      <c r="B655" s="16"/>
+      <c r="B655" s="15"/>
       <c r="C655" s="13"/>
       <c r="D655" s="13"/>
       <c r="E655" s="13"/>
@@ -31440,7 +31456,7 @@
     </row>
     <row r="656" spans="1:17" ht="12" customHeight="1">
       <c r="A656" s="13"/>
-      <c r="B656" s="16"/>
+      <c r="B656" s="15"/>
       <c r="C656" s="13"/>
       <c r="D656" s="13"/>
       <c r="E656" s="13"/>
@@ -31459,7 +31475,7 @@
     </row>
     <row r="657" spans="1:17" ht="12" customHeight="1">
       <c r="A657" s="13"/>
-      <c r="B657" s="16"/>
+      <c r="B657" s="15"/>
       <c r="C657" s="13"/>
       <c r="D657" s="13"/>
       <c r="E657" s="13"/>
@@ -31478,7 +31494,7 @@
     </row>
     <row r="658" spans="1:17" ht="12" customHeight="1">
       <c r="A658" s="13"/>
-      <c r="B658" s="16"/>
+      <c r="B658" s="15"/>
       <c r="C658" s="13"/>
       <c r="D658" s="13"/>
       <c r="E658" s="13"/>
@@ -31497,7 +31513,7 @@
     </row>
     <row r="659" spans="1:17" ht="12" customHeight="1">
       <c r="A659" s="13"/>
-      <c r="B659" s="16"/>
+      <c r="B659" s="15"/>
       <c r="C659" s="13"/>
       <c r="D659" s="13"/>
       <c r="E659" s="13"/>
@@ -31516,7 +31532,7 @@
     </row>
     <row r="660" spans="1:17" ht="12" customHeight="1">
       <c r="A660" s="13"/>
-      <c r="B660" s="16"/>
+      <c r="B660" s="15"/>
       <c r="C660" s="13"/>
       <c r="D660" s="13"/>
       <c r="E660" s="13"/>
@@ -31535,7 +31551,7 @@
     </row>
     <row r="661" spans="1:17" ht="12" customHeight="1">
       <c r="A661" s="13"/>
-      <c r="B661" s="16"/>
+      <c r="B661" s="15"/>
       <c r="C661" s="13"/>
       <c r="D661" s="13"/>
       <c r="E661" s="13"/>
@@ -31554,7 +31570,7 @@
     </row>
     <row r="662" spans="1:17" ht="12" customHeight="1">
       <c r="A662" s="13"/>
-      <c r="B662" s="16"/>
+      <c r="B662" s="15"/>
       <c r="C662" s="13"/>
       <c r="D662" s="13"/>
       <c r="E662" s="13"/>
@@ -31573,7 +31589,7 @@
     </row>
     <row r="663" spans="1:17" ht="12" customHeight="1">
       <c r="A663" s="13"/>
-      <c r="B663" s="16"/>
+      <c r="B663" s="15"/>
       <c r="C663" s="13"/>
       <c r="D663" s="13"/>
       <c r="E663" s="13"/>
@@ -31592,7 +31608,7 @@
     </row>
     <row r="664" spans="1:17" ht="12" customHeight="1">
       <c r="A664" s="13"/>
-      <c r="B664" s="16"/>
+      <c r="B664" s="15"/>
       <c r="C664" s="13"/>
       <c r="D664" s="13"/>
       <c r="E664" s="13"/>
@@ -31611,7 +31627,7 @@
     </row>
     <row r="665" spans="1:17" ht="12" customHeight="1">
       <c r="A665" s="13"/>
-      <c r="B665" s="16"/>
+      <c r="B665" s="15"/>
       <c r="C665" s="13"/>
       <c r="D665" s="13"/>
       <c r="E665" s="13"/>
@@ -31630,7 +31646,7 @@
     </row>
     <row r="666" spans="1:17" ht="12" customHeight="1">
       <c r="A666" s="13"/>
-      <c r="B666" s="16"/>
+      <c r="B666" s="15"/>
       <c r="C666" s="13"/>
       <c r="D666" s="13"/>
       <c r="E666" s="13"/>
@@ -31649,7 +31665,7 @@
     </row>
     <row r="667" spans="1:17" ht="12" customHeight="1">
       <c r="A667" s="13"/>
-      <c r="B667" s="16"/>
+      <c r="B667" s="15"/>
       <c r="C667" s="13"/>
       <c r="D667" s="13"/>
       <c r="E667" s="13"/>
@@ -31668,7 +31684,7 @@
     </row>
     <row r="668" spans="1:17" ht="12" customHeight="1">
       <c r="A668" s="13"/>
-      <c r="B668" s="16"/>
+      <c r="B668" s="15"/>
       <c r="C668" s="13"/>
       <c r="D668" s="13"/>
       <c r="E668" s="13"/>
@@ -31687,7 +31703,7 @@
     </row>
     <row r="669" spans="1:17" ht="12" customHeight="1">
       <c r="A669" s="13"/>
-      <c r="B669" s="16"/>
+      <c r="B669" s="15"/>
       <c r="C669" s="13"/>
       <c r="D669" s="13"/>
       <c r="E669" s="13"/>
@@ -31706,7 +31722,7 @@
     </row>
     <row r="670" spans="1:17" ht="12" customHeight="1">
       <c r="A670" s="13"/>
-      <c r="B670" s="16"/>
+      <c r="B670" s="15"/>
       <c r="C670" s="13"/>
       <c r="D670" s="13"/>
       <c r="E670" s="13"/>
@@ -31725,7 +31741,7 @@
     </row>
     <row r="671" spans="1:17" ht="12" customHeight="1">
       <c r="A671" s="13"/>
-      <c r="B671" s="16"/>
+      <c r="B671" s="15"/>
       <c r="C671" s="13"/>
       <c r="D671" s="13"/>
       <c r="E671" s="13"/>
@@ -31744,7 +31760,7 @@
     </row>
     <row r="672" spans="1:17" ht="12" customHeight="1">
       <c r="A672" s="13"/>
-      <c r="B672" s="16"/>
+      <c r="B672" s="15"/>
       <c r="C672" s="13"/>
       <c r="D672" s="13"/>
       <c r="E672" s="13"/>
@@ -31763,7 +31779,7 @@
     </row>
     <row r="673" spans="1:17" ht="12" customHeight="1">
       <c r="A673" s="13"/>
-      <c r="B673" s="16"/>
+      <c r="B673" s="15"/>
       <c r="C673" s="13"/>
       <c r="D673" s="13"/>
       <c r="E673" s="13"/>
@@ -31782,7 +31798,7 @@
     </row>
     <row r="674" spans="1:17" ht="12" customHeight="1">
       <c r="A674" s="13"/>
-      <c r="B674" s="16"/>
+      <c r="B674" s="15"/>
       <c r="C674" s="13"/>
       <c r="D674" s="13"/>
       <c r="E674" s="13"/>
@@ -31801,7 +31817,7 @@
     </row>
     <row r="675" spans="1:17" ht="12" customHeight="1">
       <c r="A675" s="13"/>
-      <c r="B675" s="16"/>
+      <c r="B675" s="15"/>
       <c r="C675" s="13"/>
       <c r="D675" s="13"/>
       <c r="E675" s="13"/>
@@ -31820,7 +31836,7 @@
     </row>
     <row r="676" spans="1:17" ht="12" customHeight="1">
       <c r="A676" s="13"/>
-      <c r="B676" s="16"/>
+      <c r="B676" s="15"/>
       <c r="C676" s="13"/>
       <c r="D676" s="13"/>
       <c r="E676" s="13"/>
@@ -31839,7 +31855,7 @@
     </row>
     <row r="677" spans="1:17" ht="12" customHeight="1">
       <c r="A677" s="13"/>
-      <c r="B677" s="16"/>
+      <c r="B677" s="15"/>
       <c r="C677" s="13"/>
       <c r="D677" s="13"/>
       <c r="E677" s="13"/>
@@ -31858,7 +31874,7 @@
     </row>
     <row r="678" spans="1:17" ht="12" customHeight="1">
       <c r="A678" s="13"/>
-      <c r="B678" s="16"/>
+      <c r="B678" s="15"/>
       <c r="C678" s="13"/>
       <c r="D678" s="13"/>
       <c r="E678" s="13"/>
@@ -31877,7 +31893,7 @@
     </row>
     <row r="679" spans="1:17" ht="12" customHeight="1">
       <c r="A679" s="13"/>
-      <c r="B679" s="16"/>
+      <c r="B679" s="15"/>
       <c r="C679" s="13"/>
       <c r="D679" s="13"/>
       <c r="E679" s="13"/>
@@ -31896,7 +31912,7 @@
     </row>
     <row r="680" spans="1:17" ht="12" customHeight="1">
       <c r="A680" s="13"/>
-      <c r="B680" s="16"/>
+      <c r="B680" s="15"/>
       <c r="C680" s="13"/>
       <c r="D680" s="13"/>
       <c r="E680" s="13"/>
@@ -31915,7 +31931,7 @@
     </row>
     <row r="681" spans="1:17" ht="12" customHeight="1">
       <c r="A681" s="13"/>
-      <c r="B681" s="16"/>
+      <c r="B681" s="15"/>
       <c r="C681" s="13"/>
       <c r="D681" s="13"/>
       <c r="E681" s="13"/>
@@ -31934,7 +31950,7 @@
     </row>
     <row r="682" spans="1:17" ht="12" customHeight="1">
       <c r="A682" s="13"/>
-      <c r="B682" s="16"/>
+      <c r="B682" s="15"/>
       <c r="C682" s="13"/>
       <c r="D682" s="13"/>
       <c r="E682" s="13"/>
@@ -31953,7 +31969,7 @@
     </row>
     <row r="683" spans="1:17" ht="12" customHeight="1">
       <c r="A683" s="13"/>
-      <c r="B683" s="16"/>
+      <c r="B683" s="15"/>
       <c r="C683" s="13"/>
       <c r="D683" s="13"/>
       <c r="E683" s="13"/>
@@ -31972,7 +31988,7 @@
     </row>
     <row r="684" spans="1:17" ht="12" customHeight="1">
       <c r="A684" s="13"/>
-      <c r="B684" s="16"/>
+      <c r="B684" s="15"/>
       <c r="C684" s="13"/>
       <c r="D684" s="13"/>
       <c r="E684" s="13"/>
@@ -31991,7 +32007,7 @@
     </row>
     <row r="685" spans="1:17" ht="12" customHeight="1">
       <c r="A685" s="13"/>
-      <c r="B685" s="16"/>
+      <c r="B685" s="15"/>
       <c r="C685" s="13"/>
       <c r="D685" s="13"/>
       <c r="E685" s="13"/>
@@ -32010,7 +32026,7 @@
     </row>
     <row r="686" spans="1:17" ht="12" customHeight="1">
       <c r="A686" s="13"/>
-      <c r="B686" s="16"/>
+      <c r="B686" s="15"/>
       <c r="C686" s="13"/>
       <c r="D686" s="13"/>
       <c r="E686" s="13"/>
@@ -32029,7 +32045,7 @@
     </row>
     <row r="687" spans="1:17" ht="12" customHeight="1">
       <c r="A687" s="13"/>
-      <c r="B687" s="16"/>
+      <c r="B687" s="15"/>
       <c r="C687" s="13"/>
       <c r="D687" s="13"/>
       <c r="E687" s="13"/>
@@ -32048,7 +32064,7 @@
     </row>
     <row r="688" spans="1:17" ht="12" customHeight="1">
       <c r="A688" s="13"/>
-      <c r="B688" s="16"/>
+      <c r="B688" s="15"/>
       <c r="C688" s="13"/>
       <c r="D688" s="13"/>
       <c r="E688" s="13"/>
@@ -32067,7 +32083,7 @@
     </row>
     <row r="689" spans="1:17" ht="12" customHeight="1">
       <c r="A689" s="13"/>
-      <c r="B689" s="16"/>
+      <c r="B689" s="15"/>
       <c r="C689" s="13"/>
       <c r="D689" s="13"/>
       <c r="E689" s="13"/>
@@ -32086,7 +32102,7 @@
     </row>
     <row r="690" spans="1:17" ht="12" customHeight="1">
       <c r="A690" s="13"/>
-      <c r="B690" s="16"/>
+      <c r="B690" s="15"/>
       <c r="C690" s="13"/>
       <c r="D690" s="13"/>
       <c r="E690" s="13"/>
@@ -32105,7 +32121,7 @@
     </row>
     <row r="691" spans="1:17" ht="12" customHeight="1">
       <c r="A691" s="13"/>
-      <c r="B691" s="16"/>
+      <c r="B691" s="15"/>
       <c r="C691" s="13"/>
       <c r="D691" s="13"/>
       <c r="E691" s="13"/>
@@ -32124,7 +32140,7 @@
     </row>
     <row r="692" spans="1:17" ht="12" customHeight="1">
       <c r="A692" s="13"/>
-      <c r="B692" s="16"/>
+      <c r="B692" s="15"/>
       <c r="C692" s="13"/>
       <c r="D692" s="13"/>
       <c r="E692" s="13"/>
@@ -32143,7 +32159,7 @@
     </row>
     <row r="693" spans="1:17" ht="12" customHeight="1">
       <c r="A693" s="13"/>
-      <c r="B693" s="16"/>
+      <c r="B693" s="15"/>
       <c r="C693" s="13"/>
       <c r="D693" s="13"/>
       <c r="E693" s="13"/>
@@ -32162,7 +32178,7 @@
     </row>
     <row r="694" spans="1:17" ht="12" customHeight="1">
       <c r="A694" s="13"/>
-      <c r="B694" s="16"/>
+      <c r="B694" s="15"/>
       <c r="C694" s="13"/>
       <c r="D694" s="13"/>
       <c r="E694" s="13"/>
@@ -32181,7 +32197,7 @@
     </row>
     <row r="695" spans="1:17" ht="12" customHeight="1">
       <c r="A695" s="13"/>
-      <c r="B695" s="16"/>
+      <c r="B695" s="15"/>
       <c r="C695" s="13"/>
       <c r="D695" s="13"/>
       <c r="E695" s="13"/>
@@ -32200,7 +32216,7 @@
     </row>
     <row r="696" spans="1:17" ht="12" customHeight="1">
       <c r="A696" s="13"/>
-      <c r="B696" s="16"/>
+      <c r="B696" s="15"/>
       <c r="C696" s="13"/>
       <c r="D696" s="13"/>
       <c r="E696" s="13"/>
@@ -32219,7 +32235,7 @@
     </row>
     <row r="697" spans="1:17" ht="12" customHeight="1">
       <c r="A697" s="13"/>
-      <c r="B697" s="16"/>
+      <c r="B697" s="15"/>
       <c r="C697" s="13"/>
       <c r="D697" s="13"/>
       <c r="E697" s="13"/>
@@ -32238,7 +32254,7 @@
     </row>
     <row r="698" spans="1:17" ht="12" customHeight="1">
       <c r="A698" s="13"/>
-      <c r="B698" s="16"/>
+      <c r="B698" s="15"/>
       <c r="C698" s="13"/>
       <c r="D698" s="13"/>
       <c r="E698" s="13"/>
@@ -32257,7 +32273,7 @@
     </row>
     <row r="699" spans="1:17" ht="12" customHeight="1">
       <c r="A699" s="13"/>
-      <c r="B699" s="16"/>
+      <c r="B699" s="15"/>
       <c r="C699" s="13"/>
       <c r="D699" s="13"/>
       <c r="E699" s="13"/>
@@ -32276,7 +32292,7 @@
     </row>
     <row r="700" spans="1:17" ht="12" customHeight="1">
       <c r="A700" s="13"/>
-      <c r="B700" s="16"/>
+      <c r="B700" s="15"/>
       <c r="C700" s="13"/>
       <c r="D700" s="13"/>
       <c r="E700" s="13"/>
@@ -32295,7 +32311,7 @@
     </row>
     <row r="701" spans="1:17" ht="12" customHeight="1">
       <c r="A701" s="13"/>
-      <c r="B701" s="16"/>
+      <c r="B701" s="15"/>
       <c r="C701" s="13"/>
       <c r="D701" s="13"/>
       <c r="E701" s="13"/>
@@ -32314,7 +32330,7 @@
     </row>
     <row r="702" spans="1:17" ht="12" customHeight="1">
       <c r="A702" s="13"/>
-      <c r="B702" s="16"/>
+      <c r="B702" s="15"/>
       <c r="C702" s="13"/>
       <c r="D702" s="13"/>
       <c r="E702" s="13"/>
@@ -32333,7 +32349,7 @@
     </row>
     <row r="703" spans="1:17" ht="12" customHeight="1">
       <c r="A703" s="13"/>
-      <c r="B703" s="16"/>
+      <c r="B703" s="15"/>
       <c r="C703" s="13"/>
       <c r="D703" s="13"/>
       <c r="E703" s="13"/>
@@ -32352,7 +32368,7 @@
     </row>
     <row r="704" spans="1:17" ht="12" customHeight="1">
       <c r="A704" s="13"/>
-      <c r="B704" s="16"/>
+      <c r="B704" s="15"/>
       <c r="C704" s="13"/>
       <c r="D704" s="13"/>
       <c r="E704" s="13"/>
@@ -32371,7 +32387,7 @@
     </row>
     <row r="705" spans="1:17" ht="12" customHeight="1">
       <c r="A705" s="13"/>
-      <c r="B705" s="16"/>
+      <c r="B705" s="15"/>
       <c r="C705" s="13"/>
       <c r="D705" s="13"/>
       <c r="E705" s="13"/>
@@ -32390,7 +32406,7 @@
     </row>
     <row r="706" spans="1:17" ht="12" customHeight="1">
       <c r="A706" s="13"/>
-      <c r="B706" s="16"/>
+      <c r="B706" s="15"/>
       <c r="C706" s="13"/>
       <c r="D706" s="13"/>
       <c r="E706" s="13"/>
@@ -32409,7 +32425,7 @@
     </row>
     <row r="707" spans="1:17" ht="12" customHeight="1">
       <c r="A707" s="13"/>
-      <c r="B707" s="16"/>
+      <c r="B707" s="15"/>
       <c r="C707" s="13"/>
       <c r="D707" s="13"/>
       <c r="E707" s="13"/>
@@ -32428,7 +32444,7 @@
     </row>
     <row r="708" spans="1:17" ht="12" customHeight="1">
       <c r="A708" s="13"/>
-      <c r="B708" s="16"/>
+      <c r="B708" s="15"/>
       <c r="C708" s="13"/>
       <c r="D708" s="13"/>
       <c r="E708" s="13"/>
@@ -32447,7 +32463,7 @@
     </row>
     <row r="709" spans="1:17" ht="12" customHeight="1">
       <c r="A709" s="13"/>
-      <c r="B709" s="16"/>
+      <c r="B709" s="15"/>
       <c r="C709" s="13"/>
       <c r="D709" s="13"/>
       <c r="E709" s="13"/>
@@ -32466,7 +32482,7 @@
     </row>
     <row r="710" spans="1:17" ht="12" customHeight="1">
       <c r="A710" s="13"/>
-      <c r="B710" s="16"/>
+      <c r="B710" s="15"/>
       <c r="C710" s="13"/>
       <c r="D710" s="13"/>
       <c r="E710" s="13"/>
@@ -32485,7 +32501,7 @@
     </row>
     <row r="711" spans="1:17" ht="12" customHeight="1">
       <c r="A711" s="13"/>
-      <c r="B711" s="16"/>
+      <c r="B711" s="15"/>
       <c r="C711" s="13"/>
       <c r="D711" s="13"/>
       <c r="E711" s="13"/>
@@ -32504,7 +32520,7 @@
     </row>
     <row r="712" spans="1:17" ht="12" customHeight="1">
       <c r="A712" s="13"/>
-      <c r="B712" s="16"/>
+      <c r="B712" s="15"/>
       <c r="C712" s="13"/>
       <c r="D712" s="13"/>
       <c r="E712" s="13"/>
@@ -32523,7 +32539,7 @@
     </row>
     <row r="713" spans="1:17" ht="12" customHeight="1">
       <c r="A713" s="13"/>
-      <c r="B713" s="16"/>
+      <c r="B713" s="15"/>
       <c r="C713" s="13"/>
       <c r="D713" s="13"/>
       <c r="E713" s="13"/>
@@ -32542,7 +32558,7 @@
     </row>
     <row r="714" spans="1:17" ht="12" customHeight="1">
       <c r="A714" s="13"/>
-      <c r="B714" s="16"/>
+      <c r="B714" s="15"/>
       <c r="C714" s="13"/>
       <c r="D714" s="13"/>
       <c r="E714" s="13"/>
@@ -32561,7 +32577,7 @@
     </row>
     <row r="715" spans="1:17" ht="12" customHeight="1">
       <c r="A715" s="13"/>
-      <c r="B715" s="16"/>
+      <c r="B715" s="15"/>
       <c r="C715" s="13"/>
       <c r="D715" s="13"/>
       <c r="E715" s="13"/>
@@ -32580,7 +32596,7 @@
     </row>
     <row r="716" spans="1:17" ht="12" customHeight="1">
       <c r="A716" s="13"/>
-      <c r="B716" s="16"/>
+      <c r="B716" s="15"/>
       <c r="C716" s="13"/>
       <c r="D716" s="13"/>
       <c r="E716" s="13"/>
@@ -32599,7 +32615,7 @@
     </row>
     <row r="717" spans="1:17" ht="12" customHeight="1">
       <c r="A717" s="13"/>
-      <c r="B717" s="16"/>
+      <c r="B717" s="15"/>
       <c r="C717" s="13"/>
       <c r="D717" s="13"/>
       <c r="E717" s="13"/>
@@ -32618,7 +32634,7 @@
     </row>
     <row r="718" spans="1:17" ht="12" customHeight="1">
       <c r="A718" s="13"/>
-      <c r="B718" s="16"/>
+      <c r="B718" s="15"/>
       <c r="C718" s="13"/>
       <c r="D718" s="13"/>
       <c r="E718" s="13"/>
@@ -32637,7 +32653,7 @@
     </row>
     <row r="719" spans="1:17" ht="12" customHeight="1">
       <c r="A719" s="13"/>
-      <c r="B719" s="16"/>
+      <c r="B719" s="15"/>
       <c r="C719" s="13"/>
       <c r="D719" s="13"/>
       <c r="E719" s="13"/>
@@ -32656,7 +32672,7 @@
     </row>
     <row r="720" spans="1:17" ht="12" customHeight="1">
       <c r="A720" s="13"/>
-      <c r="B720" s="16"/>
+      <c r="B720" s="15"/>
       <c r="C720" s="13"/>
       <c r="D720" s="13"/>
       <c r="E720" s="13"/>
@@ -32675,7 +32691,7 @@
     </row>
     <row r="721" spans="1:17" ht="12" customHeight="1">
       <c r="A721" s="13"/>
-      <c r="B721" s="16"/>
+      <c r="B721" s="15"/>
       <c r="C721" s="13"/>
       <c r="D721" s="13"/>
       <c r="E721" s="13"/>
@@ -32694,7 +32710,7 @@
     </row>
     <row r="722" spans="1:17" ht="12" customHeight="1">
       <c r="A722" s="13"/>
-      <c r="B722" s="16"/>
+      <c r="B722" s="15"/>
       <c r="C722" s="13"/>
       <c r="D722" s="13"/>
       <c r="E722" s="13"/>
@@ -32713,7 +32729,7 @@
     </row>
     <row r="723" spans="1:17" ht="12" customHeight="1">
       <c r="A723" s="13"/>
-      <c r="B723" s="16"/>
+      <c r="B723" s="15"/>
       <c r="C723" s="13"/>
       <c r="D723" s="13"/>
       <c r="E723" s="13"/>
@@ -32732,7 +32748,7 @@
     </row>
     <row r="724" spans="1:17" ht="12" customHeight="1">
       <c r="A724" s="13"/>
-      <c r="B724" s="16"/>
+      <c r="B724" s="15"/>
       <c r="C724" s="13"/>
       <c r="D724" s="13"/>
       <c r="E724" s="13"/>
@@ -32751,7 +32767,7 @@
     </row>
     <row r="725" spans="1:17" ht="12" customHeight="1">
       <c r="A725" s="13"/>
-      <c r="B725" s="16"/>
+      <c r="B725" s="15"/>
       <c r="C725" s="13"/>
       <c r="D725" s="13"/>
       <c r="E725" s="13"/>
@@ -32770,7 +32786,7 @@
     </row>
     <row r="726" spans="1:17" ht="12" customHeight="1">
       <c r="A726" s="13"/>
-      <c r="B726" s="16"/>
+      <c r="B726" s="15"/>
       <c r="C726" s="13"/>
       <c r="D726" s="13"/>
       <c r="E726" s="13"/>
@@ -32789,7 +32805,7 @@
     </row>
     <row r="727" spans="1:17" ht="12" customHeight="1">
       <c r="A727" s="13"/>
-      <c r="B727" s="16"/>
+      <c r="B727" s="15"/>
       <c r="C727" s="13"/>
       <c r="D727" s="13"/>
       <c r="E727" s="13"/>
@@ -32808,7 +32824,7 @@
     </row>
     <row r="728" spans="1:17" ht="12" customHeight="1">
       <c r="A728" s="13"/>
-      <c r="B728" s="16"/>
+      <c r="B728" s="15"/>
       <c r="C728" s="13"/>
       <c r="D728" s="13"/>
       <c r="E728" s="13"/>
@@ -32827,7 +32843,7 @@
     </row>
     <row r="729" spans="1:17" ht="12" customHeight="1">
       <c r="A729" s="13"/>
-      <c r="B729" s="16"/>
+      <c r="B729" s="15"/>
       <c r="C729" s="13"/>
       <c r="D729" s="13"/>
       <c r="E729" s="13"/>
@@ -32846,7 +32862,7 @@
     </row>
     <row r="730" spans="1:17" ht="12" customHeight="1">
       <c r="A730" s="13"/>
-      <c r="B730" s="16"/>
+      <c r="B730" s="15"/>
       <c r="C730" s="13"/>
       <c r="D730" s="13"/>
       <c r="E730" s="13"/>
@@ -32865,7 +32881,7 @@
     </row>
     <row r="731" spans="1:17" ht="12" customHeight="1">
       <c r="A731" s="13"/>
-      <c r="B731" s="16"/>
+      <c r="B731" s="15"/>
       <c r="C731" s="13"/>
       <c r="D731" s="13"/>
       <c r="E731" s="13"/>
@@ -32884,7 +32900,7 @@
     </row>
     <row r="732" spans="1:17" ht="12" customHeight="1">
       <c r="A732" s="13"/>
-      <c r="B732" s="16"/>
+      <c r="B732" s="15"/>
       <c r="C732" s="13"/>
       <c r="D732" s="13"/>
       <c r="E732" s="13"/>
@@ -32903,7 +32919,7 @@
     </row>
     <row r="733" spans="1:17" ht="12" customHeight="1">
       <c r="A733" s="13"/>
-      <c r="B733" s="16"/>
+      <c r="B733" s="15"/>
       <c r="C733" s="13"/>
       <c r="D733" s="13"/>
       <c r="E733" s="13"/>
@@ -32922,7 +32938,7 @@
     </row>
     <row r="734" spans="1:17" ht="12" customHeight="1">
       <c r="A734" s="13"/>
-      <c r="B734" s="16"/>
+      <c r="B734" s="15"/>
       <c r="C734" s="13"/>
       <c r="D734" s="13"/>
       <c r="E734" s="13"/>
@@ -32941,7 +32957,7 @@
     </row>
     <row r="735" spans="1:17" ht="12" customHeight="1">
       <c r="A735" s="13"/>
-      <c r="B735" s="16"/>
+      <c r="B735" s="15"/>
       <c r="C735" s="13"/>
       <c r="D735" s="13"/>
       <c r="E735" s="13"/>
@@ -32960,7 +32976,7 @@
     </row>
     <row r="736" spans="1:17" ht="12" customHeight="1">
       <c r="A736" s="13"/>
-      <c r="B736" s="16"/>
+      <c r="B736" s="15"/>
       <c r="C736" s="13"/>
       <c r="D736" s="13"/>
       <c r="E736" s="13"/>
@@ -32979,7 +32995,7 @@
     </row>
     <row r="737" spans="1:17" ht="12" customHeight="1">
       <c r="A737" s="13"/>
-      <c r="B737" s="16"/>
+      <c r="B737" s="15"/>
       <c r="C737" s="13"/>
       <c r="D737" s="13"/>
       <c r="E737" s="13"/>
@@ -32998,7 +33014,7 @@
     </row>
     <row r="738" spans="1:17" ht="12" customHeight="1">
       <c r="A738" s="13"/>
-      <c r="B738" s="16"/>
+      <c r="B738" s="15"/>
       <c r="C738" s="13"/>
       <c r="D738" s="13"/>
       <c r="E738" s="13"/>
@@ -33017,7 +33033,7 @@
     </row>
     <row r="739" spans="1:17" ht="12" customHeight="1">
       <c r="A739" s="13"/>
-      <c r="B739" s="16"/>
+      <c r="B739" s="15"/>
       <c r="C739" s="13"/>
       <c r="D739" s="13"/>
       <c r="E739" s="13"/>
@@ -33036,7 +33052,7 @@
     </row>
     <row r="740" spans="1:17" ht="12" customHeight="1">
       <c r="A740" s="13"/>
-      <c r="B740" s="16"/>
+      <c r="B740" s="15"/>
       <c r="C740" s="13"/>
       <c r="D740" s="13"/>
       <c r="E740" s="13"/>
@@ -33055,7 +33071,7 @@
     </row>
     <row r="741" spans="1:17" ht="12" customHeight="1">
       <c r="A741" s="13"/>
-      <c r="B741" s="16"/>
+      <c r="B741" s="15"/>
       <c r="C741" s="13"/>
       <c r="D741" s="13"/>
       <c r="E741" s="13"/>
@@ -33074,7 +33090,7 @@
     </row>
     <row r="742" spans="1:17" ht="12" customHeight="1">
       <c r="A742" s="13"/>
-      <c r="B742" s="16"/>
+      <c r="B742" s="15"/>
       <c r="C742" s="13"/>
       <c r="D742" s="13"/>
       <c r="E742" s="13"/>
@@ -33093,7 +33109,7 @@
     </row>
     <row r="743" spans="1:17" ht="12" customHeight="1">
       <c r="A743" s="13"/>
-      <c r="B743" s="16"/>
+      <c r="B743" s="15"/>
       <c r="C743" s="13"/>
       <c r="D743" s="13"/>
       <c r="E743" s="13"/>
@@ -33112,7 +33128,7 @@
     </row>
     <row r="744" spans="1:17" ht="12" customHeight="1">
       <c r="A744" s="13"/>
-      <c r="B744" s="16"/>
+      <c r="B744" s="15"/>
       <c r="C744" s="13"/>
       <c r="D744" s="13"/>
       <c r="E744" s="13"/>
@@ -33131,7 +33147,7 @@
     </row>
     <row r="745" spans="1:17" ht="12" customHeight="1">
       <c r="A745" s="13"/>
-      <c r="B745" s="16"/>
+      <c r="B745" s="15"/>
       <c r="C745" s="13"/>
       <c r="D745" s="13"/>
       <c r="E745" s="13"/>
@@ -33150,7 +33166,7 @@
     </row>
     <row r="746" spans="1:17" ht="12" customHeight="1">
       <c r="A746" s="13"/>
-      <c r="B746" s="16"/>
+      <c r="B746" s="15"/>
       <c r="C746" s="13"/>
       <c r="D746" s="13"/>
       <c r="E746" s="13"/>
@@ -33169,7 +33185,7 @@
     </row>
     <row r="747" spans="1:17" ht="12" customHeight="1">
       <c r="A747" s="13"/>
-      <c r="B747" s="16"/>
+      <c r="B747" s="15"/>
       <c r="C747" s="13"/>
       <c r="D747" s="13"/>
       <c r="E747" s="13"/>
@@ -33188,7 +33204,7 @@
     </row>
     <row r="748" spans="1:17" ht="12" customHeight="1">
       <c r="A748" s="13"/>
-      <c r="B748" s="16"/>
+      <c r="B748" s="15"/>
       <c r="C748" s="13"/>
       <c r="D748" s="13"/>
       <c r="E748" s="13"/>
@@ -33207,7 +33223,7 @@
     </row>
     <row r="749" spans="1:17" ht="12" customHeight="1">
       <c r="A749" s="13"/>
-      <c r="B749" s="16"/>
+      <c r="B749" s="15"/>
       <c r="C749" s="13"/>
       <c r="D749" s="13"/>
       <c r="E749" s="13"/>
@@ -33226,7 +33242,7 @@
     </row>
     <row r="750" spans="1:17" ht="12" customHeight="1">
       <c r="A750" s="13"/>
-      <c r="B750" s="16"/>
+      <c r="B750" s="15"/>
       <c r="C750" s="13"/>
       <c r="D750" s="13"/>
       <c r="E750" s="13"/>
@@ -33245,7 +33261,7 @@
     </row>
     <row r="751" spans="1:17" ht="12" customHeight="1">
       <c r="A751" s="13"/>
-      <c r="B751" s="16"/>
+      <c r="B751" s="15"/>
       <c r="C751" s="13"/>
       <c r="D751" s="13"/>
       <c r="E751" s="13"/>
@@ -33264,7 +33280,7 @@
     </row>
     <row r="752" spans="1:17" ht="12" customHeight="1">
       <c r="A752" s="13"/>
-      <c r="B752" s="16"/>
+      <c r="B752" s="15"/>
       <c r="C752" s="13"/>
       <c r="D752" s="13"/>
       <c r="E752" s="13"/>
@@ -33283,7 +33299,7 @@
     </row>
     <row r="753" spans="1:17" ht="12" customHeight="1">
       <c r="A753" s="13"/>
-      <c r="B753" s="16"/>
+      <c r="B753" s="15"/>
       <c r="C753" s="13"/>
       <c r="D753" s="13"/>
       <c r="E753" s="13"/>
@@ -33302,7 +33318,7 @@
     </row>
     <row r="754" spans="1:17" ht="12" customHeight="1">
       <c r="A754" s="13"/>
-      <c r="B754" s="16"/>
+      <c r="B754" s="15"/>
       <c r="C754" s="13"/>
       <c r="D754" s="13"/>
       <c r="E754" s="13"/>
@@ -33321,7 +33337,7 @@
     </row>
     <row r="755" spans="1:17" ht="12" customHeight="1">
       <c r="A755" s="13"/>
-      <c r="B755" s="16"/>
+      <c r="B755" s="15"/>
       <c r="C755" s="13"/>
       <c r="D755" s="13"/>
       <c r="E755" s="13"/>
@@ -33340,7 +33356,7 @@
     </row>
     <row r="756" spans="1:17" ht="12" customHeight="1">
       <c r="A756" s="13"/>
-      <c r="B756" s="16"/>
+      <c r="B756" s="15"/>
       <c r="C756" s="13"/>
       <c r="D756" s="13"/>
       <c r="E756" s="13"/>
@@ -33359,7 +33375,7 @@
     </row>
     <row r="757" spans="1:17" ht="12" customHeight="1">
       <c r="A757" s="13"/>
-      <c r="B757" s="16"/>
+      <c r="B757" s="15"/>
       <c r="C757" s="13"/>
       <c r="D757" s="13"/>
       <c r="E757" s="13"/>
@@ -33378,7 +33394,7 @@
     </row>
     <row r="758" spans="1:17" ht="12" customHeight="1">
       <c r="A758" s="13"/>
-      <c r="B758" s="16"/>
+      <c r="B758" s="15"/>
       <c r="C758" s="13"/>
       <c r="D758" s="13"/>
       <c r="E758" s="13"/>
@@ -33397,7 +33413,7 @@
     </row>
     <row r="759" spans="1:17" ht="12" customHeight="1">
       <c r="A759" s="13"/>
-      <c r="B759" s="16"/>
+      <c r="B759" s="15"/>
       <c r="C759" s="13"/>
       <c r="D759" s="13"/>
       <c r="E759" s="13"/>
@@ -33416,7 +33432,7 @@
     </row>
     <row r="760" spans="1:17" ht="12" customHeight="1">
       <c r="A760" s="13"/>
-      <c r="B760" s="16"/>
+      <c r="B760" s="15"/>
       <c r="C760" s="13"/>
       <c r="D760" s="13"/>
       <c r="E760" s="13"/>
@@ -33435,7 +33451,7 @@
     </row>
     <row r="761" spans="1:17" ht="12" customHeight="1">
       <c r="A761" s="13"/>
-      <c r="B761" s="16"/>
+      <c r="B761" s="15"/>
       <c r="C761" s="13"/>
       <c r="D761" s="13"/>
       <c r="E761" s="13"/>
@@ -33454,7 +33470,7 @@
     </row>
     <row r="762" spans="1:17" ht="12" customHeight="1">
       <c r="A762" s="13"/>
-      <c r="B762" s="16"/>
+      <c r="B762" s="15"/>
       <c r="C762" s="13"/>
       <c r="D762" s="13"/>
       <c r="E762" s="13"/>
@@ -33473,7 +33489,7 @@
     </row>
     <row r="763" spans="1:17" ht="12" customHeight="1">
       <c r="A763" s="13"/>
-      <c r="B763" s="16"/>
+      <c r="B763" s="15"/>
       <c r="C763" s="13"/>
       <c r="D763" s="13"/>
       <c r="E763" s="13"/>
@@ -33492,7 +33508,7 @@
     </row>
     <row r="764" spans="1:17" ht="12" customHeight="1">
       <c r="A764" s="13"/>
-      <c r="B764" s="16"/>
+      <c r="B764" s="15"/>
       <c r="C764" s="13"/>
       <c r="D764" s="13"/>
       <c r="E764" s="13"/>
@@ -33511,7 +33527,7 @@
     </row>
     <row r="765" spans="1:17" ht="12" customHeight="1">
       <c r="A765" s="13"/>
-      <c r="B765" s="16"/>
+      <c r="B765" s="15"/>
       <c r="C765" s="13"/>
       <c r="D765" s="13"/>
       <c r="E765" s="13"/>
@@ -33530,7 +33546,7 @@
     </row>
     <row r="766" spans="1:17" ht="12" customHeight="1">
       <c r="A766" s="13"/>
-      <c r="B766" s="16"/>
+      <c r="B766" s="15"/>
       <c r="C766" s="13"/>
       <c r="D766" s="13"/>
       <c r="E766" s="13"/>
@@ -33549,7 +33565,7 @@
     </row>
     <row r="767" spans="1:17" ht="12" customHeight="1">
       <c r="A767" s="13"/>
-      <c r="B767" s="16"/>
+      <c r="B767" s="15"/>
       <c r="C767" s="13"/>
       <c r="D767" s="13"/>
       <c r="E767" s="13"/>
@@ -33568,7 +33584,7 @@
     </row>
     <row r="768" spans="1:17" ht="12" customHeight="1">
       <c r="A768" s="13"/>
-      <c r="B768" s="16"/>
+      <c r="B768" s="15"/>
       <c r="C768" s="13"/>
       <c r="D768" s="13"/>
       <c r="E768" s="13"/>
@@ -33587,7 +33603,7 @@
     </row>
     <row r="769" spans="1:17" ht="12" customHeight="1">
       <c r="A769" s="13"/>
-      <c r="B769" s="16"/>
+      <c r="B769" s="15"/>
       <c r="C769" s="13"/>
       <c r="D769" s="13"/>
       <c r="E769" s="13"/>
@@ -33606,7 +33622,7 @@
     </row>
     <row r="770" spans="1:17" ht="12" customHeight="1">
       <c r="A770" s="13"/>
-      <c r="B770" s="16"/>
+      <c r="B770" s="15"/>
       <c r="C770" s="13"/>
       <c r="D770" s="13"/>
       <c r="E770" s="13"/>
@@ -33625,7 +33641,7 @@
     </row>
     <row r="771" spans="1:17" ht="12" customHeight="1">
       <c r="A771" s="13"/>
-      <c r="B771" s="16"/>
+      <c r="B771" s="15"/>
       <c r="C771" s="13"/>
       <c r="D771" s="13"/>
       <c r="E771" s="13"/>
@@ -33644,7 +33660,7 @@
     </row>
     <row r="772" spans="1:17" ht="12" customHeight="1">
       <c r="A772" s="13"/>
-      <c r="B772" s="16"/>
+      <c r="B772" s="15"/>
       <c r="C772" s="13"/>
       <c r="D772" s="13"/>
       <c r="E772" s="13"/>
@@ -33663,7 +33679,7 @@
     </row>
     <row r="773" spans="1:17" ht="12" customHeight="1">
       <c r="A773" s="13"/>
-      <c r="B773" s="16"/>
+      <c r="B773" s="15"/>
       <c r="C773" s="13"/>
       <c r="D773" s="13"/>
       <c r="E773" s="13"/>
@@ -33682,7 +33698,7 @@
     </row>
     <row r="774" spans="1:17" ht="12" customHeight="1">
       <c r="A774" s="13"/>
-      <c r="B774" s="16"/>
+      <c r="B774" s="15"/>
       <c r="C774" s="13"/>
       <c r="D774" s="13"/>
       <c r="E774" s="13"/>
@@ -33701,7 +33717,7 @@
     </row>
     <row r="775" spans="1:17" ht="12" customHeight="1">
       <c r="A775" s="13"/>
-      <c r="B775" s="16"/>
+      <c r="B775" s="15"/>
       <c r="C775" s="13"/>
       <c r="D775" s="13"/>
       <c r="E775" s="13"/>
@@ -33720,7 +33736,7 @@
     </row>
     <row r="776" spans="1:17" ht="12" customHeight="1">
       <c r="A776" s="13"/>
-      <c r="B776" s="16"/>
+      <c r="B776" s="15"/>
       <c r="C776" s="13"/>
       <c r="D776" s="13"/>
       <c r="E776" s="13"/>
@@ -33739,7 +33755,7 @@
     </row>
     <row r="777" spans="1:17" ht="12" customHeight="1">
       <c r="A777" s="13"/>
-      <c r="B777" s="16"/>
+      <c r="B777" s="15"/>
       <c r="C777" s="13"/>
       <c r="D777" s="13"/>
       <c r="E777" s="13"/>
@@ -33758,7 +33774,7 @@
     </row>
     <row r="778" spans="1:17" ht="12" customHeight="1">
       <c r="A778" s="13"/>
-      <c r="B778" s="16"/>
+      <c r="B778" s="15"/>
       <c r="C778" s="13"/>
       <c r="D778" s="13"/>
       <c r="E778" s="13"/>
@@ -33777,7 +33793,7 @@
     </row>
     <row r="779" spans="1:17" ht="12" customHeight="1">
       <c r="A779" s="13"/>
-      <c r="B779" s="16"/>
+      <c r="B779" s="15"/>
       <c r="C779" s="13"/>
       <c r="D779" s="13"/>
       <c r="E779" s="13"/>
@@ -33796,7 +33812,7 @@
     </row>
     <row r="780" spans="1:17" ht="12" customHeight="1">
       <c r="A780" s="13"/>
-      <c r="B780" s="16"/>
+      <c r="B780" s="15"/>
       <c r="C780" s="13"/>
       <c r="D780" s="13"/>
       <c r="E780" s="13"/>
@@ -33815,7 +33831,7 @@
     </row>
     <row r="781" spans="1:17" ht="12" customHeight="1">
       <c r="A781" s="13"/>
-      <c r="B781" s="16"/>
+      <c r="B781" s="15"/>
       <c r="C781" s="13"/>
       <c r="D781" s="13"/>
       <c r="E781" s="13"/>
@@ -33834,7 +33850,7 @@
     </row>
     <row r="782" spans="1:17" ht="12" customHeight="1">
       <c r="A782" s="13"/>
-      <c r="B782" s="16"/>
+      <c r="B782" s="15"/>
       <c r="C782" s="13"/>
       <c r="D782" s="13"/>
       <c r="E782" s="13"/>
@@ -33853,7 +33869,7 @@
     </row>
     <row r="783" spans="1:17" ht="12" customHeight="1">
       <c r="A783" s="13"/>
-      <c r="B783" s="16"/>
+      <c r="B783" s="15"/>
       <c r="C783" s="13"/>
       <c r="D783" s="13"/>
       <c r="E783" s="13"/>
@@ -33872,7 +33888,7 @@
     </row>
     <row r="784" spans="1:17" ht="12" customHeight="1">
       <c r="A784" s="13"/>
-      <c r="B784" s="16"/>
+      <c r="B784" s="15"/>
       <c r="C784" s="13"/>
       <c r="D784" s="13"/>
       <c r="E784" s="13"/>
@@ -33891,7 +33907,7 @@
     </row>
     <row r="785" spans="1:17" ht="12" customHeight="1">
       <c r="A785" s="13"/>
-      <c r="B785" s="16"/>
+      <c r="B785" s="15"/>
       <c r="C785" s="13"/>
       <c r="D785" s="13"/>
       <c r="E785" s="13"/>
@@ -33910,7 +33926,7 @@
     </row>
     <row r="786" spans="1:17" ht="12" customHeight="1">
       <c r="A786" s="13"/>
-      <c r="B786" s="16"/>
+      <c r="B786" s="15"/>
       <c r="C786" s="13"/>
       <c r="D786" s="13"/>
       <c r="E786" s="13"/>
@@ -33929,7 +33945,7 @@
     </row>
     <row r="787" spans="1:17" ht="12" customHeight="1">
       <c r="A787" s="13"/>
-      <c r="B787" s="16"/>
+      <c r="B787" s="15"/>
       <c r="C787" s="13"/>
       <c r="D787" s="13"/>
       <c r="E787" s="13"/>
@@ -33948,7 +33964,7 @@
     </row>
     <row r="788" spans="1:17" ht="12" customHeight="1">
       <c r="A788" s="13"/>
-      <c r="B788" s="16"/>
+      <c r="B788" s="15"/>
       <c r="C788" s="13"/>
       <c r="D788" s="13"/>
       <c r="E788" s="13"/>
@@ -33967,7 +33983,7 @@
     </row>
     <row r="789" spans="1:17" ht="12" customHeight="1">
       <c r="A789" s="13"/>
-      <c r="B789" s="16"/>
+      <c r="B789" s="15"/>
       <c r="C789" s="13"/>
       <c r="D789" s="13"/>
       <c r="E789" s="13"/>
@@ -33986,7 +34002,7 @@
     </row>
     <row r="790" spans="1:17" ht="12" customHeight="1">
       <c r="A790" s="13"/>
-      <c r="B790" s="16"/>
+      <c r="B790" s="15"/>
       <c r="C790" s="13"/>
       <c r="D790" s="13"/>
       <c r="E790" s="13"/>
@@ -34005,7 +34021,7 @@
     </row>
     <row r="791" spans="1:17" ht="12" customHeight="1">
       <c r="A791" s="13"/>
-      <c r="B791" s="16"/>
+      <c r="B791" s="15"/>
       <c r="C791" s="13"/>
       <c r="D791" s="13"/>
       <c r="E791" s="13"/>
@@ -34024,7 +34040,7 @@
     </row>
     <row r="792" spans="1:17" ht="12" customHeight="1">
       <c r="A792" s="13"/>
-      <c r="B792" s="16"/>
+      <c r="B792" s="15"/>
       <c r="C792" s="13"/>
       <c r="D792" s="13"/>
       <c r="E792" s="13"/>
@@ -34043,7 +34059,7 @@
     </row>
     <row r="793" spans="1:17" ht="12" customHeight="1">
       <c r="A793" s="13"/>
-      <c r="B793" s="16"/>
+      <c r="B793" s="15"/>
       <c r="C793" s="13"/>
       <c r="D793" s="13"/>
       <c r="E793" s="13"/>
@@ -34062,7 +34078,7 @@
     </row>
     <row r="794" spans="1:17" ht="12" customHeight="1">
       <c r="A794" s="13"/>
-      <c r="B794" s="16"/>
+      <c r="B794" s="15"/>
       <c r="C794" s="13"/>
       <c r="D794" s="13"/>
       <c r="E794" s="13"/>
@@ -34081,7 +34097,7 @@
     </row>
     <row r="795" spans="1:17" ht="12" customHeight="1">
       <c r="A795" s="13"/>
-      <c r="B795" s="16"/>
+      <c r="B795" s="15"/>
       <c r="C795" s="13"/>
       <c r="D795" s="13"/>
       <c r="E795" s="13"/>
@@ -34100,7 +34116,7 @@
     </row>
     <row r="796" spans="1:17" ht="12" customHeight="1">
       <c r="A796" s="13"/>
-      <c r="B796" s="16"/>
+      <c r="B796" s="15"/>
       <c r="C796" s="13"/>
       <c r="D796" s="13"/>
       <c r="E796" s="13"/>
@@ -34119,7 +34135,7 @@
     </row>
     <row r="797" spans="1:17" ht="12" customHeight="1">
       <c r="A797" s="13"/>
-      <c r="B797" s="16"/>
+      <c r="B797" s="15"/>
       <c r="C797" s="13"/>
       <c r="D797" s="13"/>
       <c r="E797" s="13"/>
@@ -34138,7 +34154,7 @@
     </row>
     <row r="798" spans="1:17" ht="12" customHeight="1">
       <c r="A798" s="13"/>
-      <c r="B798" s="16"/>
+      <c r="B798" s="15"/>
       <c r="C798" s="13"/>
       <c r="D798" s="13"/>
       <c r="E798" s="13"/>
@@ -34157,7 +34173,7 @@
     </row>
     <row r="799" spans="1:17" ht="12" customHeight="1">
       <c r="A799" s="13"/>
-      <c r="B799" s="16"/>
+      <c r="B799" s="15"/>
       <c r="C799" s="13"/>
       <c r="D799" s="13"/>
       <c r="E799" s="13"/>
@@ -34176,7 +34192,7 @@
     </row>
     <row r="800" spans="1:17" ht="12" customHeight="1">
       <c r="A800" s="13"/>
-      <c r="B800" s="16"/>
+      <c r="B800" s="15"/>
       <c r="C800" s="13"/>
       <c r="D800" s="13"/>
       <c r="E800" s="13"/>
@@ -34195,7 +34211,7 @@
     </row>
     <row r="801" spans="1:17" ht="12" customHeight="1">
       <c r="A801" s="13"/>
-      <c r="B801" s="16"/>
+      <c r="B801" s="15"/>
       <c r="C801" s="13"/>
       <c r="D801" s="13"/>
       <c r="E801" s="13"/>
@@ -34214,7 +34230,7 @@
     </row>
     <row r="802" spans="1:17" ht="12" customHeight="1">
       <c r="A802" s="13"/>
-      <c r="B802" s="16"/>
+      <c r="B802" s="15"/>
       <c r="C802" s="13"/>
       <c r="D802" s="13"/>
       <c r="E802" s="13"/>
@@ -34233,7 +34249,7 @@
     </row>
     <row r="803" spans="1:17" ht="12" customHeight="1">
       <c r="A803" s="13"/>
-      <c r="B803" s="16"/>
+      <c r="B803" s="15"/>
       <c r="C803" s="13"/>
       <c r="D803" s="13"/>
       <c r="E803" s="13"/>
@@ -34252,7 +34268,7 @@
     </row>
     <row r="804" spans="1:17" ht="12" customHeight="1">
       <c r="A804" s="13"/>
-      <c r="B804" s="16"/>
+      <c r="B804" s="15"/>
       <c r="C804" s="13"/>
       <c r="D804" s="13"/>
       <c r="E804" s="13"/>
@@ -34271,7 +34287,7 @@
     </row>
     <row r="805" spans="1:17" ht="12" customHeight="1">
       <c r="A805" s="13"/>
-      <c r="B805" s="16"/>
+      <c r="B805" s="15"/>
       <c r="C805" s="13"/>
       <c r="D805" s="13"/>
       <c r="E805" s="13"/>
@@ -34290,7 +34306,7 @@
     </row>
     <row r="806" spans="1:17" ht="12" customHeight="1">
       <c r="A806" s="13"/>
-      <c r="B806" s="16"/>
+      <c r="B806" s="15"/>
       <c r="C806" s="13"/>
       <c r="D806" s="13"/>
       <c r="E806" s="13"/>
@@ -34309,7 +34325,7 @@
     </row>
     <row r="807" spans="1:17" ht="12" customHeight="1">
       <c r="A807" s="13"/>
-      <c r="B807" s="16"/>
+      <c r="B807" s="15"/>
       <c r="C807" s="13"/>
       <c r="D807" s="13"/>
       <c r="E807" s="13"/>
@@ -34328,7 +34344,7 @@
     </row>
     <row r="808" spans="1:17" ht="12" customHeight="1">
       <c r="A808" s="13"/>
-      <c r="B808" s="16"/>
+      <c r="B808" s="15"/>
       <c r="C808" s="13"/>
       <c r="D808" s="13"/>
       <c r="E808" s="13"/>
@@ -34347,7 +34363,7 @@
     </row>
     <row r="809" spans="1:17" ht="12" customHeight="1">
       <c r="A809" s="13"/>
-      <c r="B809" s="16"/>
+      <c r="B809" s="15"/>
       <c r="C809" s="13"/>
       <c r="D809" s="13"/>
       <c r="E809" s="13"/>
@@ -34366,7 +34382,7 @@
     </row>
     <row r="810" spans="1:17" ht="12" customHeight="1">
       <c r="A810" s="13"/>
-      <c r="B810" s="16"/>
+      <c r="B810" s="15"/>
       <c r="C810" s="13"/>
       <c r="D810" s="13"/>
       <c r="E810" s="13"/>
@@ -34385,7 +34401,7 @@
     </row>
     <row r="811" spans="1:17" ht="12" customHeight="1">
       <c r="A811" s="13"/>
-      <c r="B811" s="16"/>
+      <c r="B811" s="15"/>
       <c r="C811" s="13"/>
       <c r="D811" s="13"/>
       <c r="E811" s="13"/>
@@ -34404,7 +34420,7 @@
     </row>
     <row r="812" spans="1:17" ht="12" customHeight="1">
       <c r="A812" s="13"/>
-      <c r="B812" s="16"/>
+      <c r="B812" s="15"/>
       <c r="C812" s="13"/>
       <c r="D812" s="13"/>
       <c r="E812" s="13"/>
@@ -34423,7 +34439,7 @@
     </row>
     <row r="813" spans="1:17" ht="12" customHeight="1">
       <c r="A813" s="13"/>
-      <c r="B813" s="16"/>
+      <c r="B813" s="15"/>
       <c r="C813" s="13"/>
       <c r="D813" s="13"/>
       <c r="E813" s="13"/>
@@ -34442,7 +34458,7 @@
     </row>
     <row r="814" spans="1:17" ht="12" customHeight="1">
       <c r="A814" s="13"/>
-      <c r="B814" s="16"/>
+      <c r="B814" s="15"/>
       <c r="C814" s="13"/>
       <c r="D814" s="13"/>
       <c r="E814" s="13"/>
@@ -34461,7 +34477,7 @@
     </row>
     <row r="815" spans="1:17" ht="12" customHeight="1">
       <c r="A815" s="13"/>
-      <c r="B815" s="16"/>
+      <c r="B815" s="15"/>
       <c r="C815" s="13"/>
       <c r="D815" s="13"/>
       <c r="E815" s="13"/>
@@ -34480,7 +34496,7 @@
     </row>
     <row r="816" spans="1:17" ht="12" customHeight="1">
       <c r="A816" s="13"/>
-      <c r="B816" s="16"/>
+      <c r="B816" s="15"/>
       <c r="C816" s="13"/>
       <c r="D816" s="13"/>
       <c r="E816" s="13"/>
@@ -34499,7 +34515,7 @@
     </row>
     <row r="817" spans="1:17" ht="12" customHeight="1">
       <c r="A817" s="13"/>
-      <c r="B817" s="16"/>
+      <c r="B817" s="15"/>
       <c r="C817" s="13"/>
       <c r="D817" s="13"/>
       <c r="E817" s="13"/>
@@ -34518,7 +34534,7 @@
     </row>
     <row r="818" spans="1:17" ht="12" customHeight="1">
       <c r="A818" s="13"/>
-      <c r="B818" s="16"/>
+      <c r="B818" s="15"/>
       <c r="C818" s="13"/>
       <c r="D818" s="13"/>
       <c r="E818" s="13"/>
@@ -34537,7 +34553,7 @@
     </row>
     <row r="819" spans="1:17" ht="12" customHeight="1">
       <c r="A819" s="13"/>
-      <c r="B819" s="16"/>
+      <c r="B819" s="15"/>
       <c r="C819" s="13"/>
       <c r="D819" s="13"/>
       <c r="E819" s="13"/>
@@ -34556,7 +34572,7 @@
     </row>
     <row r="820" spans="1:17" ht="12" customHeight="1">
       <c r="A820" s="13"/>
-      <c r="B820" s="16"/>
+      <c r="B820" s="15"/>
       <c r="C820" s="13"/>
       <c r="D820" s="13"/>
       <c r="E820" s="13"/>
@@ -34575,7 +34591,7 @@
     </row>
     <row r="821" spans="1:17" ht="12" customHeight="1">
       <c r="A821" s="13"/>
-      <c r="B821" s="16"/>
+      <c r="B821" s="15"/>
       <c r="C821" s="13"/>
       <c r="D821" s="13"/>
       <c r="E821" s="13"/>
@@ -34594,7 +34610,7 @@
     </row>
     <row r="822" spans="1:17" ht="12" customHeight="1">
       <c r="A822" s="13"/>
-      <c r="B822" s="16"/>
+      <c r="B822" s="15"/>
       <c r="C822" s="13"/>
       <c r="D822" s="13"/>
       <c r="E822" s="13"/>
@@ -34613,7 +34629,7 @@
     </row>
     <row r="823" spans="1:17" ht="12" customHeight="1">
       <c r="A823" s="13"/>
-      <c r="B823" s="16"/>
+      <c r="B823" s="15"/>
       <c r="C823" s="13"/>
       <c r="D823" s="13"/>
       <c r="E823" s="13"/>
@@ -34632,7 +34648,7 @@
     </row>
     <row r="824" spans="1:17" ht="12" customHeight="1">
       <c r="A824" s="13"/>
-      <c r="B824" s="16"/>
+      <c r="B824" s="15"/>
       <c r="C824" s="13"/>
       <c r="D824" s="13"/>
       <c r="E824" s="13"/>
@@ -34651,7 +34667,7 @@
     </row>
     <row r="825" spans="1:17" ht="12" customHeight="1">
       <c r="A825" s="13"/>
-      <c r="B825" s="16"/>
+      <c r="B825" s="15"/>
       <c r="C825" s="13"/>
       <c r="D825" s="13"/>
       <c r="E825" s="13"/>
@@ -34670,7 +34686,7 @@
     </row>
     <row r="826" spans="1:17" ht="12" customHeight="1">
       <c r="A826" s="13"/>
-      <c r="B826" s="16"/>
+      <c r="B826" s="15"/>
       <c r="C826" s="13"/>
       <c r="D826" s="13"/>
       <c r="E826" s="13"/>
@@ -34689,7 +34705,7 @@
     </row>
     <row r="827" spans="1:17" ht="12" customHeight="1">
       <c r="A827" s="13"/>
-      <c r="B827" s="16"/>
+      <c r="B827" s="15"/>
       <c r="C827" s="13"/>
       <c r="D827" s="13"/>
       <c r="E827" s="13"/>
@@ -34708,7 +34724,7 @@
     </row>
     <row r="828" spans="1:17" ht="12" customHeight="1">
       <c r="A828" s="13"/>
-      <c r="B828" s="16"/>
+      <c r="B828" s="15"/>
       <c r="C828" s="13"/>
       <c r="D828" s="13"/>
       <c r="E828" s="13"/>
@@ -34727,7 +34743,7 @@
     </row>
     <row r="829" spans="1:17" ht="12" customHeight="1">
       <c r="A829" s="13"/>
-      <c r="B829" s="16"/>
+      <c r="B829" s="15"/>
       <c r="C829" s="13"/>
       <c r="D829" s="13"/>
       <c r="E829" s="13"/>
@@ -34746,7 +34762,7 @@
     </row>
     <row r="830" spans="1:17" ht="12" customHeight="1">
       <c r="A830" s="13"/>
-      <c r="B830" s="16"/>
+      <c r="B830" s="15"/>
       <c r="C830" s="13"/>
       <c r="D830" s="13"/>
       <c r="E830" s="13"/>
@@ -34765,7 +34781,7 @@
     </row>
     <row r="831" spans="1:17" ht="12" customHeight="1">
       <c r="A831" s="13"/>
-      <c r="B831" s="16"/>
+      <c r="B831" s="15"/>
       <c r="C831" s="13"/>
       <c r="D831" s="13"/>
       <c r="E831" s="13"/>
@@ -34784,7 +34800,7 @@
     </row>
     <row r="832" spans="1:17" ht="12" customHeight="1">
       <c r="A832" s="13"/>
-      <c r="B832" s="16"/>
+      <c r="B832" s="15"/>
       <c r="C832" s="13"/>
       <c r="D832" s="13"/>
       <c r="E832" s="13"/>
@@ -34803,7 +34819,7 @@
     </row>
     <row r="833" spans="1:17" ht="12" customHeight="1">
       <c r="A833" s="13"/>
-      <c r="B833" s="16"/>
+      <c r="B833" s="15"/>
       <c r="C833" s="13"/>
       <c r="D833" s="13"/>
       <c r="E833" s="13"/>
@@ -34822,7 +34838,7 @@
     </row>
     <row r="834" spans="1:17" ht="12" customHeight="1">
       <c r="A834" s="13"/>
-      <c r="B834" s="16"/>
+      <c r="B834" s="15"/>
       <c r="C834" s="13"/>
       <c r="D834" s="13"/>
       <c r="E834" s="13"/>
@@ -34841,7 +34857,7 @@
     </row>
     <row r="835" spans="1:17" ht="12" customHeight="1">
       <c r="A835" s="13"/>
-      <c r="B835" s="16"/>
+      <c r="B835" s="15"/>
       <c r="C835" s="13"/>
       <c r="D835" s="13"/>
       <c r="E835" s="13"/>
@@ -34860,7 +34876,7 @@
     </row>
     <row r="836" spans="1:17" ht="12" customHeight="1">
       <c r="A836" s="13"/>
-      <c r="B836" s="16"/>
+      <c r="B836" s="15"/>
       <c r="C836" s="13"/>
       <c r="D836" s="13"/>
       <c r="E836" s="13"/>
@@ -34879,7 +34895,7 @@
     </row>
     <row r="837" spans="1:17" ht="12" customHeight="1">
       <c r="A837" s="13"/>
-      <c r="B837" s="16"/>
+      <c r="B837" s="15"/>
       <c r="C837" s="13"/>
       <c r="D837" s="13"/>
       <c r="E837" s="13"/>
@@ -34898,7 +34914,7 @@
     </row>
     <row r="838" spans="1:17" ht="12" customHeight="1">
       <c r="A838" s="13"/>
-      <c r="B838" s="16"/>
+      <c r="B838" s="15"/>
       <c r="C838" s="13"/>
       <c r="D838" s="13"/>
       <c r="E838" s="13"/>
@@ -34917,7 +34933,7 @@
     </row>
     <row r="839" spans="1:17" ht="12" customHeight="1">
       <c r="A839" s="13"/>
-      <c r="B839" s="16"/>
+      <c r="B839" s="15"/>
       <c r="C839" s="13"/>
       <c r="D839" s="13"/>
       <c r="E839" s="13"/>
@@ -34936,7 +34952,7 @@
     </row>
     <row r="840" spans="1:17" ht="12" customHeight="1">
       <c r="A840" s="13"/>
-      <c r="B840" s="16"/>
+      <c r="B840" s="15"/>
       <c r="C840" s="13"/>
       <c r="D840" s="13"/>
       <c r="E840" s="13"/>
@@ -34955,7 +34971,7 @@
     </row>
     <row r="841" spans="1:17" ht="12" customHeight="1">
       <c r="A841" s="13"/>
-      <c r="B841" s="16"/>
+      <c r="B841" s="15"/>
       <c r="C841" s="13"/>
       <c r="D841" s="13"/>
       <c r="E841" s="13"/>
@@ -34974,7 +34990,7 @@
     </row>
     <row r="842" spans="1:17" ht="12" customHeight="1">
       <c r="A842" s="13"/>
-      <c r="B842" s="16"/>
+      <c r="B842" s="15"/>
       <c r="C842" s="13"/>
       <c r="D842" s="13"/>
       <c r="E842" s="13"/>
@@ -34993,7 +35009,7 @@
     </row>
     <row r="843" spans="1:17" ht="12" customHeight="1">
       <c r="A843" s="13"/>
-      <c r="B843" s="16"/>
+      <c r="B843" s="15"/>
       <c r="C843" s="13"/>
       <c r="D843" s="13"/>
       <c r="E843" s="13"/>
@@ -35012,7 +35028,7 @@
     </row>
     <row r="844" spans="1:17" ht="12" customHeight="1">
       <c r="A844" s="13"/>
-      <c r="B844" s="16"/>
+      <c r="B844" s="15"/>
       <c r="C844" s="13"/>
       <c r="D844" s="13"/>
       <c r="E844" s="13"/>
@@ -35031,7 +35047,7 @@
     </row>
     <row r="845" spans="1:17" ht="12" customHeight="1">
       <c r="A845" s="13"/>
-      <c r="B845" s="16"/>
+      <c r="B845" s="15"/>
       <c r="C845" s="13"/>
       <c r="D845" s="13"/>
       <c r="E845" s="13"/>
@@ -35050,7 +35066,7 @@
     </row>
     <row r="846" spans="1:17" ht="12" customHeight="1">
       <c r="A846" s="13"/>
-      <c r="B846" s="16"/>
+      <c r="B846" s="15"/>
       <c r="C846" s="13"/>
       <c r="D846" s="13"/>
       <c r="E846" s="13"/>
@@ -35069,7 +35085,7 @@
     </row>
     <row r="847" spans="1:17" ht="12" customHeight="1">
       <c r="A847" s="13"/>
-      <c r="B847" s="16"/>
+      <c r="B847" s="15"/>
       <c r="C847" s="13"/>
       <c r="D847" s="13"/>
       <c r="E847" s="13"/>
@@ -35088,7 +35104,7 @@
     </row>
     <row r="848" spans="1:17" ht="12" customHeight="1">
       <c r="A848" s="13"/>
-      <c r="B848" s="16"/>
+      <c r="B848" s="15"/>
       <c r="C848" s="13"/>
       <c r="D848" s="13"/>
       <c r="E848" s="13"/>
@@ -35107,7 +35123,7 @@
     </row>
     <row r="849" spans="1:17" ht="12" customHeight="1">
       <c r="A849" s="13"/>
-      <c r="B849" s="16"/>
+      <c r="B849" s="15"/>
       <c r="C849" s="13"/>
       <c r="D849" s="13"/>
       <c r="E849" s="13"/>
@@ -35126,7 +35142,7 @@
     </row>
     <row r="850" spans="1:17" ht="12" customHeight="1">
       <c r="A850" s="13"/>
-      <c r="B850" s="16"/>
+      <c r="B850" s="15"/>
       <c r="C850" s="13"/>
       <c r="D850" s="13"/>
       <c r="E850" s="13"/>
@@ -35145,7 +35161,7 @@
     </row>
     <row r="851" spans="1:17" ht="12" customHeight="1">
       <c r="A851" s="13"/>
-      <c r="B851" s="16"/>
+      <c r="B851" s="15"/>
       <c r="C851" s="13"/>
       <c r="D851" s="13"/>
       <c r="E851" s="13"/>
@@ -35164,7 +35180,7 @@
     </row>
     <row r="852" spans="1:17" ht="12" customHeight="1">
       <c r="A852" s="13"/>
-      <c r="B852" s="16"/>
+      <c r="B852" s="15"/>
       <c r="C852" s="13"/>
       <c r="D852" s="13"/>
       <c r="E852" s="13"/>
@@ -35183,7 +35199,7 @@
     </row>
     <row r="853" spans="1:17" ht="12" customHeight="1">
       <c r="A853" s="13"/>
-      <c r="B853" s="16"/>
+      <c r="B853" s="15"/>
       <c r="C853" s="13"/>
       <c r="D853" s="13"/>
       <c r="E853" s="13"/>
@@ -35202,7 +35218,7 @@
     </row>
     <row r="854" spans="1:17" ht="12" customHeight="1">
       <c r="A854" s="13"/>
-      <c r="B854" s="16"/>
+      <c r="B854" s="15"/>
       <c r="C854" s="13"/>
       <c r="D854" s="13"/>
       <c r="E854" s="13"/>
@@ -35221,7 +35237,7 @@
     </row>
     <row r="855" spans="1:17" ht="12" customHeight="1">
       <c r="A855" s="13"/>
-      <c r="B855" s="16"/>
+      <c r="B855" s="15"/>
       <c r="C855" s="13"/>
       <c r="D855" s="13"/>
       <c r="E855" s="13"/>
@@ -35240,7 +35256,7 @@
     </row>
     <row r="856" spans="1:17" ht="12" customHeight="1">
       <c r="A856" s="13"/>
-      <c r="B856" s="16"/>
+      <c r="B856" s="15"/>
       <c r="C856" s="13"/>
       <c r="D856" s="13"/>
       <c r="E856" s="13"/>
@@ -35259,7 +35275,7 @@
     </row>
     <row r="857" spans="1:17" ht="12" customHeight="1">
       <c r="A857" s="13"/>
-      <c r="B857" s="16"/>
+      <c r="B857" s="15"/>
       <c r="C857" s="13"/>
       <c r="D857" s="13"/>
       <c r="E857" s="13"/>
@@ -35278,7 +35294,7 @@
     </row>
     <row r="858" spans="1:17" ht="12" customHeight="1">
       <c r="A858" s="13"/>
-      <c r="B858" s="16"/>
+      <c r="B858" s="15"/>
       <c r="C858" s="13"/>
       <c r="D858" s="13"/>
       <c r="E858" s="13"/>
@@ -35297,7 +35313,7 @@
     </row>
     <row r="859" spans="1:17" ht="12" customHeight="1">
       <c r="A859" s="13"/>
-      <c r="B859" s="16"/>
+      <c r="B859" s="15"/>
       <c r="C859" s="13"/>
       <c r="D859" s="13"/>
       <c r="E859" s="13"/>
@@ -35316,7 +35332,7 @@
     </row>
     <row r="860" spans="1:17" ht="12" customHeight="1">
       <c r="A860" s="13"/>
-      <c r="B860" s="16"/>
+      <c r="B860" s="15"/>
       <c r="C860" s="13"/>
       <c r="D860" s="13"/>
       <c r="E860" s="13"/>
@@ -35335,7 +35351,7 @@
     </row>
     <row r="861" spans="1:17" ht="12" customHeight="1">
       <c r="A861" s="13"/>
-      <c r="B861" s="16"/>
+      <c r="B861" s="15"/>
       <c r="C861" s="13"/>
       <c r="D861" s="13"/>
       <c r="E861" s="13"/>
@@ -35354,7 +35370,7 @@
     </row>
     <row r="862" spans="1:17" ht="12" customHeight="1">
       <c r="A862" s="13"/>
-      <c r="B862" s="16"/>
+      <c r="B862" s="15"/>
       <c r="C862" s="13"/>
       <c r="D862" s="13"/>
       <c r="E862" s="13"/>
@@ -35373,7 +35389,7 @@
     </row>
     <row r="863" spans="1:17" ht="12" customHeight="1">
       <c r="A863" s="13"/>
-      <c r="B863" s="16"/>
+      <c r="B863" s="15"/>
       <c r="C863" s="13"/>
       <c r="D863" s="13"/>
       <c r="E863" s="13"/>
@@ -35392,7 +35408,7 @@
     </row>
     <row r="864" spans="1:17" ht="12" customHeight="1">
       <c r="A864" s="13"/>
-      <c r="B864" s="16"/>
+      <c r="B864" s="15"/>
       <c r="C864" s="13"/>
       <c r="D864" s="13"/>
       <c r="E864" s="13"/>
@@ -35411,7 +35427,7 @@
     </row>
     <row r="865" spans="1:17" ht="12" customHeight="1">
       <c r="A865" s="13"/>
-      <c r="B865" s="16"/>
+      <c r="B865" s="15"/>
       <c r="C865" s="13"/>
       <c r="D865" s="13"/>
       <c r="E865" s="13"/>
@@ -35430,7 +35446,7 @@
     </row>
     <row r="866" spans="1:17" ht="12" customHeight="1">
       <c r="A866" s="13"/>
-      <c r="B866" s="16"/>
+      <c r="B866" s="15"/>
       <c r="C866" s="13"/>
       <c r="D866" s="13"/>
       <c r="E866" s="13"/>
@@ -35449,7 +35465,7 @@
     </row>
     <row r="867" spans="1:17" ht="12" customHeight="1">
       <c r="A867" s="13"/>
-      <c r="B867" s="16"/>
+      <c r="B867" s="15"/>
       <c r="C867" s="13"/>
       <c r="D867" s="13"/>
       <c r="E867" s="13"/>
@@ -35468,7 +35484,7 @@
     </row>
     <row r="868" spans="1:17" ht="12" customHeight="1">
       <c r="A868" s="13"/>
-      <c r="B868" s="16"/>
+      <c r="B868" s="15"/>
       <c r="C868" s="13"/>
       <c r="D868" s="13"/>
       <c r="E868" s="13"/>
@@ -35487,7 +35503,7 @@
     </row>
     <row r="869" spans="1:17" ht="12" customHeight="1">
       <c r="A869" s="13"/>
-      <c r="B869" s="16"/>
+      <c r="B869" s="15"/>
       <c r="C869" s="13"/>
       <c r="D869" s="13"/>
       <c r="E869" s="13"/>
@@ -35506,7 +35522,7 @@
     </row>
     <row r="870" spans="1:17" ht="12" customHeight="1">
       <c r="A870" s="13"/>
-      <c r="B870" s="16"/>
+      <c r="B870" s="15"/>
       <c r="C870" s="13"/>
       <c r="D870" s="13"/>
       <c r="E870" s="13"/>
@@ -35525,7 +35541,7 @@
     </row>
     <row r="871" spans="1:17" ht="12" customHeight="1">
       <c r="A871" s="13"/>
-      <c r="B871" s="16"/>
+      <c r="B871" s="15"/>
       <c r="C871" s="13"/>
       <c r="D871" s="13"/>
       <c r="E871" s="13"/>
@@ -35544,7 +35560,7 @@
     </row>
     <row r="872" spans="1:17" ht="12" customHeight="1">
       <c r="A872" s="13"/>
-      <c r="B872" s="16"/>
+      <c r="B872" s="15"/>
       <c r="C872" s="13"/>
       <c r="D872" s="13"/>
       <c r="E872" s="13"/>
@@ -35563,7 +35579,7 @@
     </row>
     <row r="873" spans="1:17" ht="12" customHeight="1">
       <c r="A873" s="13"/>
-      <c r="B873" s="16"/>
+      <c r="B873" s="15"/>
       <c r="C873" s="13"/>
       <c r="D873" s="13"/>
       <c r="E873" s="13"/>
@@ -35582,7 +35598,7 @@
     </row>
     <row r="874" spans="1:17" ht="12" customHeight="1">
       <c r="A874" s="13"/>
-      <c r="B874" s="16"/>
+      <c r="B874" s="15"/>
       <c r="C874" s="13"/>
       <c r="D874" s="13"/>
       <c r="E874" s="13"/>
@@ -35601,7 +35617,7 @@
     </row>
     <row r="875" spans="1:17" ht="12" customHeight="1">
       <c r="A875" s="13"/>
-      <c r="B875" s="16"/>
+      <c r="B875" s="15"/>
       <c r="C875" s="13"/>
       <c r="D875" s="13"/>
       <c r="E875" s="13"/>
@@ -35620,7 +35636,7 @@
     </row>
     <row r="876" spans="1:17" ht="12" customHeight="1">
       <c r="A876" s="13"/>
-      <c r="B876" s="16"/>
+      <c r="B876" s="15"/>
       <c r="C876" s="13"/>
       <c r="D876" s="13"/>
       <c r="E876" s="13"/>
@@ -35639,7 +35655,7 @@
     </row>
     <row r="877" spans="1:17" ht="12" customHeight="1">
       <c r="A877" s="13"/>
-      <c r="B877" s="16"/>
+      <c r="B877" s="15"/>
       <c r="C877" s="13"/>
       <c r="D877" s="13"/>
       <c r="E877" s="13"/>
@@ -35658,7 +35674,7 @@
     </row>
     <row r="878" spans="1:17" ht="12" customHeight="1">
       <c r="A878" s="13"/>
-      <c r="B878" s="16"/>
+      <c r="B878" s="15"/>
       <c r="C878" s="13"/>
       <c r="D878" s="13"/>
       <c r="E878" s="13"/>
@@ -35677,7 +35693,7 @@
     </row>
     <row r="879" spans="1:17" ht="12" customHeight="1">
       <c r="A879" s="13"/>
-      <c r="B879" s="16"/>
+      <c r="B879" s="15"/>
       <c r="C879" s="13"/>
       <c r="D879" s="13"/>
       <c r="E879" s="13"/>
@@ -35696,7 +35712,7 @@
     </row>
     <row r="880" spans="1:17" ht="12" customHeight="1">
       <c r="A880" s="13"/>
-      <c r="B880" s="16"/>
+      <c r="B880" s="15"/>
       <c r="C880" s="13"/>
       <c r="D880" s="13"/>
       <c r="E880" s="13"/>
@@ -35715,7 +35731,7 @@
     </row>
     <row r="881" spans="1:17" ht="12" customHeight="1">
       <c r="A881" s="13"/>
-      <c r="B881" s="16"/>
+      <c r="B881" s="15"/>
       <c r="C881" s="13"/>
       <c r="D881" s="13"/>
       <c r="E881" s="13"/>
@@ -35734,7 +35750,7 @@
     </row>
     <row r="882" spans="1:17" ht="12" customHeight="1">
       <c r="A882" s="13"/>
-      <c r="B882" s="16"/>
+      <c r="B882" s="15"/>
       <c r="C882" s="13"/>
       <c r="D882" s="13"/>
       <c r="E882" s="13"/>
@@ -35753,7 +35769,7 @@
     </row>
     <row r="883" spans="1:17" ht="12" customHeight="1">
       <c r="A883" s="13"/>
-      <c r="B883" s="16"/>
+      <c r="B883" s="15"/>
       <c r="C883" s="13"/>
       <c r="D883" s="13"/>
       <c r="E883" s="13"/>
@@ -35772,7 +35788,7 @@
     </row>
     <row r="884" spans="1:17" ht="12" customHeight="1">
       <c r="A884" s="13"/>
-      <c r="B884" s="16"/>
+      <c r="B884" s="15"/>
       <c r="C884" s="13"/>
       <c r="D884" s="13"/>
       <c r="E884" s="13"/>
@@ -35791,7 +35807,7 @@
     </row>
     <row r="885" spans="1:17" ht="12" customHeight="1">
       <c r="A885" s="13"/>
-      <c r="B885" s="16"/>
+      <c r="B885" s="15"/>
       <c r="C885" s="13"/>
       <c r="D885" s="13"/>
       <c r="E885" s="13"/>
@@ -35810,7 +35826,7 @@
     </row>
     <row r="886" spans="1:17" ht="12" customHeight="1">
       <c r="A886" s="13"/>
-      <c r="B886" s="16"/>
+      <c r="B886" s="15"/>
       <c r="C886" s="13"/>
       <c r="D886" s="13"/>
       <c r="E886" s="13"/>
@@ -35829,7 +35845,7 @@
     </row>
     <row r="887" spans="1:17" ht="12" customHeight="1">
       <c r="A887" s="13"/>
-      <c r="B887" s="16"/>
+      <c r="B887" s="15"/>
       <c r="C887" s="13"/>
       <c r="D887" s="13"/>
       <c r="E887" s="13"/>
@@ -35848,7 +35864,7 @@
     </row>
     <row r="888" spans="1:17" ht="12" customHeight="1">
       <c r="A888" s="13"/>
-      <c r="B888" s="16"/>
+      <c r="B888" s="15"/>
       <c r="C888" s="13"/>
       <c r="D888" s="13"/>
       <c r="E888" s="13"/>
@@ -35867,7 +35883,7 @@
     </row>
     <row r="889" spans="1:17" ht="12" customHeight="1">
       <c r="A889" s="13"/>
-      <c r="B889" s="16"/>
+      <c r="B889" s="15"/>
       <c r="C889" s="13"/>
       <c r="D889" s="13"/>
       <c r="E889" s="13"/>
@@ -35886,7 +35902,7 @@
     </row>
     <row r="890" spans="1:17" ht="12" customHeight="1">
       <c r="A890" s="13"/>
-      <c r="B890" s="16"/>
+      <c r="B890" s="15"/>
       <c r="C890" s="13"/>
       <c r="D890" s="13"/>
       <c r="E890" s="13"/>
@@ -35905,7 +35921,7 @@
     </row>
     <row r="891" spans="1:17" ht="12" customHeight="1">
       <c r="A891" s="13"/>
-      <c r="B891" s="16"/>
+      <c r="B891" s="15"/>
       <c r="C891" s="13"/>
       <c r="D891" s="13"/>
       <c r="E891" s="13"/>
@@ -35924,7 +35940,7 @@
     </row>
     <row r="892" spans="1:17" ht="12" customHeight="1">
       <c r="A892" s="13"/>
-      <c r="B892" s="16"/>
+      <c r="B892" s="15"/>
       <c r="C892" s="13"/>
       <c r="D892" s="13"/>
       <c r="E892" s="13"/>
@@ -35943,7 +35959,7 @@
     </row>
     <row r="893" spans="1:17" ht="12" customHeight="1">
       <c r="A893" s="13"/>
-      <c r="B893" s="16"/>
+      <c r="B893" s="15"/>
       <c r="C893" s="13"/>
       <c r="D893" s="13"/>
       <c r="E893" s="13"/>
@@ -35962,7 +35978,7 @@
     </row>
     <row r="894" spans="1:17" ht="12" customHeight="1">
       <c r="A894" s="13"/>
-      <c r="B894" s="16"/>
+      <c r="B894" s="15"/>
       <c r="C894" s="13"/>
       <c r="D894" s="13"/>
       <c r="E894" s="13"/>
@@ -35981,7 +35997,7 @@
     </row>
     <row r="895" spans="1:17" ht="12" customHeight="1">
       <c r="A895" s="13"/>
-      <c r="B895" s="16"/>
+      <c r="B895" s="15"/>
       <c r="C895" s="13"/>
       <c r="D895" s="13"/>
       <c r="E895" s="13"/>
@@ -36000,7 +36016,7 @@
     </row>
     <row r="896" spans="1:17" ht="12" customHeight="1">
       <c r="A896" s="13"/>
-      <c r="B896" s="16"/>
+      <c r="B896" s="15"/>
       <c r="C896" s="13"/>
       <c r="D896" s="13"/>
       <c r="E896" s="13"/>
@@ -36019,7 +36035,7 @@
     </row>
     <row r="897" spans="1:17" ht="12" customHeight="1">
       <c r="A897" s="13"/>
-      <c r="B897" s="16"/>
+      <c r="B897" s="15"/>
       <c r="C897" s="13"/>
       <c r="D897" s="13"/>
       <c r="E897" s="13"/>
@@ -36038,7 +36054,7 @@
     </row>
     <row r="898" spans="1:17" ht="12" customHeight="1">
       <c r="A898" s="13"/>
-      <c r="B898" s="16"/>
+      <c r="B898" s="15"/>
       <c r="C898" s="13"/>
       <c r="D898" s="13"/>
       <c r="E898" s="13"/>
@@ -36057,7 +36073,7 @@
     </row>
     <row r="899" spans="1:17" ht="12" customHeight="1">
       <c r="A899" s="13"/>
-      <c r="B899" s="16"/>
+      <c r="B899" s="15"/>
       <c r="C899" s="13"/>
       <c r="D899" s="13"/>
       <c r="E899" s="13"/>
@@ -36076,7 +36092,7 @@
     </row>
     <row r="900" spans="1:17" ht="12" customHeight="1">
       <c r="A900" s="13"/>
-      <c r="B900" s="16"/>
+      <c r="B900" s="15"/>
       <c r="C900" s="13"/>
       <c r="D900" s="13"/>
       <c r="E900" s="13"/>
@@ -36095,7 +36111,7 @@
     </row>
     <row r="901" spans="1:17" ht="12" customHeight="1">
       <c r="A901" s="13"/>
-      <c r="B901" s="16"/>
+      <c r="B901" s="15"/>
       <c r="C901" s="13"/>
       <c r="D901" s="13"/>
       <c r="E901" s="13"/>
@@ -36114,7 +36130,7 @@
     </row>
     <row r="902" spans="1:17" ht="12" customHeight="1">
       <c r="A902" s="13"/>
-      <c r="B902" s="16"/>
+      <c r="B902" s="15"/>
       <c r="C902" s="13"/>
       <c r="D902" s="13"/>
       <c r="E902" s="13"/>
@@ -36133,7 +36149,7 @@
     </row>
     <row r="903" spans="1:17" ht="12" customHeight="1">
       <c r="A903" s="13"/>
-      <c r="B903" s="16"/>
+      <c r="B903" s="15"/>
       <c r="C903" s="13"/>
       <c r="D903" s="13"/>
       <c r="E903" s="13"/>
@@ -36152,7 +36168,7 @@
     </row>
     <row r="904" spans="1:17" ht="12" customHeight="1">
       <c r="A904" s="13"/>
-      <c r="B904" s="16"/>
+      <c r="B904" s="15"/>
       <c r="C904" s="13"/>
       <c r="D904" s="13"/>
       <c r="E904" s="13"/>
@@ -36171,7 +36187,7 @@
     </row>
     <row r="905" spans="1:17" ht="12" customHeight="1">
       <c r="A905" s="13"/>
-      <c r="B905" s="16"/>
+      <c r="B905" s="15"/>
       <c r="C905" s="13"/>
       <c r="D905" s="13"/>
       <c r="E905" s="13"/>
@@ -36190,7 +36206,7 @@
     </row>
     <row r="906" spans="1:17" ht="12" customHeight="1">
       <c r="A906" s="13"/>
-      <c r="B906" s="16"/>
+      <c r="B906" s="15"/>
       <c r="C906" s="13"/>
       <c r="D906" s="13"/>
       <c r="E906" s="13"/>
@@ -36209,7 +36225,7 @@
     </row>
     <row r="907" spans="1:17" ht="12" customHeight="1">
       <c r="A907" s="13"/>
-      <c r="B907" s="16"/>
+      <c r="B907" s="15"/>
       <c r="C907" s="13"/>
       <c r="D907" s="13"/>
       <c r="E907" s="13"/>
@@ -36228,7 +36244,7 @@
     </row>
     <row r="908" spans="1:17" ht="12" customHeight="1">
       <c r="A908" s="13"/>
-      <c r="B908" s="16"/>
+      <c r="B908" s="15"/>
       <c r="C908" s="13"/>
       <c r="D908" s="13"/>
       <c r="E908" s="13"/>
@@ -36247,7 +36263,7 @@
     </row>
     <row r="909" spans="1:17" ht="12" customHeight="1">
       <c r="A909" s="13"/>
-      <c r="B909" s="16"/>
+      <c r="B909" s="15"/>
       <c r="C909" s="13"/>
       <c r="D909" s="13"/>
       <c r="E909" s="13"/>
@@ -36266,7 +36282,7 @@
     </row>
     <row r="910" spans="1:17" ht="12" customHeight="1">
       <c r="A910" s="13"/>
-      <c r="B910" s="16"/>
+      <c r="B910" s="15"/>
       <c r="C910" s="13"/>
       <c r="D910" s="13"/>
       <c r="E910" s="13"/>
@@ -36285,7 +36301,7 @@
     </row>
     <row r="911" spans="1:17" ht="12" customHeight="1">
       <c r="A911" s="13"/>
-      <c r="B911" s="16"/>
+      <c r="B911" s="15"/>
       <c r="C911" s="13"/>
       <c r="D911" s="13"/>
       <c r="E911" s="13"/>
@@ -36304,7 +36320,7 @@
     </row>
     <row r="912" spans="1:17" ht="12" customHeight="1">
       <c r="A912" s="13"/>
-      <c r="B912" s="16"/>
+      <c r="B912" s="15"/>
       <c r="C912" s="13"/>
       <c r="D912" s="13"/>
       <c r="E912" s="13"/>
@@ -36323,7 +36339,7 @@
     </row>
     <row r="913" spans="1:17" ht="12" customHeight="1">
       <c r="A913" s="13"/>
-      <c r="B913" s="16"/>
+      <c r="B913" s="15"/>
       <c r="C913" s="13"/>
       <c r="D913" s="13"/>
       <c r="E913" s="13"/>
@@ -36342,7 +36358,7 @@
     </row>
     <row r="914" spans="1:17" ht="12" customHeight="1">
       <c r="A914" s="13"/>
-      <c r="B914" s="16"/>
+      <c r="B914" s="15"/>
       <c r="C914" s="13"/>
       <c r="D914" s="13"/>
       <c r="E914" s="13"/>
@@ -36361,7 +36377,7 @@
     </row>
     <row r="915" spans="1:17" ht="12" customHeight="1">
       <c r="A915" s="13"/>
-      <c r="B915" s="16"/>
+      <c r="B915" s="15"/>
       <c r="C915" s="13"/>
       <c r="D915" s="13"/>
       <c r="E915" s="13"/>
@@ -36380,7 +36396,7 @@
     </row>
     <row r="916" spans="1:17" ht="12" customHeight="1">
       <c r="A916" s="13"/>
-      <c r="B916" s="16"/>
+      <c r="B916" s="15"/>
       <c r="C916" s="13"/>
       <c r="D916" s="13"/>
       <c r="E916" s="13"/>
@@ -36399,7 +36415,7 @@
     </row>
     <row r="917" spans="1:17" ht="12" customHeight="1">
       <c r="A917" s="13"/>
-      <c r="B917" s="16"/>
+      <c r="B917" s="15"/>
       <c r="C917" s="13"/>
       <c r="D917" s="13"/>
       <c r="E917" s="13"/>
@@ -36418,7 +36434,7 @@
     </row>
     <row r="918" spans="1:17" ht="12" customHeight="1">
       <c r="A918" s="13"/>
-      <c r="B918" s="16"/>
+      <c r="B918" s="15"/>
       <c r="C918" s="13"/>
       <c r="D918" s="13"/>
       <c r="E918" s="13"/>
@@ -36437,7 +36453,7 @@
     </row>
     <row r="919" spans="1:17" ht="12" customHeight="1">
       <c r="A919" s="13"/>
-      <c r="B919" s="16"/>
+      <c r="B919" s="15"/>
       <c r="C919" s="13"/>
       <c r="D919" s="13"/>
       <c r="E919" s="13"/>
@@ -36456,7 +36472,7 @@
     </row>
     <row r="920" spans="1:17" ht="12" customHeight="1">
       <c r="A920" s="13"/>
-      <c r="B920" s="16"/>
+      <c r="B920" s="15"/>
       <c r="C920" s="13"/>
       <c r="D920" s="13"/>
       <c r="E920" s="13"/>
@@ -36475,7 +36491,7 @@
     </row>
     <row r="921" spans="1:17" ht="12" customHeight="1">
       <c r="A921" s="13"/>
-      <c r="B921" s="16"/>
+      <c r="B921" s="15"/>
       <c r="C921" s="13"/>
       <c r="D921" s="13"/>
       <c r="E921" s="13"/>
@@ -36494,7 +36510,7 @@
     </row>
     <row r="922" spans="1:17" ht="12" customHeight="1">
       <c r="A922" s="13"/>
-      <c r="B922" s="16"/>
+      <c r="B922" s="15"/>
       <c r="C922" s="13"/>
       <c r="D922" s="13"/>
       <c r="E922" s="13"/>
@@ -36513,7 +36529,7 @@
     </row>
     <row r="923" spans="1:17" ht="12" customHeight="1">
       <c r="A923" s="13"/>
-      <c r="B923" s="16"/>
+      <c r="B923" s="15"/>
       <c r="C923" s="13"/>
       <c r="D923" s="13"/>
       <c r="E923" s="13"/>
@@ -36532,7 +36548,7 @@
     </row>
     <row r="924" spans="1:17" ht="12" customHeight="1">
       <c r="A924" s="13"/>
-      <c r="B924" s="16"/>
+      <c r="B924" s="15"/>
       <c r="C924" s="13"/>
       <c r="D924" s="13"/>
       <c r="E924" s="13"/>
@@ -36551,7 +36567,7 @@
     </row>
     <row r="925" spans="1:17" ht="12" customHeight="1">
       <c r="A925" s="13"/>
-      <c r="B925" s="16"/>
+      <c r="B925" s="15"/>
       <c r="C925" s="13"/>
       <c r="D925" s="13"/>
       <c r="E925" s="13"/>
@@ -36570,7 +36586,7 @@
     </row>
     <row r="926" spans="1:17" ht="12" customHeight="1">
       <c r="A926" s="13"/>
-      <c r="B926" s="16"/>
+      <c r="B926" s="15"/>
       <c r="C926" s="13"/>
       <c r="D926" s="13"/>
       <c r="E926" s="13"/>
@@ -36589,7 +36605,7 @@
     </row>
     <row r="927" spans="1:17" ht="12" customHeight="1">
       <c r="A927" s="13"/>
-      <c r="B927" s="16"/>
+      <c r="B927" s="15"/>
       <c r="C927" s="13"/>
       <c r="D927" s="13"/>
       <c r="E927" s="13"/>
@@ -36608,7 +36624,7 @@
     </row>
     <row r="928" spans="1:17" ht="12" customHeight="1">
       <c r="A928" s="13"/>
-      <c r="B928" s="16"/>
+      <c r="B928" s="15"/>
       <c r="C928" s="13"/>
       <c r="D928" s="13"/>
       <c r="E928" s="13"/>
@@ -36627,7 +36643,7 @@
     </row>
     <row r="929" spans="1:17" ht="12" customHeight="1">
       <c r="A929" s="13"/>
-      <c r="B929" s="16"/>
+      <c r="B929" s="15"/>
       <c r="C929" s="13"/>
       <c r="D929" s="13"/>
       <c r="E929" s="13"/>
@@ -36646,7 +36662,7 @@
     </row>
     <row r="930" spans="1:17" ht="12" customHeight="1">
       <c r="A930" s="13"/>
-      <c r="B930" s="16"/>
+      <c r="B930" s="15"/>
       <c r="C930" s="13"/>
       <c r="D930" s="13"/>
       <c r="E930" s="13"/>
@@ -36665,7 +36681,7 @@
     </row>
     <row r="931" spans="1:17" ht="12" customHeight="1">
       <c r="A931" s="13"/>
-      <c r="B931" s="16"/>
+      <c r="B931" s="15"/>
       <c r="C931" s="13"/>
       <c r="D931" s="13"/>
       <c r="E931" s="13"/>
@@ -36684,7 +36700,7 @@
     </row>
     <row r="932" spans="1:17" ht="12" customHeight="1">
       <c r="A932" s="13"/>
-      <c r="B932" s="16"/>
+      <c r="B932" s="15"/>
       <c r="C932" s="13"/>
       <c r="D932" s="13"/>
       <c r="E932" s="13"/>
@@ -36703,7 +36719,7 @@
     </row>
     <row r="933" spans="1:17" ht="12" customHeight="1">
       <c r="A933" s="13"/>
-      <c r="B933" s="16"/>
+      <c r="B933" s="15"/>
       <c r="C933" s="13"/>
       <c r="D933" s="13"/>
       <c r="E933" s="13"/>
@@ -36722,7 +36738,7 @@
     </row>
     <row r="934" spans="1:17" ht="12" customHeight="1">
       <c r="A934" s="13"/>
-      <c r="B934" s="16"/>
+      <c r="B934" s="15"/>
       <c r="C934" s="13"/>
       <c r="D934" s="13"/>
       <c r="E934" s="13"/>
@@ -36741,7 +36757,7 @@
     </row>
     <row r="935" spans="1:17" ht="12" customHeight="1">
       <c r="A935" s="13"/>
-      <c r="B935" s="16"/>
+      <c r="B935" s="15"/>
       <c r="C935" s="13"/>
       <c r="D935" s="13"/>
       <c r="E935" s="13"/>
@@ -36760,7 +36776,7 @@
     </row>
     <row r="936" spans="1:17" ht="12" customHeight="1">
       <c r="A936" s="13"/>
-      <c r="B936" s="16"/>
+      <c r="B936" s="15"/>
       <c r="C936" s="13"/>
       <c r="D936" s="13"/>
       <c r="E936" s="13"/>
@@ -36779,7 +36795,7 @@
     </row>
     <row r="937" spans="1:17" ht="12" customHeight="1">
       <c r="A937" s="13"/>
-      <c r="B937" s="16"/>
+      <c r="B937" s="15"/>
       <c r="C937" s="13"/>
       <c r="D937" s="13"/>
       <c r="E937" s="13"/>
@@ -36798,7 +36814,7 @@
     </row>
     <row r="938" spans="1:17" ht="12" customHeight="1">
       <c r="A938" s="13"/>
-      <c r="B938" s="16"/>
+      <c r="B938" s="15"/>
       <c r="C938" s="13"/>
       <c r="D938" s="13"/>
       <c r="E938" s="13"/>
@@ -36817,7 +36833,7 @@
     </row>
     <row r="939" spans="1:17" ht="12" customHeight="1">
       <c r="A939" s="13"/>
-      <c r="B939" s="16"/>
+      <c r="B939" s="15"/>
       <c r="C939" s="13"/>
       <c r="D939" s="13"/>
       <c r="E939" s="13"/>
@@ -36836,7 +36852,7 @@
     </row>
     <row r="940" spans="1:17" ht="12" customHeight="1">
       <c r="A940" s="13"/>
-      <c r="B940" s="16"/>
+      <c r="B940" s="15"/>
       <c r="C940" s="13"/>
       <c r="D940" s="13"/>
       <c r="E940" s="13"/>
@@ -36855,7 +36871,7 @@
     </row>
     <row r="941" spans="1:17" ht="12" customHeight="1">
       <c r="A941" s="13"/>
-      <c r="B941" s="16"/>
+      <c r="B941" s="15"/>
       <c r="C941" s="13"/>
       <c r="D941" s="13"/>
       <c r="E941" s="13"/>
@@ -36874,7 +36890,7 @@
     </row>
     <row r="942" spans="1:17" ht="12" customHeight="1">
       <c r="A942" s="13"/>
-      <c r="B942" s="16"/>
+      <c r="B942" s="15"/>
       <c r="C942" s="13"/>
       <c r="D942" s="13"/>
       <c r="E942" s="13"/>
@@ -36893,7 +36909,7 @@
     </row>
     <row r="943" spans="1:17" ht="12" customHeight="1">
       <c r="A943" s="13"/>
-      <c r="B943" s="16"/>
+      <c r="B943" s="15"/>
       <c r="C943" s="13"/>
       <c r="D943" s="13"/>
       <c r="E943" s="13"/>
@@ -36912,7 +36928,7 @@
     </row>
     <row r="944" spans="1:17" ht="12" customHeight="1">
       <c r="A944" s="13"/>
-      <c r="B944" s="16"/>
+      <c r="B944" s="15"/>
       <c r="C944" s="13"/>
       <c r="D944" s="13"/>
       <c r="E944" s="13"/>
@@ -36931,7 +36947,7 @@
     </row>
     <row r="945" spans="1:17" ht="12" customHeight="1">
       <c r="A945" s="13"/>
-      <c r="B945" s="16"/>
+      <c r="B945" s="15"/>
       <c r="C945" s="13"/>
       <c r="D945" s="13"/>
       <c r="E945" s="13"/>
@@ -36950,7 +36966,7 @@
     </row>
     <row r="946" spans="1:17" ht="12" customHeight="1">
       <c r="A946" s="13"/>
-      <c r="B946" s="16"/>
+      <c r="B946" s="15"/>
       <c r="C946" s="13"/>
       <c r="D946" s="13"/>
       <c r="E946" s="13"/>
@@ -36969,7 +36985,7 @@
     </row>
     <row r="947" spans="1:17" ht="12" customHeight="1">
       <c r="A947" s="13"/>
-      <c r="B947" s="16"/>
+      <c r="B947" s="15"/>
       <c r="C947" s="13"/>
       <c r="D947" s="13"/>
       <c r="E947" s="13"/>
@@ -36988,7 +37004,7 @@
     </row>
     <row r="948" spans="1:17" ht="12" customHeight="1">
       <c r="A948" s="13"/>
-      <c r="B948" s="16"/>
+      <c r="B948" s="15"/>
       <c r="C948" s="13"/>
       <c r="D948" s="13"/>
       <c r="E948" s="13"/>
@@ -37007,7 +37023,7 @@
     </row>
     <row r="949" spans="1:17" ht="12" customHeight="1">
       <c r="A949" s="13"/>
-      <c r="B949" s="16"/>
+      <c r="B949" s="15"/>
       <c r="C949" s="13"/>
       <c r="D949" s="13"/>
       <c r="E949" s="13"/>
@@ -37026,7 +37042,7 @@
     </row>
     <row r="950" spans="1:17" ht="12" customHeight="1">
       <c r="A950" s="13"/>
-      <c r="B950" s="16"/>
+      <c r="B950" s="15"/>
       <c r="C950" s="13"/>
       <c r="D950" s="13"/>
       <c r="E950" s="13"/>
@@ -37045,7 +37061,7 @@
     </row>
     <row r="951" spans="1:17" ht="12" customHeight="1">
       <c r="A951" s="13"/>
-      <c r="B951" s="16"/>
+      <c r="B951" s="15"/>
       <c r="C951" s="13"/>
       <c r="D951" s="13"/>
       <c r="E951" s="13"/>
@@ -37064,7 +37080,7 @@
     </row>
     <row r="952" spans="1:17" ht="12" customHeight="1">
       <c r="A952" s="13"/>
-      <c r="B952" s="16"/>
+      <c r="B952" s="15"/>
       <c r="C952" s="13"/>
       <c r="D952" s="13"/>
       <c r="E952" s="13"/>
@@ -37083,7 +37099,7 @@
     </row>
     <row r="953" spans="1:17" ht="12" customHeight="1">
       <c r="A953" s="13"/>
-      <c r="B953" s="16"/>
+      <c r="B953" s="15"/>
       <c r="C953" s="13"/>
       <c r="D953" s="13"/>
       <c r="E953" s="13"/>
@@ -37102,7 +37118,7 @@
     </row>
     <row r="954" spans="1:17" ht="12" customHeight="1">
       <c r="A954" s="13"/>
-      <c r="B954" s="16"/>
+      <c r="B954" s="15"/>
       <c r="C954" s="13"/>
       <c r="D954" s="13"/>
       <c r="E954" s="13"/>
@@ -37121,7 +37137,7 @@
     </row>
     <row r="955" spans="1:17" ht="12" customHeight="1">
       <c r="A955" s="13"/>
-      <c r="B955" s="16"/>
+      <c r="B955" s="15"/>
       <c r="C955" s="13"/>
       <c r="D955" s="13"/>
       <c r="E955" s="13"/>
@@ -37140,7 +37156,7 @@
     </row>
     <row r="956" spans="1:17" ht="12" customHeight="1">
       <c r="A956" s="13"/>
-      <c r="B956" s="16"/>
+      <c r="B956" s="15"/>
       <c r="C956" s="13"/>
       <c r="D956" s="13"/>
       <c r="E956" s="13"/>
@@ -37159,7 +37175,7 @@
     </row>
     <row r="957" spans="1:17" ht="12" customHeight="1">
       <c r="A957" s="13"/>
-      <c r="B957" s="16"/>
+      <c r="B957" s="15"/>
       <c r="C957" s="13"/>
       <c r="D957" s="13"/>
       <c r="E957" s="13"/>
@@ -37178,7 +37194,7 @@
     </row>
     <row r="958" spans="1:17" ht="12" customHeight="1">
       <c r="A958" s="13"/>
-      <c r="B958" s="16"/>
+      <c r="B958" s="15"/>
       <c r="C958" s="13"/>
       <c r="D958" s="13"/>
       <c r="E958" s="13"/>
@@ -37197,7 +37213,7 @@
     </row>
     <row r="959" spans="1:17" ht="12" customHeight="1">
       <c r="A959" s="13"/>
-      <c r="B959" s="16"/>
+      <c r="B959" s="15"/>
       <c r="C959" s="13"/>
       <c r="D959" s="13"/>
       <c r="E959" s="13"/>
@@ -37216,7 +37232,7 @@
     </row>
     <row r="960" spans="1:17" ht="12" customHeight="1">
       <c r="A960" s="13"/>
-      <c r="B960" s="16"/>
+      <c r="B960" s="15"/>
       <c r="C960" s="13"/>
       <c r="D960" s="13"/>
       <c r="E960" s="13"/>
@@ -37235,7 +37251,7 @@
     </row>
     <row r="961" spans="1:17" ht="12" customHeight="1">
       <c r="A961" s="13"/>
-      <c r="B961" s="16"/>
+      <c r="B961" s="15"/>
       <c r="C961" s="13"/>
       <c r="D961" s="13"/>
       <c r="E961" s="13"/>
@@ -37254,7 +37270,7 @@
     </row>
     <row r="962" spans="1:17" ht="12" customHeight="1">
       <c r="A962" s="13"/>
-      <c r="B962" s="16"/>
+      <c r="B962" s="15"/>
       <c r="C962" s="13"/>
       <c r="D962" s="13"/>
       <c r="E962" s="13"/>
@@ -37273,7 +37289,7 @@
     </row>
     <row r="963" spans="1:17" ht="12" customHeight="1">
       <c r="A963" s="13"/>
-      <c r="B963" s="16"/>
+      <c r="B963" s="15"/>
       <c r="C963" s="13"/>
       <c r="D963" s="13"/>
       <c r="E963" s="13"/>
@@ -37292,7 +37308,7 @@
     </row>
     <row r="964" spans="1:17" ht="12" customHeight="1">
       <c r="A964" s="13"/>
-      <c r="B964" s="16"/>
+      <c r="B964" s="15"/>
       <c r="C964" s="13"/>
       <c r="D964" s="13"/>
       <c r="E964" s="13"/>
@@ -37311,7 +37327,7 @@
     </row>
     <row r="965" spans="1:17" ht="12" customHeight="1">
       <c r="A965" s="13"/>
-      <c r="B965" s="16"/>
+      <c r="B965" s="15"/>
       <c r="C965" s="13"/>
       <c r="D965" s="13"/>
       <c r="E965" s="13"/>
@@ -37330,7 +37346,7 @@
     </row>
     <row r="966" spans="1:17" ht="12" customHeight="1">
       <c r="A966" s="13"/>
-      <c r="B966" s="16"/>
+      <c r="B966" s="15"/>
       <c r="C966" s="13"/>
       <c r="D966" s="13"/>
       <c r="E966" s="13"/>
@@ -37349,7 +37365,7 @@
     </row>
     <row r="967" spans="1:17" ht="12" customHeight="1">
       <c r="A967" s="13"/>
-      <c r="B967" s="16"/>
+      <c r="B967" s="15"/>
       <c r="C967" s="13"/>
       <c r="D967" s="13"/>
       <c r="E967" s="13"/>
@@ -37368,7 +37384,7 @@
     </row>
     <row r="968" spans="1:17" ht="12" customHeight="1">
       <c r="A968" s="13"/>
-      <c r="B968" s="16"/>
+      <c r="B968" s="15"/>
       <c r="C968" s="13"/>
       <c r="D968" s="13"/>
       <c r="E968" s="13"/>
@@ -37387,7 +37403,7 @@
     </row>
     <row r="969" spans="1:17" ht="12" customHeight="1">
       <c r="A969" s="13"/>
-      <c r="B969" s="16"/>
+      <c r="B969" s="15"/>
       <c r="C969" s="13"/>
       <c r="D969" s="13"/>
       <c r="E969" s="13"/>
@@ -37406,7 +37422,7 @@
     </row>
     <row r="970" spans="1:17" ht="12" customHeight="1">
       <c r="A970" s="13"/>
-      <c r="B970" s="16"/>
+      <c r="B970" s="15"/>
       <c r="C970" s="13"/>
       <c r="D970" s="13"/>
       <c r="E970" s="13"/>
@@ -37425,7 +37441,7 @@
     </row>
     <row r="971" spans="1:17" ht="12" customHeight="1">
       <c r="A971" s="13"/>
-      <c r="B971" s="16"/>
+      <c r="B971" s="15"/>
       <c r="C971" s="13"/>
       <c r="D971" s="13"/>
       <c r="E971" s="13"/>
@@ -37444,7 +37460,7 @@
     </row>
     <row r="972" spans="1:17" ht="12" customHeight="1">
       <c r="A972" s="13"/>
-      <c r="B972" s="16"/>
+      <c r="B972" s="15"/>
       <c r="C972" s="13"/>
       <c r="D972" s="13"/>
       <c r="E972" s="13"/>
@@ -37463,7 +37479,7 @@
     </row>
     <row r="973" spans="1:17" ht="12" customHeight="1">
       <c r="A973" s="13"/>
-      <c r="B973" s="16"/>
+      <c r="B973" s="15"/>
       <c r="C973" s="13"/>
       <c r="D973" s="13"/>
       <c r="E973" s="13"/>
@@ -37482,7 +37498,7 @@
     </row>
     <row r="974" spans="1:17" ht="12" customHeight="1">
       <c r="A974" s="13"/>
-      <c r="B974" s="16"/>
+      <c r="B974" s="15"/>
       <c r="C974" s="13"/>
       <c r="D974" s="13"/>
       <c r="E974" s="13"/>
@@ -37501,7 +37517,7 @@
     </row>
     <row r="975" spans="1:17" ht="12" customHeight="1">
       <c r="A975" s="13"/>
-      <c r="B975" s="16"/>
+      <c r="B975" s="15"/>
       <c r="C975" s="13"/>
       <c r="D975" s="13"/>
       <c r="E975" s="13"/>
@@ -37520,7 +37536,7 @@
     </row>
     <row r="976" spans="1:17" ht="12" customHeight="1">
       <c r="A976" s="13"/>
-      <c r="B976" s="16"/>
+      <c r="B976" s="15"/>
       <c r="C976" s="13"/>
       <c r="D976" s="13"/>
       <c r="E976" s="13"/>
@@ -37539,7 +37555,7 @@
     </row>
     <row r="977" spans="1:17" ht="12" customHeight="1">
       <c r="A977" s="13"/>
-      <c r="B977" s="16"/>
+      <c r="B977" s="15"/>
       <c r="C977" s="13"/>
       <c r="D977" s="13"/>
       <c r="E977" s="13"/>
@@ -37558,7 +37574,7 @@
     </row>
     <row r="978" spans="1:17" ht="12" customHeight="1">
       <c r="A978" s="13"/>
-      <c r="B978" s="16"/>
+      <c r="B978" s="15"/>
       <c r="C978" s="13"/>
       <c r="D978" s="13"/>
       <c r="E978" s="13"/>
@@ -37577,7 +37593,7 @@
     </row>
     <row r="979" spans="1:17" ht="12" customHeight="1">
       <c r="A979" s="13"/>
-      <c r="B979" s="16"/>
+      <c r="B979" s="15"/>
       <c r="C979" s="13"/>
       <c r="D979" s="13"/>
       <c r="E979" s="13"/>
@@ -37596,7 +37612,7 @@
     </row>
     <row r="980" spans="1:17" ht="12" customHeight="1">
       <c r="A980" s="13"/>
-      <c r="B980" s="16"/>
+      <c r="B980" s="15"/>
       <c r="C980" s="13"/>
       <c r="D980" s="13"/>
       <c r="E980" s="13"/>
@@ -37615,7 +37631,7 @@
     </row>
     <row r="981" spans="1:17" ht="12" customHeight="1">
       <c r="A981" s="13"/>
-      <c r="B981" s="16"/>
+      <c r="B981" s="15"/>
       <c r="C981" s="13"/>
       <c r="D981" s="13"/>
       <c r="E981" s="13"/>
@@ -37634,7 +37650,7 @@
     </row>
     <row r="982" spans="1:17" ht="12" customHeight="1">
       <c r="A982" s="13"/>
-      <c r="B982" s="16"/>
+      <c r="B982" s="15"/>
       <c r="C982" s="13"/>
       <c r="D982" s="13"/>
       <c r="E982" s="13"/>
@@ -37653,7 +37669,7 @@
     </row>
     <row r="983" spans="1:17" ht="12" customHeight="1">
       <c r="A983" s="13"/>
-      <c r="B983" s="16"/>
+      <c r="B983" s="15"/>
       <c r="C983" s="13"/>
       <c r="D983" s="13"/>
       <c r="E983" s="13"/>
@@ -37672,7 +37688,7 @@
     </row>
     <row r="984" spans="1:17" ht="12" customHeight="1">
       <c r="A984" s="13"/>
-      <c r="B984" s="16"/>
+      <c r="B984" s="15"/>
       <c r="C984" s="13"/>
       <c r="D984" s="13"/>
       <c r="E984" s="13"/>
@@ -37691,7 +37707,7 @@
     </row>
     <row r="985" spans="1:17" ht="12" customHeight="1">
       <c r="A985" s="13"/>
-      <c r="B985" s="16"/>
+      <c r="B985" s="15"/>
       <c r="C985" s="13"/>
       <c r="D985" s="13"/>
       <c r="E985" s="13"/>
@@ -37710,7 +37726,7 @@
     </row>
     <row r="986" spans="1:17" ht="12" customHeight="1">
       <c r="A986" s="13"/>
-      <c r="B986" s="16"/>
+      <c r="B986" s="15"/>
       <c r="C986" s="13"/>
       <c r="D986" s="13"/>
       <c r="E986" s="13"/>
@@ -37729,7 +37745,7 @@
     </row>
     <row r="987" spans="1:17" ht="12" customHeight="1">
       <c r="A987" s="13"/>
-      <c r="B987" s="16"/>
+      <c r="B987" s="15"/>
       <c r="C987" s="13"/>
       <c r="D987" s="13"/>
       <c r="E987" s="13"/>
@@ -37748,7 +37764,7 @@
     </row>
     <row r="988" spans="1:17" ht="12" customHeight="1">
       <c r="A988" s="13"/>
-      <c r="B988" s="16"/>
+      <c r="B988" s="15"/>
       <c r="C988" s="13"/>
       <c r="D988" s="13"/>
       <c r="E988" s="13"/>
@@ -37767,7 +37783,7 @@
     </row>
     <row r="989" spans="1:17" ht="12" customHeight="1">
       <c r="A989" s="13"/>
-      <c r="B989" s="16"/>
+      <c r="B989" s="15"/>
       <c r="C989" s="13"/>
       <c r="D989" s="13"/>
       <c r="E989" s="13"/>
@@ -37786,7 +37802,7 @@
     </row>
     <row r="990" spans="1:17" ht="12" customHeight="1">
       <c r="A990" s="13"/>
-      <c r="B990" s="16"/>
+      <c r="B990" s="15"/>
       <c r="C990" s="13"/>
       <c r="D990" s="13"/>
       <c r="E990" s="13"/>
@@ -37805,7 +37821,7 @@
     </row>
     <row r="991" spans="1:17" ht="12" customHeight="1">
       <c r="A991" s="13"/>
-      <c r="B991" s="16"/>
+      <c r="B991" s="15"/>
       <c r="C991" s="13"/>
       <c r="D991" s="13"/>
       <c r="E991" s="13"/>
@@ -37824,7 +37840,7 @@
     </row>
     <row r="992" spans="1:17" ht="12" customHeight="1">
       <c r="A992" s="13"/>
-      <c r="B992" s="16"/>
+      <c r="B992" s="15"/>
       <c r="C992" s="13"/>
       <c r="D992" s="13"/>
       <c r="E992" s="13"/>
@@ -37843,7 +37859,7 @@
     </row>
     <row r="993" spans="1:17" ht="12" customHeight="1">
       <c r="A993" s="13"/>
-      <c r="B993" s="16"/>
+      <c r="B993" s="15"/>
       <c r="C993" s="13"/>
       <c r="D993" s="13"/>
       <c r="E993" s="13"/>
@@ -37862,7 +37878,7 @@
     </row>
     <row r="994" spans="1:17" ht="12" customHeight="1">
       <c r="A994" s="13"/>
-      <c r="B994" s="16"/>
+      <c r="B994" s="15"/>
       <c r="C994" s="13"/>
       <c r="D994" s="13"/>
       <c r="E994" s="13"/>
@@ -37881,7 +37897,7 @@
     </row>
     <row r="995" spans="1:17" ht="12" customHeight="1">
       <c r="A995" s="13"/>
-      <c r="B995" s="16"/>
+      <c r="B995" s="15"/>
       <c r="C995" s="13"/>
       <c r="D995" s="13"/>
       <c r="E995" s="13"/>
@@ -37900,7 +37916,7 @@
     </row>
     <row r="996" spans="1:17" ht="12" customHeight="1">
       <c r="A996" s="13"/>
-      <c r="B996" s="16"/>
+      <c r="B996" s="15"/>
       <c r="C996" s="13"/>
       <c r="D996" s="13"/>
       <c r="E996" s="13"/>
@@ -37919,7 +37935,7 @@
     </row>
     <row r="997" spans="1:17" ht="12" customHeight="1">
       <c r="A997" s="13"/>
-      <c r="B997" s="16"/>
+      <c r="B997" s="15"/>
       <c r="C997" s="13"/>
       <c r="D997" s="13"/>
       <c r="E997" s="13"/>
@@ -37938,7 +37954,7 @@
     </row>
     <row r="998" spans="1:17" ht="12" customHeight="1">
       <c r="A998" s="13"/>
-      <c r="B998" s="16"/>
+      <c r="B998" s="15"/>
       <c r="C998" s="13"/>
       <c r="D998" s="13"/>
       <c r="E998" s="13"/>
@@ -37957,7 +37973,7 @@
     </row>
     <row r="999" spans="1:17" ht="12" customHeight="1">
       <c r="A999" s="13"/>
-      <c r="B999" s="16"/>
+      <c r="B999" s="15"/>
       <c r="C999" s="13"/>
       <c r="D999" s="13"/>
       <c r="E999" s="13"/>
@@ -37976,7 +37992,7 @@
     </row>
     <row r="1000" spans="1:17" ht="12" customHeight="1">
       <c r="A1000" s="13"/>
-      <c r="B1000" s="16"/>
+      <c r="B1000" s="15"/>
       <c r="C1000" s="13"/>
       <c r="D1000" s="13"/>
       <c r="E1000" s="13"/>

--- a/data/derived-data/search-string/search-string.xlsx
+++ b/data/derived-data/search-string/search-string.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="2750" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="2750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1003"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1906,7 +1906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -18979,7 +18979,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>

--- a/data/derived-data/search-string/search-string.xlsx
+++ b/data/derived-data/search-string/search-string.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
   <si>
     <t>READ ME</t>
   </si>
@@ -285,9 +285,6 @@
     <t>transboundary agreements</t>
   </si>
   <si>
-    <t>(OCEAN_RELATED) AND (CLIMATE_CHANGE) NOT (NO_TERMS)</t>
-  </si>
-  <si>
     <t>(OCEAN_RELATED) AND (CLIMATE_CHANGE) AND (INTERVENTION_NAT) NOT (NO_TERMS)</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
     <t>(option$ OR manage* OR measure$ OR action$ OR approach* OR pathway$ OR solution$ OR strateg* OR policies OR policy OR practi?e$ OR intervention$ OR technol* OR opportunit* OR "geo engineering" OR "climate engineering" OR "eco engineering")</t>
   </si>
   <si>
-    <t>(OCEAN_RELATED) AND ((CLIMATE_CHANGE) AND ((OPTION) NEAR/5 (MIT_ADAPT))) NOT (NO_TERMS)</t>
-  </si>
-  <si>
     <t>(OCEAN_RELATED) AND ((OCEAN_RENEWABLE) OR ((CLIMATE_CHANGE) AND ((OPTION) NEAR/5 (MIT_ADAPT))) OR ((CLIMATE_CHANGE) AND ((INTERVENTION_MIT) OR (INTERVENTION_NAT) OR ((SOC_ADAPT) AND ((INTERVENTION_SA_BIT) OR (INTERVENTION_SA_SOC_INST)))))) NOT (NO_TERMS)</t>
   </si>
   <si>
@@ -402,16 +396,31 @@
     <t>Mitigating eutrophication/plastic pollution</t>
   </si>
   <si>
-    <t>(OCEAN_RELATED)</t>
-  </si>
-  <si>
-    <t>(OCEAN_RELATED) NOT (NO_TERMS)</t>
-  </si>
-  <si>
     <t>("climate hazard$" OR (climate NEAR/2 variability) OR "climate extreme$" OR "extreme weather" OR "extreme event$" OR "abrupt event$" OR "coast* erosion")</t>
   </si>
   <si>
     <t>(heat$stress OR "thermal stress" OR "heat wave$" OR heatwave$ OR warming OR (coral$ NEAR/1 bleaching) OR ((increas* OR ris*) NEAR/1 temperature$))</t>
+  </si>
+  <si>
+    <t>(OCEAN_RELATED) AND ((OCEAN_RENEWABLE) OR ((CLIMATE_CHANGE) AND ((OPTION) NEAR/5 (MIT_ADAPT))) OR ((CLIMATE_CHANGE) AND ((INTERVENTION_MIT) OR (INTERVENTION_NAT) OR (SOC_ADAPT)))) NOT (NO_TERMS)</t>
+  </si>
+  <si>
+    <t>pollution control</t>
+  </si>
+  <si>
+    <t>("waste management" OR ozone)</t>
+  </si>
+  <si>
+    <t>(OCEAN_RELATED) AND (CLIMATE_CHANGE) AND ((OPTION) NEAR/5 (MIT_ADAPT)) NOT (NO_TERMS)</t>
+  </si>
+  <si>
+    <t>(OCEAN_RELATED) AND (CLIMATE_CHANGE) AND (SOC_ADAPT) NOT (NO_TERMS)</t>
+  </si>
+  <si>
+    <t>note old restoration chunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("environmental hardening" OR "adaptation services" OR "hybrid solution$" OR "living shoreline$" OR "nature based adaptation" OR "ecosystem based management" OR "natural climate buffer$" OR "natural climate solution$" OR restor* OR translocat* OR recover* OR replant* OR rehabilitat* OR reforest* OR regener* OR "blue carbon" OR "natural carbon sink$" OR "intervention ecology" OR reclamation OR reclaim OR rehabilitat* OR reconstruct* OR revegetat* OR re-vegetat* OR (([carbon keywords]) AND (soil OR sediment)) OR depolderisation OR "eco engineering" OR "blue engineering" OR "beach nourish*" OR "shor* nourish*" OR ((restor* OR recover*) AND (connectivity OR predator$ OR "key* species" OR tropic OR biodiversity OR "functional diversity" OR "ecosystem function"))) </t>
   </si>
 </sst>
 </file>
@@ -775,9 +784,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -835,6 +846,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -842,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1003"/>
+  <dimension ref="A1:A1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -855,54 +874,50 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="12" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="12" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="12" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="12" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="12" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="12" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="12" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="12" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="12" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="12" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="12" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="12" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="12" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="12" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="12" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
+    <row r="10" spans="1:1" ht="12" customHeight="1"/>
     <row r="11" spans="1:1" ht="12" customHeight="1"/>
     <row r="12" spans="1:1" ht="12" customHeight="1"/>
     <row r="13" spans="1:1" ht="12" customHeight="1"/>
@@ -1894,8 +1909,6 @@
     <row r="999" ht="12" customHeight="1"/>
     <row r="1000" ht="12" customHeight="1"/>
     <row r="1001" ht="12" customHeight="1"/>
-    <row r="1002" ht="12" customHeight="1"/>
-    <row r="1003" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -1906,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O988"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1949,7 +1962,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1972,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2038,10 +2051,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2110,7 +2123,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -2133,7 +2146,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2179,7 +2192,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2202,7 +2215,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2248,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2317,7 +2330,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2363,7 +2376,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2386,7 +2399,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -2409,7 +2422,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2429,10 +2442,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2455,7 +2468,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2478,7 +2491,7 @@
         <v>73</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -2501,7 +2514,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -2524,7 +2537,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -2547,7 +2560,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2570,7 +2583,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2593,7 +2606,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -2616,7 +2629,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2639,7 +2652,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2662,7 +2675,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -2685,7 +2698,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -2708,7 +2721,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2731,7 +2744,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -2754,7 +2767,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2777,7 +2790,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2800,7 +2813,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2823,7 +2836,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2843,10 +2856,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2869,7 +2882,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -2908,7 +2921,15 @@
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="12" customHeight="1">
-      <c r="A44" s="10"/>
+      <c r="A44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -18979,7 +19000,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>

--- a/data/derived-data/search-string/search-string.xlsx
+++ b/data/derived-data/search-string/search-string.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="2750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="2750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -863,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O988"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
